--- a/ToyQuadScan.xlsx
+++ b/ToyQuadScan.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samuelgrant/Documents/gm2/EDM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F60F587-8CD0-7A4E-A23D-96965BABD1A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C737E60A-2BF4-7240-9BF2-FE1A3969404F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{1274A7F7-32CE-AC49-AA55-A5E18D405CEC}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" activeTab="1" xr2:uid="{1274A7F7-32CE-AC49-AA55-A5E18D405CEC}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Chart1" sheetId="2" r:id="rId1"/>
+    <sheet name="Chart2" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="4">
   <si>
     <t>Br [ppm]</t>
   </si>
@@ -42,6 +44,9 @@
   </si>
   <si>
     <t>&lt;y&gt; [mm]</t>
+  </si>
+  <si>
+    <t>Gradient</t>
   </si>
 </sst>
 </file>
@@ -94,6 +99,3546 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>-40</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.13519886352963781"/>
+                  <c:y val="1.038076514958337E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$4:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.9393939393939394</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.8823529411764706</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.8285714285714285</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.7777777777777777</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.7297297297297298</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.6842105263157894</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.641025641025641</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-38E4-B141-9E10-007FD33D40ED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>-30</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.12216702185837806"/>
+                  <c:y val="-2.8970724926174828E-4"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$4:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>-1.375</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.3333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.2941176470588236</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.2571428571428571</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.2222222222222223</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.1891891891891893</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.1578947368421053</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.1282051282051282</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.1000000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-38E4-B141-9E10-007FD33D40ED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>-20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.13383570017490351"/>
+                  <c:y val="4.7198756282337069E-4"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$4:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>-0.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.72727272727272729</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.70588235294117652</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.68571428571428572</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.64864864864864868</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.63157894736842102</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.61538461538461542</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-38E4-B141-9E10-007FD33D40ED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>-10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.12974621011070067"/>
+                  <c:y val="-1.3391516068799302E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$4:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>-0.125</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.12121212121212122</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.11764705882352941</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.11428571428571428</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.1111111111111111</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.10810810810810811</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.10526315789473684</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.10256410256410256</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-38E4-B141-9E10-007FD33D40ED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.13857950864937882"/>
+                  <c:y val="1.9953771869936085E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$4:$G$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.48484848484848486</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.47058823529411764</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.45714285714285713</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.44444444444444442</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.43243243243243246</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.42105263157894735</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.41025641025641024</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-38E4-B141-9E10-007FD33D40ED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.13857950864937882"/>
+                  <c:y val="6.6775793569190021E-4"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$4:$H$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.125</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0909090909090908</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0588235294117647</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0285714285714285</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.97297297297297303</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.94736842105263153</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.92307692307692313</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-38E4-B141-9E10-007FD33D40ED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.13857950864937882"/>
+                  <c:y val="-2.7493398919150127E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$4:$I$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.696969696969697</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6470588235294117</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5555555555555556</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5135135135135136</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4736842105263157</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4358974358974359</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-38E4-B141-9E10-007FD33D40ED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.13585318193991025"/>
+                  <c:y val="-1.9876450798298937E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$4:$J$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2.375</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3030303030303032</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2352941176470589</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1714285714285713</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1111111111111112</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0540540540540539</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.9487179487179487</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-38E4-B141-9E10-007FD33D40ED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.1356407645951056"/>
+                  <c:y val="-9.5832065212920845E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$4:$K$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9090909090909092</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8235294117647061</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.7428571428571429</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6666666666666665</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5945945945945947</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5263157894736841</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.4615384615384617</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-38E4-B141-9E10-007FD33D40ED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="316498208"/>
+        <c:axId val="316382224"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="316498208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="21.5"/>
+          <c:min val="15.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t>QHV [kV]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="316382224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="316382224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>&lt;y&gt;</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> [mm]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="316498208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$14:$K$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>9.9699999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.8500000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.7400000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.1999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.4899999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-5.6099999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-8.72E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.11840000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.14949999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$1:$K$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>-40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DD6C-BD46-906E-194B8F59ABF2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="350552512"/>
+        <c:axId val="350554144"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="350552512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Quad</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> scan gradients [ppm/kV]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.41650962559698768"/>
+              <c:y val="0.94942807083926251"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="350554144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="350554144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Br</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> [ppm]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.3631633547342824E-3"/>
+              <c:y val="0.4563175428350511"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="350552512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{1FFDF914-6562-2D40-8BB8-03A503FCFBFE}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="131" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{34F266F7-2FDF-3847-AB2E-67D25962AC7E}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="131" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9316565" cy="6078550"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21C5B5CD-C45A-D840-B294-EC290EBCE791}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9316565" cy="6078550"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8E80EBF-BEF3-A34C-A837-1BBD39A756D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -393,44 +3938,88 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F48EF844-6735-FC4F-A8F9-88668F673782}">
-  <dimension ref="B2:K12"/>
+  <dimension ref="B1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
+    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>-40</v>
+      </c>
+      <c r="D1">
+        <v>-30</v>
+      </c>
+      <c r="E1">
+        <v>-20</v>
+      </c>
+      <c r="F1">
+        <v>-10</v>
+      </c>
+      <c r="G1">
+        <v>0</v>
+      </c>
+      <c r="H1">
+        <v>10</v>
+      </c>
+      <c r="I1">
+        <v>20</v>
+      </c>
+      <c r="J1">
+        <v>30</v>
+      </c>
+      <c r="K1">
+        <v>40</v>
+      </c>
+    </row>
     <row r="2" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>0</v>
+      <c r="B2">
+        <v>8</v>
       </c>
       <c r="C2">
-        <v>-40</v>
+        <f>C1+$B$2</f>
+        <v>-32</v>
       </c>
       <c r="D2">
-        <v>-30</v>
+        <f t="shared" ref="D2:K2" si="0">D1+$B$2</f>
+        <v>-22</v>
       </c>
       <c r="E2">
-        <v>-20</v>
+        <f t="shared" si="0"/>
+        <v>-12</v>
       </c>
       <c r="F2">
-        <v>-10</v>
+        <f t="shared" si="0"/>
+        <v>-2</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="H2">
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>18</v>
       </c>
       <c r="I2">
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>28</v>
       </c>
       <c r="J2">
-        <v>30</v>
+        <f t="shared" si="0"/>
+        <v>38</v>
       </c>
       <c r="K2">
-        <v>40</v>
+        <f t="shared" si="0"/>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.2">
@@ -471,39 +4060,39 @@
       </c>
       <c r="C4">
         <f>$C$2/B4</f>
-        <v>-2.5</v>
+        <v>-2</v>
       </c>
       <c r="D4">
         <f>$D$2/B4</f>
-        <v>-1.875</v>
+        <v>-1.375</v>
       </c>
       <c r="E4">
         <f>$E$2/B4</f>
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="F4">
         <f>$F$2/B4</f>
-        <v>-0.625</v>
+        <v>-0.125</v>
       </c>
       <c r="G4">
         <f>$G$2/B4</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H4">
         <f>$H$2/B4</f>
-        <v>0.625</v>
+        <v>1.125</v>
       </c>
       <c r="I4">
         <f>$I$2/B4</f>
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="J4">
         <f>$J$2/B4</f>
-        <v>1.875</v>
+        <v>2.375</v>
       </c>
       <c r="K4">
         <f>$K$2/B4</f>
-        <v>2.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.2">
@@ -511,40 +4100,40 @@
         <v>16.5</v>
       </c>
       <c r="C5">
-        <f t="shared" ref="C5:C12" si="0">$C$2/B5</f>
-        <v>-2.4242424242424243</v>
+        <f t="shared" ref="C5:C12" si="1">$C$2/B5</f>
+        <v>-1.9393939393939394</v>
       </c>
       <c r="D5">
-        <f t="shared" ref="D5:D12" si="1">$D$2/B5</f>
-        <v>-1.8181818181818181</v>
+        <f t="shared" ref="D5:D12" si="2">$D$2/B5</f>
+        <v>-1.3333333333333333</v>
       </c>
       <c r="E5">
-        <f t="shared" ref="E5:E12" si="2">$E$2/B5</f>
-        <v>-1.2121212121212122</v>
+        <f t="shared" ref="E5:E12" si="3">$E$2/B5</f>
+        <v>-0.72727272727272729</v>
       </c>
       <c r="F5">
-        <f t="shared" ref="F5:F12" si="3">$F$2/B5</f>
-        <v>-0.60606060606060608</v>
+        <f t="shared" ref="F5:F12" si="4">$F$2/B5</f>
+        <v>-0.12121212121212122</v>
       </c>
       <c r="G5">
-        <f t="shared" ref="G5:G12" si="4">$G$2/B5</f>
-        <v>0</v>
+        <f t="shared" ref="G5:G12" si="5">$G$2/B5</f>
+        <v>0.48484848484848486</v>
       </c>
       <c r="H5">
-        <f t="shared" ref="H5:H12" si="5">$H$2/B5</f>
-        <v>0.60606060606060608</v>
+        <f t="shared" ref="H5:H12" si="6">$H$2/B5</f>
+        <v>1.0909090909090908</v>
       </c>
       <c r="I5">
-        <f t="shared" ref="I5:I12" si="6">$I$2/B5</f>
-        <v>1.2121212121212122</v>
+        <f t="shared" ref="I5:I12" si="7">$I$2/B5</f>
+        <v>1.696969696969697</v>
       </c>
       <c r="J5">
-        <f t="shared" ref="J5:J12" si="7">$J$2/B5</f>
-        <v>1.8181818181818181</v>
+        <f t="shared" ref="J5:J12" si="8">$J$2/B5</f>
+        <v>2.3030303030303032</v>
       </c>
       <c r="K5">
-        <f t="shared" ref="K5:K12" si="8">$K$2/B5</f>
-        <v>2.4242424242424243</v>
+        <f t="shared" ref="K5:K12" si="9">$K$2/B5</f>
+        <v>2.9090909090909092</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.2">
@@ -552,40 +4141,40 @@
         <v>17</v>
       </c>
       <c r="C6">
-        <f t="shared" si="0"/>
-        <v>-2.3529411764705883</v>
+        <f t="shared" si="1"/>
+        <v>-1.8823529411764706</v>
       </c>
       <c r="D6">
-        <f t="shared" si="1"/>
-        <v>-1.7647058823529411</v>
+        <f t="shared" si="2"/>
+        <v>-1.2941176470588236</v>
       </c>
       <c r="E6">
-        <f t="shared" si="2"/>
-        <v>-1.1764705882352942</v>
+        <f t="shared" si="3"/>
+        <v>-0.70588235294117652</v>
       </c>
       <c r="F6">
-        <f t="shared" si="3"/>
-        <v>-0.58823529411764708</v>
+        <f t="shared" si="4"/>
+        <v>-0.11764705882352941</v>
       </c>
       <c r="G6">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>0.47058823529411764</v>
       </c>
       <c r="H6">
-        <f t="shared" si="5"/>
-        <v>0.58823529411764708</v>
+        <f t="shared" si="6"/>
+        <v>1.0588235294117647</v>
       </c>
       <c r="I6">
-        <f t="shared" si="6"/>
-        <v>1.1764705882352942</v>
+        <f t="shared" si="7"/>
+        <v>1.6470588235294117</v>
       </c>
       <c r="J6">
-        <f t="shared" si="7"/>
-        <v>1.7647058823529411</v>
+        <f t="shared" si="8"/>
+        <v>2.2352941176470589</v>
       </c>
       <c r="K6">
-        <f t="shared" si="8"/>
-        <v>2.3529411764705883</v>
+        <f t="shared" si="9"/>
+        <v>2.8235294117647061</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.2">
@@ -593,40 +4182,40 @@
         <v>17.5</v>
       </c>
       <c r="C7">
-        <f t="shared" si="0"/>
-        <v>-2.2857142857142856</v>
+        <f t="shared" si="1"/>
+        <v>-1.8285714285714285</v>
       </c>
       <c r="D7">
-        <f t="shared" si="1"/>
-        <v>-1.7142857142857142</v>
+        <f t="shared" si="2"/>
+        <v>-1.2571428571428571</v>
       </c>
       <c r="E7">
-        <f t="shared" si="2"/>
-        <v>-1.1428571428571428</v>
+        <f t="shared" si="3"/>
+        <v>-0.68571428571428572</v>
       </c>
       <c r="F7">
-        <f t="shared" si="3"/>
-        <v>-0.5714285714285714</v>
+        <f t="shared" si="4"/>
+        <v>-0.11428571428571428</v>
       </c>
       <c r="G7">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>0.45714285714285713</v>
       </c>
       <c r="H7">
-        <f t="shared" si="5"/>
-        <v>0.5714285714285714</v>
+        <f t="shared" si="6"/>
+        <v>1.0285714285714285</v>
       </c>
       <c r="I7">
-        <f t="shared" si="6"/>
-        <v>1.1428571428571428</v>
+        <f t="shared" si="7"/>
+        <v>1.6</v>
       </c>
       <c r="J7">
-        <f t="shared" si="7"/>
-        <v>1.7142857142857142</v>
+        <f t="shared" si="8"/>
+        <v>2.1714285714285713</v>
       </c>
       <c r="K7">
-        <f t="shared" si="8"/>
-        <v>2.2857142857142856</v>
+        <f t="shared" si="9"/>
+        <v>2.7428571428571429</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.2">
@@ -634,40 +4223,40 @@
         <v>18</v>
       </c>
       <c r="C8">
-        <f t="shared" si="0"/>
-        <v>-2.2222222222222223</v>
+        <f t="shared" si="1"/>
+        <v>-1.7777777777777777</v>
       </c>
       <c r="D8">
-        <f t="shared" si="1"/>
-        <v>-1.6666666666666667</v>
+        <f t="shared" si="2"/>
+        <v>-1.2222222222222223</v>
       </c>
       <c r="E8">
-        <f t="shared" si="2"/>
-        <v>-1.1111111111111112</v>
+        <f t="shared" si="3"/>
+        <v>-0.66666666666666663</v>
       </c>
       <c r="F8">
-        <f t="shared" si="3"/>
-        <v>-0.55555555555555558</v>
+        <f t="shared" si="4"/>
+        <v>-0.1111111111111111</v>
       </c>
       <c r="G8">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>0.44444444444444442</v>
       </c>
       <c r="H8">
-        <f t="shared" si="5"/>
-        <v>0.55555555555555558</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="I8">
-        <f t="shared" si="6"/>
-        <v>1.1111111111111112</v>
+        <f t="shared" si="7"/>
+        <v>1.5555555555555556</v>
       </c>
       <c r="J8">
-        <f t="shared" si="7"/>
-        <v>1.6666666666666667</v>
+        <f t="shared" si="8"/>
+        <v>2.1111111111111112</v>
       </c>
       <c r="K8">
-        <f t="shared" si="8"/>
-        <v>2.2222222222222223</v>
+        <f t="shared" si="9"/>
+        <v>2.6666666666666665</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.2">
@@ -675,40 +4264,40 @@
         <v>18.5</v>
       </c>
       <c r="C9">
-        <f t="shared" si="0"/>
-        <v>-2.1621621621621623</v>
+        <f t="shared" si="1"/>
+        <v>-1.7297297297297298</v>
       </c>
       <c r="D9">
-        <f t="shared" si="1"/>
-        <v>-1.6216216216216217</v>
+        <f t="shared" si="2"/>
+        <v>-1.1891891891891893</v>
       </c>
       <c r="E9">
-        <f t="shared" si="2"/>
-        <v>-1.0810810810810811</v>
+        <f t="shared" si="3"/>
+        <v>-0.64864864864864868</v>
       </c>
       <c r="F9">
-        <f t="shared" si="3"/>
-        <v>-0.54054054054054057</v>
+        <f t="shared" si="4"/>
+        <v>-0.10810810810810811</v>
       </c>
       <c r="G9">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>0.43243243243243246</v>
       </c>
       <c r="H9">
-        <f t="shared" si="5"/>
-        <v>0.54054054054054057</v>
+        <f t="shared" si="6"/>
+        <v>0.97297297297297303</v>
       </c>
       <c r="I9">
-        <f t="shared" si="6"/>
-        <v>1.0810810810810811</v>
+        <f t="shared" si="7"/>
+        <v>1.5135135135135136</v>
       </c>
       <c r="J9">
-        <f t="shared" si="7"/>
-        <v>1.6216216216216217</v>
+        <f t="shared" si="8"/>
+        <v>2.0540540540540539</v>
       </c>
       <c r="K9">
-        <f t="shared" si="8"/>
-        <v>2.1621621621621623</v>
+        <f t="shared" si="9"/>
+        <v>2.5945945945945947</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.2">
@@ -716,40 +4305,40 @@
         <v>19</v>
       </c>
       <c r="C10">
-        <f t="shared" si="0"/>
-        <v>-2.1052631578947367</v>
+        <f t="shared" si="1"/>
+        <v>-1.6842105263157894</v>
       </c>
       <c r="D10">
-        <f t="shared" si="1"/>
-        <v>-1.5789473684210527</v>
+        <f t="shared" si="2"/>
+        <v>-1.1578947368421053</v>
       </c>
       <c r="E10">
-        <f t="shared" si="2"/>
-        <v>-1.0526315789473684</v>
+        <f t="shared" si="3"/>
+        <v>-0.63157894736842102</v>
       </c>
       <c r="F10">
-        <f t="shared" si="3"/>
-        <v>-0.52631578947368418</v>
+        <f t="shared" si="4"/>
+        <v>-0.10526315789473684</v>
       </c>
       <c r="G10">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>0.42105263157894735</v>
       </c>
       <c r="H10">
-        <f t="shared" si="5"/>
-        <v>0.52631578947368418</v>
+        <f t="shared" si="6"/>
+        <v>0.94736842105263153</v>
       </c>
       <c r="I10">
-        <f t="shared" si="6"/>
-        <v>1.0526315789473684</v>
+        <f t="shared" si="7"/>
+        <v>1.4736842105263157</v>
       </c>
       <c r="J10">
-        <f t="shared" si="7"/>
-        <v>1.5789473684210527</v>
+        <f t="shared" si="8"/>
+        <v>2</v>
       </c>
       <c r="K10">
-        <f t="shared" si="8"/>
-        <v>2.1052631578947367</v>
+        <f t="shared" si="9"/>
+        <v>2.5263157894736841</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.2">
@@ -757,40 +4346,40 @@
         <v>19.5</v>
       </c>
       <c r="C11">
-        <f t="shared" si="0"/>
-        <v>-2.0512820512820511</v>
+        <f t="shared" si="1"/>
+        <v>-1.641025641025641</v>
       </c>
       <c r="D11">
-        <f t="shared" si="1"/>
-        <v>-1.5384615384615385</v>
+        <f t="shared" si="2"/>
+        <v>-1.1282051282051282</v>
       </c>
       <c r="E11">
-        <f t="shared" si="2"/>
-        <v>-1.0256410256410255</v>
+        <f t="shared" si="3"/>
+        <v>-0.61538461538461542</v>
       </c>
       <c r="F11">
-        <f t="shared" si="3"/>
-        <v>-0.51282051282051277</v>
+        <f t="shared" si="4"/>
+        <v>-0.10256410256410256</v>
       </c>
       <c r="G11">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>0.41025641025641024</v>
       </c>
       <c r="H11">
-        <f t="shared" si="5"/>
-        <v>0.51282051282051277</v>
+        <f t="shared" si="6"/>
+        <v>0.92307692307692313</v>
       </c>
       <c r="I11">
-        <f t="shared" si="6"/>
-        <v>1.0256410256410255</v>
+        <f t="shared" si="7"/>
+        <v>1.4358974358974359</v>
       </c>
       <c r="J11">
-        <f t="shared" si="7"/>
-        <v>1.5384615384615385</v>
+        <f t="shared" si="8"/>
+        <v>1.9487179487179487</v>
       </c>
       <c r="K11">
-        <f t="shared" si="8"/>
-        <v>2.0512820512820511</v>
+        <f t="shared" si="9"/>
+        <v>2.4615384615384617</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.2">
@@ -798,40 +4387,72 @@
         <v>20</v>
       </c>
       <c r="C12">
-        <f t="shared" si="0"/>
-        <v>-2</v>
+        <f t="shared" si="1"/>
+        <v>-1.6</v>
       </c>
       <c r="D12">
-        <f t="shared" si="1"/>
-        <v>-1.5</v>
+        <f t="shared" si="2"/>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="E12">
-        <f t="shared" si="2"/>
-        <v>-1</v>
+        <f t="shared" si="3"/>
+        <v>-0.6</v>
       </c>
       <c r="F12">
-        <f t="shared" si="3"/>
-        <v>-0.5</v>
+        <f t="shared" si="4"/>
+        <v>-0.1</v>
       </c>
       <c r="G12">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>0.4</v>
       </c>
       <c r="H12">
-        <f t="shared" si="5"/>
-        <v>0.5</v>
+        <f t="shared" si="6"/>
+        <v>0.9</v>
       </c>
       <c r="I12">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>1.4</v>
       </c>
       <c r="J12">
-        <f t="shared" si="7"/>
-        <v>1.5</v>
+        <f t="shared" si="8"/>
+        <v>1.9</v>
       </c>
       <c r="K12">
-        <f t="shared" si="8"/>
-        <v>2</v>
+        <f t="shared" si="9"/>
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>9.9699999999999997E-2</v>
+      </c>
+      <c r="D14">
+        <v>6.8500000000000005E-2</v>
+      </c>
+      <c r="E14">
+        <v>3.7400000000000003E-2</v>
+      </c>
+      <c r="F14">
+        <v>6.1999999999999998E-3</v>
+      </c>
+      <c r="G14">
+        <v>-2.4899999999999999E-2</v>
+      </c>
+      <c r="H14">
+        <v>-5.6099999999999997E-2</v>
+      </c>
+      <c r="I14">
+        <v>-8.72E-2</v>
+      </c>
+      <c r="J14">
+        <v>-0.11840000000000001</v>
+      </c>
+      <c r="K14">
+        <v>-0.14949999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/ToyQuadScan.xlsx
+++ b/ToyQuadScan.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samuelgrant/Documents/gm2/EDM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C737E60A-2BF4-7240-9BF2-FE1A3969404F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{437CF0F3-1827-864A-93A2-55AD266A5A98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" activeTab="1" xr2:uid="{1274A7F7-32CE-AC49-AA55-A5E18D405CEC}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" activeTab="2" xr2:uid="{1274A7F7-32CE-AC49-AA55-A5E18D405CEC}"/>
   </bookViews>
   <sheets>
     <sheet name="Chart1" sheetId="2" r:id="rId1"/>
     <sheet name="Chart2" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -250,31 +250,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>-2</c:v>
+                  <c:v>-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.9393939393939394</c:v>
+                  <c:v>-2.9090909090909092</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1.8823529411764706</c:v>
+                  <c:v>-2.8235294117647061</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1.8285714285714285</c:v>
+                  <c:v>-2.7428571428571429</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1.7777777777777777</c:v>
+                  <c:v>-2.6666666666666665</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.7297297297297298</c:v>
+                  <c:v>-2.5945945945945947</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1.6842105263157894</c:v>
+                  <c:v>-2.5263157894736841</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1.641025641025641</c:v>
+                  <c:v>-2.4615384615384617</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1.6</c:v>
+                  <c:v>-2.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -415,31 +415,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>-1.375</c:v>
+                  <c:v>-2.375</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.3333333333333333</c:v>
+                  <c:v>-2.3030303030303032</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1.2941176470588236</c:v>
+                  <c:v>-2.2352941176470589</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1.2571428571428571</c:v>
+                  <c:v>-2.1714285714285713</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1.2222222222222223</c:v>
+                  <c:v>-2.1111111111111112</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.1891891891891893</c:v>
+                  <c:v>-2.0540540540540539</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1.1578947368421053</c:v>
+                  <c:v>-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1.1282051282051282</c:v>
+                  <c:v>-1.9487179487179487</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1.1000000000000001</c:v>
+                  <c:v>-1.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -580,31 +580,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>-0.75</c:v>
+                  <c:v>-1.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.72727272727272729</c:v>
+                  <c:v>-1.696969696969697</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.70588235294117652</c:v>
+                  <c:v>-1.6470588235294117</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.68571428571428572</c:v>
+                  <c:v>-1.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.66666666666666663</c:v>
+                  <c:v>-1.5555555555555556</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.64864864864864868</c:v>
+                  <c:v>-1.5135135135135136</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.63157894736842102</c:v>
+                  <c:v>-1.4736842105263157</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.61538461538461542</c:v>
+                  <c:v>-1.4358974358974359</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.6</c:v>
+                  <c:v>-1.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -745,31 +745,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>-0.125</c:v>
+                  <c:v>-1.125</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.12121212121212122</c:v>
+                  <c:v>-1.0909090909090908</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.11764705882352941</c:v>
+                  <c:v>-1.0588235294117647</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.11428571428571428</c:v>
+                  <c:v>-1.0285714285714285</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.1111111111111111</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.10810810810810811</c:v>
+                  <c:v>-0.97297297297297303</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.10526315789473684</c:v>
+                  <c:v>-0.94736842105263153</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.10256410256410256</c:v>
+                  <c:v>-0.92307692307692313</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.1</c:v>
+                  <c:v>-0.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -910,31 +910,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.5</c:v>
+                  <c:v>-0.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.48484848484848486</c:v>
+                  <c:v>-0.48484848484848486</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.47058823529411764</c:v>
+                  <c:v>-0.47058823529411764</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.45714285714285713</c:v>
+                  <c:v>-0.45714285714285713</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.44444444444444442</c:v>
+                  <c:v>-0.44444444444444442</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.43243243243243246</c:v>
+                  <c:v>-0.43243243243243246</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.42105263157894735</c:v>
+                  <c:v>-0.42105263157894735</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.41025641025641024</c:v>
+                  <c:v>-0.41025641025641024</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.4</c:v>
+                  <c:v>-0.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1075,31 +1075,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1.125</c:v>
+                  <c:v>0.125</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0909090909090908</c:v>
+                  <c:v>0.12121212121212122</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0588235294117647</c:v>
+                  <c:v>0.11764705882352941</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0285714285714285</c:v>
+                  <c:v>0.11428571428571428</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>0.1111111111111111</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.97297297297297303</c:v>
+                  <c:v>0.10810810810810811</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.94736842105263153</c:v>
+                  <c:v>0.10526315789473684</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.92307692307692313</c:v>
+                  <c:v>0.10256410256410256</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.9</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1246,31 +1246,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1.75</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.696969696969697</c:v>
+                  <c:v>0.72727272727272729</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.6470588235294117</c:v>
+                  <c:v>0.70588235294117652</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.6</c:v>
+                  <c:v>0.68571428571428572</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.5555555555555556</c:v>
+                  <c:v>0.66666666666666663</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.5135135135135136</c:v>
+                  <c:v>0.64864864864864868</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.4736842105263157</c:v>
+                  <c:v>0.63157894736842102</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.4358974358974359</c:v>
+                  <c:v>0.61538461538461542</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.4</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1417,31 +1417,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>2.375</c:v>
+                  <c:v>1.375</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.3030303030303032</c:v>
+                  <c:v>1.3333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.2352941176470589</c:v>
+                  <c:v>1.2941176470588236</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.1714285714285713</c:v>
+                  <c:v>1.2571428571428571</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.1111111111111112</c:v>
+                  <c:v>1.2222222222222223</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.0540540540540539</c:v>
+                  <c:v>1.1891891891891893</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2</c:v>
+                  <c:v>1.1578947368421053</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.9487179487179487</c:v>
+                  <c:v>1.1282051282051282</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.9</c:v>
+                  <c:v>1.1000000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1588,31 +1588,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.9090909090909092</c:v>
+                  <c:v>1.9393939393939394</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.8235294117647061</c:v>
+                  <c:v>1.8823529411764706</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.7428571428571429</c:v>
+                  <c:v>1.8285714285714285</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.6666666666666665</c:v>
+                  <c:v>1.7777777777777777</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.5945945945945947</c:v>
+                  <c:v>1.7297297297297298</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.5263157894736841</c:v>
+                  <c:v>1.6842105263157894</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.4615384615384617</c:v>
+                  <c:v>1.641025641025641</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.4</c:v>
+                  <c:v>1.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3568,7 +3568,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{34F266F7-2FDF-3847-AB2E-67D25962AC7E}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="131" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="131" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3940,8 +3940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F48EF844-6735-FC4F-A8F9-88668F673782}">
   <dimension ref="B1:K14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3986,40 +3986,40 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <f>C1+$B$2</f>
-        <v>-32</v>
+        <f>C1-$B$2</f>
+        <v>-48</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:K2" si="0">D1+$B$2</f>
-        <v>-22</v>
+        <f t="shared" ref="D2:K2" si="0">D1-$B$2</f>
+        <v>-38</v>
       </c>
       <c r="E2">
         <f t="shared" si="0"/>
-        <v>-12</v>
+        <v>-28</v>
       </c>
       <c r="F2">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>-18</v>
       </c>
       <c r="G2">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="H2">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="I2">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="J2">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="K2">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.2">
@@ -4060,39 +4060,39 @@
       </c>
       <c r="C4">
         <f>$C$2/B4</f>
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D4">
         <f>$D$2/B4</f>
-        <v>-1.375</v>
+        <v>-2.375</v>
       </c>
       <c r="E4">
         <f>$E$2/B4</f>
-        <v>-0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="F4">
         <f>$F$2/B4</f>
-        <v>-0.125</v>
+        <v>-1.125</v>
       </c>
       <c r="G4">
         <f>$G$2/B4</f>
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="H4">
         <f>$H$2/B4</f>
-        <v>1.125</v>
+        <v>0.125</v>
       </c>
       <c r="I4">
         <f>$I$2/B4</f>
-        <v>1.75</v>
+        <v>0.75</v>
       </c>
       <c r="J4">
         <f>$J$2/B4</f>
-        <v>2.375</v>
+        <v>1.375</v>
       </c>
       <c r="K4">
         <f>$K$2/B4</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.2">
@@ -4101,39 +4101,39 @@
       </c>
       <c r="C5">
         <f t="shared" ref="C5:C12" si="1">$C$2/B5</f>
-        <v>-1.9393939393939394</v>
+        <v>-2.9090909090909092</v>
       </c>
       <c r="D5">
         <f t="shared" ref="D5:D12" si="2">$D$2/B5</f>
-        <v>-1.3333333333333333</v>
+        <v>-2.3030303030303032</v>
       </c>
       <c r="E5">
         <f t="shared" ref="E5:E12" si="3">$E$2/B5</f>
-        <v>-0.72727272727272729</v>
+        <v>-1.696969696969697</v>
       </c>
       <c r="F5">
         <f t="shared" ref="F5:F12" si="4">$F$2/B5</f>
-        <v>-0.12121212121212122</v>
+        <v>-1.0909090909090908</v>
       </c>
       <c r="G5">
         <f t="shared" ref="G5:G12" si="5">$G$2/B5</f>
-        <v>0.48484848484848486</v>
+        <v>-0.48484848484848486</v>
       </c>
       <c r="H5">
         <f t="shared" ref="H5:H12" si="6">$H$2/B5</f>
-        <v>1.0909090909090908</v>
+        <v>0.12121212121212122</v>
       </c>
       <c r="I5">
         <f t="shared" ref="I5:I12" si="7">$I$2/B5</f>
-        <v>1.696969696969697</v>
+        <v>0.72727272727272729</v>
       </c>
       <c r="J5">
         <f t="shared" ref="J5:J12" si="8">$J$2/B5</f>
-        <v>2.3030303030303032</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="K5">
         <f t="shared" ref="K5:K12" si="9">$K$2/B5</f>
-        <v>2.9090909090909092</v>
+        <v>1.9393939393939394</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.2">
@@ -4142,39 +4142,39 @@
       </c>
       <c r="C6">
         <f t="shared" si="1"/>
-        <v>-1.8823529411764706</v>
+        <v>-2.8235294117647061</v>
       </c>
       <c r="D6">
         <f t="shared" si="2"/>
-        <v>-1.2941176470588236</v>
+        <v>-2.2352941176470589</v>
       </c>
       <c r="E6">
         <f t="shared" si="3"/>
-        <v>-0.70588235294117652</v>
+        <v>-1.6470588235294117</v>
       </c>
       <c r="F6">
         <f t="shared" si="4"/>
-        <v>-0.11764705882352941</v>
+        <v>-1.0588235294117647</v>
       </c>
       <c r="G6">
         <f t="shared" si="5"/>
-        <v>0.47058823529411764</v>
+        <v>-0.47058823529411764</v>
       </c>
       <c r="H6">
         <f t="shared" si="6"/>
-        <v>1.0588235294117647</v>
+        <v>0.11764705882352941</v>
       </c>
       <c r="I6">
         <f t="shared" si="7"/>
-        <v>1.6470588235294117</v>
+        <v>0.70588235294117652</v>
       </c>
       <c r="J6">
         <f t="shared" si="8"/>
-        <v>2.2352941176470589</v>
+        <v>1.2941176470588236</v>
       </c>
       <c r="K6">
         <f t="shared" si="9"/>
-        <v>2.8235294117647061</v>
+        <v>1.8823529411764706</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.2">
@@ -4183,39 +4183,39 @@
       </c>
       <c r="C7">
         <f t="shared" si="1"/>
-        <v>-1.8285714285714285</v>
+        <v>-2.7428571428571429</v>
       </c>
       <c r="D7">
         <f t="shared" si="2"/>
-        <v>-1.2571428571428571</v>
+        <v>-2.1714285714285713</v>
       </c>
       <c r="E7">
         <f t="shared" si="3"/>
-        <v>-0.68571428571428572</v>
+        <v>-1.6</v>
       </c>
       <c r="F7">
         <f t="shared" si="4"/>
-        <v>-0.11428571428571428</v>
+        <v>-1.0285714285714285</v>
       </c>
       <c r="G7">
         <f t="shared" si="5"/>
-        <v>0.45714285714285713</v>
+        <v>-0.45714285714285713</v>
       </c>
       <c r="H7">
         <f t="shared" si="6"/>
-        <v>1.0285714285714285</v>
+        <v>0.11428571428571428</v>
       </c>
       <c r="I7">
         <f t="shared" si="7"/>
-        <v>1.6</v>
+        <v>0.68571428571428572</v>
       </c>
       <c r="J7">
         <f t="shared" si="8"/>
-        <v>2.1714285714285713</v>
+        <v>1.2571428571428571</v>
       </c>
       <c r="K7">
         <f t="shared" si="9"/>
-        <v>2.7428571428571429</v>
+        <v>1.8285714285714285</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.2">
@@ -4224,39 +4224,39 @@
       </c>
       <c r="C8">
         <f t="shared" si="1"/>
-        <v>-1.7777777777777777</v>
+        <v>-2.6666666666666665</v>
       </c>
       <c r="D8">
         <f t="shared" si="2"/>
-        <v>-1.2222222222222223</v>
+        <v>-2.1111111111111112</v>
       </c>
       <c r="E8">
         <f t="shared" si="3"/>
-        <v>-0.66666666666666663</v>
+        <v>-1.5555555555555556</v>
       </c>
       <c r="F8">
         <f t="shared" si="4"/>
-        <v>-0.1111111111111111</v>
+        <v>-1</v>
       </c>
       <c r="G8">
         <f t="shared" si="5"/>
-        <v>0.44444444444444442</v>
+        <v>-0.44444444444444442</v>
       </c>
       <c r="H8">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="I8">
         <f t="shared" si="7"/>
-        <v>1.5555555555555556</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="J8">
         <f t="shared" si="8"/>
-        <v>2.1111111111111112</v>
+        <v>1.2222222222222223</v>
       </c>
       <c r="K8">
         <f t="shared" si="9"/>
-        <v>2.6666666666666665</v>
+        <v>1.7777777777777777</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.2">
@@ -4265,39 +4265,39 @@
       </c>
       <c r="C9">
         <f t="shared" si="1"/>
-        <v>-1.7297297297297298</v>
+        <v>-2.5945945945945947</v>
       </c>
       <c r="D9">
         <f t="shared" si="2"/>
-        <v>-1.1891891891891893</v>
+        <v>-2.0540540540540539</v>
       </c>
       <c r="E9">
         <f t="shared" si="3"/>
-        <v>-0.64864864864864868</v>
+        <v>-1.5135135135135136</v>
       </c>
       <c r="F9">
         <f t="shared" si="4"/>
-        <v>-0.10810810810810811</v>
+        <v>-0.97297297297297303</v>
       </c>
       <c r="G9">
         <f t="shared" si="5"/>
-        <v>0.43243243243243246</v>
+        <v>-0.43243243243243246</v>
       </c>
       <c r="H9">
         <f t="shared" si="6"/>
-        <v>0.97297297297297303</v>
+        <v>0.10810810810810811</v>
       </c>
       <c r="I9">
         <f t="shared" si="7"/>
-        <v>1.5135135135135136</v>
+        <v>0.64864864864864868</v>
       </c>
       <c r="J9">
         <f t="shared" si="8"/>
-        <v>2.0540540540540539</v>
+        <v>1.1891891891891893</v>
       </c>
       <c r="K9">
         <f t="shared" si="9"/>
-        <v>2.5945945945945947</v>
+        <v>1.7297297297297298</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.2">
@@ -4306,39 +4306,39 @@
       </c>
       <c r="C10">
         <f t="shared" si="1"/>
-        <v>-1.6842105263157894</v>
+        <v>-2.5263157894736841</v>
       </c>
       <c r="D10">
         <f t="shared" si="2"/>
-        <v>-1.1578947368421053</v>
+        <v>-2</v>
       </c>
       <c r="E10">
         <f t="shared" si="3"/>
-        <v>-0.63157894736842102</v>
+        <v>-1.4736842105263157</v>
       </c>
       <c r="F10">
         <f t="shared" si="4"/>
-        <v>-0.10526315789473684</v>
+        <v>-0.94736842105263153</v>
       </c>
       <c r="G10">
         <f t="shared" si="5"/>
-        <v>0.42105263157894735</v>
+        <v>-0.42105263157894735</v>
       </c>
       <c r="H10">
         <f t="shared" si="6"/>
-        <v>0.94736842105263153</v>
+        <v>0.10526315789473684</v>
       </c>
       <c r="I10">
         <f t="shared" si="7"/>
-        <v>1.4736842105263157</v>
+        <v>0.63157894736842102</v>
       </c>
       <c r="J10">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>1.1578947368421053</v>
       </c>
       <c r="K10">
         <f t="shared" si="9"/>
-        <v>2.5263157894736841</v>
+        <v>1.6842105263157894</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.2">
@@ -4347,39 +4347,39 @@
       </c>
       <c r="C11">
         <f t="shared" si="1"/>
-        <v>-1.641025641025641</v>
+        <v>-2.4615384615384617</v>
       </c>
       <c r="D11">
         <f t="shared" si="2"/>
-        <v>-1.1282051282051282</v>
+        <v>-1.9487179487179487</v>
       </c>
       <c r="E11">
         <f t="shared" si="3"/>
-        <v>-0.61538461538461542</v>
+        <v>-1.4358974358974359</v>
       </c>
       <c r="F11">
         <f t="shared" si="4"/>
-        <v>-0.10256410256410256</v>
+        <v>-0.92307692307692313</v>
       </c>
       <c r="G11">
         <f t="shared" si="5"/>
-        <v>0.41025641025641024</v>
+        <v>-0.41025641025641024</v>
       </c>
       <c r="H11">
         <f t="shared" si="6"/>
-        <v>0.92307692307692313</v>
+        <v>0.10256410256410256</v>
       </c>
       <c r="I11">
         <f t="shared" si="7"/>
-        <v>1.4358974358974359</v>
+        <v>0.61538461538461542</v>
       </c>
       <c r="J11">
         <f t="shared" si="8"/>
-        <v>1.9487179487179487</v>
+        <v>1.1282051282051282</v>
       </c>
       <c r="K11">
         <f t="shared" si="9"/>
-        <v>2.4615384615384617</v>
+        <v>1.641025641025641</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.2">
@@ -4388,39 +4388,39 @@
       </c>
       <c r="C12">
         <f t="shared" si="1"/>
-        <v>-1.6</v>
+        <v>-2.4</v>
       </c>
       <c r="D12">
         <f t="shared" si="2"/>
-        <v>-1.1000000000000001</v>
+        <v>-1.9</v>
       </c>
       <c r="E12">
         <f t="shared" si="3"/>
-        <v>-0.6</v>
+        <v>-1.4</v>
       </c>
       <c r="F12">
         <f t="shared" si="4"/>
-        <v>-0.1</v>
+        <v>-0.9</v>
       </c>
       <c r="G12">
         <f t="shared" si="5"/>
-        <v>0.4</v>
+        <v>-0.4</v>
       </c>
       <c r="H12">
         <f t="shared" si="6"/>
-        <v>0.9</v>
+        <v>0.1</v>
       </c>
       <c r="I12">
         <f t="shared" si="7"/>
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="J12">
         <f t="shared" si="8"/>
-        <v>1.9</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K12">
         <f t="shared" si="9"/>
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.2">

--- a/ToyQuadScan.xlsx
+++ b/ToyQuadScan.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samuelgrant/Documents/gm2/EDM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{437CF0F3-1827-864A-93A2-55AD266A5A98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA7107A3-DE90-434A-BC80-F567B6C6D5FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" activeTab="2" xr2:uid="{1274A7F7-32CE-AC49-AA55-A5E18D405CEC}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="4" xr2:uid="{1274A7F7-32CE-AC49-AA55-A5E18D405CEC}"/>
   </bookViews>
   <sheets>
-    <sheet name="Chart1" sheetId="2" r:id="rId1"/>
-    <sheet name="Chart2" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="1" sheetId="4" r:id="rId1"/>
+    <sheet name="Chart1" sheetId="2" r:id="rId2"/>
+    <sheet name="Chart2" sheetId="3" r:id="rId3"/>
+    <sheet name="Chart3" sheetId="5" r:id="rId4"/>
+    <sheet name="H" sheetId="1" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="17">
   <si>
     <t>Br [ppm]</t>
   </si>
@@ -48,11 +50,53 @@
   <si>
     <t>Gradient</t>
   </si>
+  <si>
+    <t>Calo</t>
+  </si>
+  <si>
+    <t>Theta [rad]</t>
+  </si>
+  <si>
+    <t>Theta [deg]</t>
+  </si>
+  <si>
+    <t>Br App [ppm]</t>
+  </si>
+  <si>
+    <t>Br Bkg [ppm]</t>
+  </si>
+  <si>
+    <t>Br tot [ppm]</t>
+  </si>
+  <si>
+    <t>y1 [mm]</t>
+  </si>
+  <si>
+    <t>y2 [mm]</t>
+  </si>
+  <si>
+    <t>Assuming higher order Br terms are all the same</t>
+  </si>
+  <si>
+    <t>phi 1 [rad]</t>
+  </si>
+  <si>
+    <t>phi 2 [rad]</t>
+  </si>
+  <si>
+    <t>y tot [mm]</t>
+  </si>
+  <si>
+    <t>y3 [mm]</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -82,8 +126,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -124,17 +169,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>-40</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:noFill/>
@@ -209,78 +243,45 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$12</c:f>
+              <c:f>H!$B$1:$B$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>17.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>18.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>19.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>20</c:v>
-                </c:pt>
+                <c:ptCount val="2"/>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$4:$C$12</c:f>
+              <c:f>H!$C$1:$C$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-2.9090909090909092</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-2.8235294117647061</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-2.7428571428571429</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-2.6666666666666665</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-2.5945945945945947</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-2.5263157894736841</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-2.4615384615384617</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-2.4</c:v>
-                </c:pt>
+                <c:ptCount val="2"/>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>H!#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>#REF!</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-38E4-B141-9E10-007FD33D40ED}"/>
             </c:ext>
@@ -289,17 +290,6 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>-30</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:noFill/>
@@ -374,78 +364,45 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$12</c:f>
+              <c:f>H!$B$1:$B$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>17.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>18.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>19.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>20</c:v>
-                </c:pt>
+                <c:ptCount val="2"/>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$4:$D$12</c:f>
+              <c:f>H!$D$1:$D$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>-2.375</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-2.3030303030303032</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-2.2352941176470589</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-2.1714285714285713</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-2.1111111111111112</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-2.0540540540540539</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-1.9487179487179487</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-1.9</c:v>
-                </c:pt>
+                <c:ptCount val="2"/>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>H!#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>#REF!</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-38E4-B141-9E10-007FD33D40ED}"/>
             </c:ext>
@@ -454,17 +411,6 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>-20</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:noFill/>
@@ -539,78 +485,45 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$12</c:f>
+              <c:f>H!$B$1:$B$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>17.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>18.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>19.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>20</c:v>
-                </c:pt>
+                <c:ptCount val="2"/>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$4:$E$12</c:f>
+              <c:f>H!$E$1:$E$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>-1.75</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-1.696969696969697</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-1.6470588235294117</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-1.6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-1.5555555555555556</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-1.5135135135135136</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-1.4736842105263157</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-1.4358974358974359</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-1.4</c:v>
-                </c:pt>
+                <c:ptCount val="2"/>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>H!#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>#REF!</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-38E4-B141-9E10-007FD33D40ED}"/>
             </c:ext>
@@ -619,17 +532,6 @@
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>-10</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:noFill/>
@@ -704,78 +606,45 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$12</c:f>
+              <c:f>H!$B$1:$B$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>17.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>18.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>19.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>20</c:v>
-                </c:pt>
+                <c:ptCount val="2"/>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$4:$F$12</c:f>
+              <c:f>H!$F$1:$F$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>-1.125</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-1.0909090909090908</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-1.0588235294117647</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-1.0285714285714285</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-0.97297297297297303</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-0.94736842105263153</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-0.92307692307692313</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-0.9</c:v>
-                </c:pt>
+                <c:ptCount val="2"/>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>H!#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>#REF!</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-38E4-B141-9E10-007FD33D40ED}"/>
             </c:ext>
@@ -784,17 +653,6 @@
         <c:ser>
           <c:idx val="4"/>
           <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:noFill/>
@@ -869,78 +727,45 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$12</c:f>
+              <c:f>H!$B$1:$B$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>17.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>18.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>19.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>20</c:v>
-                </c:pt>
+                <c:ptCount val="2"/>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$G$4:$G$12</c:f>
+              <c:f>H!$G$1:$G$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>-0.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-0.48484848484848486</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-0.47058823529411764</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-0.45714285714285713</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-0.44444444444444442</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-0.43243243243243246</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-0.42105263157894735</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-0.41025641025641024</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-0.4</c:v>
-                </c:pt>
+                <c:ptCount val="2"/>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>H!#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>#REF!</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-38E4-B141-9E10-007FD33D40ED}"/>
             </c:ext>
@@ -949,17 +774,6 @@
         <c:ser>
           <c:idx val="5"/>
           <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:noFill/>
@@ -1034,78 +848,45 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$12</c:f>
+              <c:f>H!$B$1:$B$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>17.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>18.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>19.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>20</c:v>
-                </c:pt>
+                <c:ptCount val="2"/>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$H$4:$H$12</c:f>
+              <c:f>H!$H$1:$H$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.125</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.12121212121212122</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.11764705882352941</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.11428571428571428</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.1111111111111111</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.10810810810810811</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.10526315789473684</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.10256410256410256</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.1</c:v>
-                </c:pt>
+                <c:ptCount val="2"/>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>H!#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>#REF!</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-38E4-B141-9E10-007FD33D40ED}"/>
             </c:ext>
@@ -1114,17 +895,6 @@
         <c:ser>
           <c:idx val="6"/>
           <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$I$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>20</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:noFill/>
@@ -1205,78 +975,45 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$12</c:f>
+              <c:f>H!$B$1:$B$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>17.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>18.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>19.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>20</c:v>
-                </c:pt>
+                <c:ptCount val="2"/>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$I$4:$I$12</c:f>
+              <c:f>H!$I$1:$I$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.72727272727272729</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.70588235294117652</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.68571428571428572</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.66666666666666663</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.64864864864864868</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.63157894736842102</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.61538461538461542</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.6</c:v>
-                </c:pt>
+                <c:ptCount val="2"/>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>H!#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>#REF!</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-38E4-B141-9E10-007FD33D40ED}"/>
             </c:ext>
@@ -1285,17 +1022,6 @@
         <c:ser>
           <c:idx val="7"/>
           <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$J$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>30</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:noFill/>
@@ -1376,78 +1102,45 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$12</c:f>
+              <c:f>H!$B$1:$B$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>17.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>18.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>19.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>20</c:v>
-                </c:pt>
+                <c:ptCount val="2"/>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$J$4:$J$12</c:f>
+              <c:f>H!$J$1:$J$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>1.375</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.3333333333333333</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.2941176470588236</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.2571428571428571</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.2222222222222223</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.1891891891891893</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.1578947368421053</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.1282051282051282</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.1000000000000001</c:v>
-                </c:pt>
+                <c:ptCount val="2"/>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>H!#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>#REF!</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-38E4-B141-9E10-007FD33D40ED}"/>
             </c:ext>
@@ -1456,17 +1149,6 @@
         <c:ser>
           <c:idx val="8"/>
           <c:order val="8"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$K$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>40</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:noFill/>
@@ -1547,78 +1229,45 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$12</c:f>
+              <c:f>H!$B$1:$B$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>17.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>18.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>19.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>20</c:v>
-                </c:pt>
+                <c:ptCount val="2"/>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$K$4:$K$12</c:f>
+              <c:f>H!$K$1:$K$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.9393939393939394</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.8823529411764706</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.8285714285714285</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.7777777777777777</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.7297297297297298</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.6842105263157894</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.641025641025641</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.6</c:v>
-                </c:pt>
+                <c:ptCount val="2"/>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>H!#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>#REF!</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000A-38E4-B141-9E10-007FD33D40ED}"/>
             </c:ext>
@@ -2046,72 +1695,21 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$14:$K$14</c:f>
+              <c:f>H!$C$4:$K$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>9.9699999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.8500000000000005E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.7400000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.1999999999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-2.4899999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-5.6099999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-8.72E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-0.11840000000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-0.14949999999999999</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$1:$K$1</c:f>
+              <c:f>H!#REF!</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>-40</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-30</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-20</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-10</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>40</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2441,6 +2039,3658 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Higher</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Order Terms</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Total</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>H!$F$7:$F$30</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>14.693877551020407</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29.387755102040813</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44.08163265306122</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>58.775510204081627</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>73.469387755102048</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>88.16326530612244</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>102.85714285714286</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>117.55102040816325</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>132.24489795918367</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>146.9387755102041</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>161.63265306122446</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>176.32653061224488</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>191.0204081632653</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>205.71428571428572</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>220.40816326530611</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>235.10204081632651</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>249.79591836734696</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>264.48979591836735</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>279.18367346938771</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>293.87755102040819</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>308.57142857142856</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>323.26530612244892</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>337.9591836734694</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>352.65306122448976</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>H!$J$7:$J$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0.10810715601219067</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.9696619371461122</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3.1172955167332446</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3.1544397264088513</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.161006788421532</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.45075621515069858</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5132546411701817</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.2393423092792228</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.332836813580208</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5944132012841985</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.0660201697755998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.0129367472047548</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.8470424719481036</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.0116016260200635</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.85781640051818497</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5455323008569555</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.9942331996461893</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.8974526399950804</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.7973052327561678</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.2002405396796725</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.7043653447139615</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.1055466449532005</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.4548137285340594</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.0519679134504045</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6BFA-0242-ADEC-68A02244DCFE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>1st Order</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>H!$F$7:$F$30</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>14.693877551020407</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29.387755102040813</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44.08163265306122</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>58.775510204081627</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>73.469387755102048</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>88.16326530612244</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>102.85714285714286</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>117.55102040816325</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>132.24489795918367</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>146.9387755102041</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>161.63265306122446</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>176.32653061224488</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>191.0204081632653</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>205.71428571428572</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>220.40816326530611</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>235.10204081632651</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>249.79591836734696</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>264.48979591836735</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>279.18367346938771</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>293.87755102040819</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>308.57142857142856</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>323.26530612244892</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>337.9591836734694</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>352.65306122448976</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>H!$G$7:$G$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>2.7142857142857144</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.7142857142857144</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7142857142857144</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.7142857142857144</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.7142857142857144</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.7142857142857144</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.7142857142857144</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.7142857142857144</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.7142857142857144</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.7142857142857144</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.7142857142857144</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.7142857142857144</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.7142857142857144</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.7142857142857144</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.7142857142857144</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.7142857142857144</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.7142857142857144</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.7142857142857144</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.7142857142857144</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.7142857142857144</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.7142857142857144</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.7142857142857144</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.7142857142857144</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.7142857142857144</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6BFA-0242-ADEC-68A02244DCFE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>2nd Order</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>H!$F$7:$F$30</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>14.693877551020407</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29.387755102040813</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44.08163265306122</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>58.775510204081627</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>73.469387755102048</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>88.16326530612244</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>102.85714285714286</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>117.55102040816325</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>132.24489795918367</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>146.9387755102041</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>161.63265306122446</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>176.32653061224488</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>191.0204081632653</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>205.71428571428572</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>220.40816326530611</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>235.10204081632651</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>249.79591836734696</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>264.48979591836735</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>279.18367346938771</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>293.87755102040819</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>308.57142857142856</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>323.26530612244892</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>337.9591836734694</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>352.65306122448976</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>H!$H$7:$H$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>-0.74145186065855972</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.4344051520115109</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.0335336094563448</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.4996480764771656</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.8022598781071619</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2.9215750935097029</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2.8497892817622534</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2.591597972474923</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2.1638895299124603</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.5946404804616034</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.92108556037673894</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.18728218148208467</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.55877137620401141</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.268275545112862</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.894821463207381</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.397426590360332</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.7432153875300691</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.9095697147745794</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.8856082899807012</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.6728984365077597</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.2853535641373179</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.7483230891281722</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.0969343219550949</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.37379478030855762</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6BFA-0242-ADEC-68A02244DCFE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>3rd Order</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>H!$F$7:$F$30</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>14.693877551020407</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29.387755102040813</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44.08163265306122</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>58.775510204081627</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>73.469387755102048</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>88.16326530612244</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>102.85714285714286</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>117.55102040816325</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>132.24489795918367</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>146.9387755102041</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>161.63265306122446</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>176.32653061224488</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>191.0204081632653</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>205.71428571428572</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>220.40816326530611</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>235.10204081632651</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>249.79591836734696</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>264.48979591836735</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>279.18367346938771</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>293.87755102040819</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>308.57142857142856</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>323.26530612244892</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>337.9591836734694</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>352.65306122448976</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>H!$I$7:$I$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>-1.8647266976149641</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3.2495424994203157</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3.7980476215626142</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3.3690773642174001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.0730326246000845</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.24346683592671009</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6487582086467207</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.1166545674684314</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.7824406292069535</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.4747679674600875</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.2728200158666239</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.48593321440112491</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1.426014618541622</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-2.9709596333785129</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-3.7512907769749106</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-3.5661800037890905</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-2.4632679021695938</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.72640278906521305</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.1974112284897527</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.8130563888861988</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.7047260662909296</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.6429378415393132</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.6435936922932508</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.96388741885613238</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6BFA-0242-ADEC-68A02244DCFE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1792343055"/>
+        <c:axId val="1792192383"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1792343055"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Theta</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> [deg]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1792192383"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1792192383"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>y</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> tot [mm]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1792343055"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Higher</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Order Terms</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Total</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>H!$F$33:$F$56</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>14.693877551020407</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29.387755102040813</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44.08163265306122</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>58.775510204081627</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>73.469387755102048</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>88.16326530612244</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>102.85714285714286</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>117.55102040816325</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>132.24489795918367</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>146.9387755102041</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>161.63265306122446</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>176.32653061224488</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>191.0204081632653</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>205.71428571428572</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>220.40816326530611</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>235.10204081632651</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>249.79591836734696</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>264.48979591836735</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>279.18367346938771</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>293.87755102040819</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>308.57142857142856</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>323.26530612244892</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>337.9591836734694</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>352.65306122448976</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>H!$J$33:$J$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0.10810715601219067</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.9696619371461122</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3.1172955167332446</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3.1544397264088513</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.161006788421532</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.45075621515069858</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5132546411701817</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.2393423092792228</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.332836813580208</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5944132012841985</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.0660201697755998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.0129367472047548</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.8470424719481036</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.0116016260200635</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.85781640051818497</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5455323008569555</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.9942331996461893</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.8974526399950804</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.7973052327561678</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.2002405396796725</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.7043653447139615</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.1055466449532005</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.4548137285340594</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.0519679134504045</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FC02-7C4B-B82B-E9431799A7D5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>1st Order</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>H!$F$33:$F$56</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>14.693877551020407</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29.387755102040813</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44.08163265306122</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>58.775510204081627</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>73.469387755102048</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>88.16326530612244</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>102.85714285714286</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>117.55102040816325</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>132.24489795918367</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>146.9387755102041</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>161.63265306122446</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>176.32653061224488</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>191.0204081632653</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>205.71428571428572</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>220.40816326530611</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>235.10204081632651</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>249.79591836734696</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>264.48979591836735</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>279.18367346938771</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>293.87755102040819</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>308.57142857142856</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>323.26530612244892</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>337.9591836734694</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>352.65306122448976</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>H!$G$33:$G$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>2.7142857142857144</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.7142857142857144</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7142857142857144</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.7142857142857144</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.7142857142857144</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.7142857142857144</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.7142857142857144</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.7142857142857144</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.7142857142857144</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.7142857142857144</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.7142857142857144</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.7142857142857144</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.7142857142857144</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.7142857142857144</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.7142857142857144</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.7142857142857144</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.7142857142857144</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.7142857142857144</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.7142857142857144</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.7142857142857144</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.7142857142857144</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.7142857142857144</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.7142857142857144</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.7142857142857144</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FC02-7C4B-B82B-E9431799A7D5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>2nd Order</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>H!$F$7:$F$30</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>14.693877551020407</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29.387755102040813</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44.08163265306122</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>58.775510204081627</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>73.469387755102048</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>88.16326530612244</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>102.85714285714286</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>117.55102040816325</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>132.24489795918367</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>146.9387755102041</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>161.63265306122446</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>176.32653061224488</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>191.0204081632653</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>205.71428571428572</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>220.40816326530611</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>235.10204081632651</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>249.79591836734696</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>264.48979591836735</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>279.18367346938771</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>293.87755102040819</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>308.57142857142856</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>323.26530612244892</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>337.9591836734694</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>352.65306122448976</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>H!$H$7:$H$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>-0.74145186065855972</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.4344051520115109</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.0335336094563448</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.4996480764771656</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.8022598781071619</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2.9215750935097029</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2.8497892817622534</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2.591597972474923</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2.1638895299124603</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.5946404804616034</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.92108556037673894</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.18728218148208467</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.55877137620401141</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.268275545112862</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.894821463207381</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.397426590360332</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.7432153875300691</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.9095697147745794</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.8856082899807012</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.6728984365077597</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.2853535641373179</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.7483230891281722</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.0969343219550949</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.37379478030855762</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FC02-7C4B-B82B-E9431799A7D5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>3rd Order</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>H!$F$7:$F$30</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>14.693877551020407</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29.387755102040813</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44.08163265306122</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>58.775510204081627</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>73.469387755102048</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>88.16326530612244</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>102.85714285714286</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>117.55102040816325</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>132.24489795918367</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>146.9387755102041</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>161.63265306122446</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>176.32653061224488</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>191.0204081632653</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>205.71428571428572</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>220.40816326530611</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>235.10204081632651</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>249.79591836734696</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>264.48979591836735</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>279.18367346938771</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>293.87755102040819</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>308.57142857142856</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>323.26530612244892</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>337.9591836734694</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>352.65306122448976</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>H!$I$7:$I$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>-1.8647266976149641</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3.2495424994203157</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3.7980476215626142</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3.3690773642174001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.0730326246000845</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.24346683592671009</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6487582086467207</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.1166545674684314</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.7824406292069535</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.4747679674600875</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.2728200158666239</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.48593321440112491</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1.426014618541622</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-2.9709596333785129</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-3.7512907769749106</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-3.5661800037890905</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-2.4632679021695938</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.72640278906521305</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.1974112284897527</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.8130563888861988</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.7047260662909296</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.6429378415393132</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.6435936922932508</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.96388741885613238</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-FC02-7C4B-B82B-E9431799A7D5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1792343055"/>
+        <c:axId val="1792192383"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1792343055"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Theta</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> [deg]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1792192383"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1792192383"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>y</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> tot [mm]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1792343055"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Higher</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Order Terms</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Total</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>H!$F$59:$F$82</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>14.693877551020407</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29.387755102040813</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44.08163265306122</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>58.775510204081627</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>73.469387755102048</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>88.16326530612244</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>102.85714285714286</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>117.55102040816325</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>132.24489795918367</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>146.9387755102041</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>161.63265306122446</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>176.32653061224488</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>191.0204081632653</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>205.71428571428572</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>220.40816326530611</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>235.10204081632651</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>249.79591836734696</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>264.48979591836735</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>279.18367346938771</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>293.87755102040819</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>308.57142857142856</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>323.26530612244892</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>337.9591836734694</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>352.65306122448976</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>H!$J$59:$J$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0.10810715601219067</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.9696619371461122</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3.1172955167332446</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3.1544397264088513</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.161006788421532</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.45075621515069858</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5132546411701817</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.2393423092792228</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.332836813580208</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5944132012841985</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.0660201697755998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.0129367472047548</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.8470424719481036</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.0116016260200635</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.85781640051818497</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5455323008569555</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.9942331996461893</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.8974526399950804</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.7973052327561678</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.2002405396796725</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.7043653447139615</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.1055466449532005</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.4548137285340594</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.0519679134504045</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F622-4245-A9D9-BFE88AAB7F0A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>1st Order</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>H!$F$59:$F$82</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>14.693877551020407</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29.387755102040813</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44.08163265306122</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>58.775510204081627</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>73.469387755102048</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>88.16326530612244</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>102.85714285714286</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>117.55102040816325</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>132.24489795918367</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>146.9387755102041</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>161.63265306122446</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>176.32653061224488</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>191.0204081632653</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>205.71428571428572</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>220.40816326530611</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>235.10204081632651</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>249.79591836734696</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>264.48979591836735</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>279.18367346938771</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>293.87755102040819</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>308.57142857142856</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>323.26530612244892</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>337.9591836734694</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>352.65306122448976</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>H!$G$33:$G$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>2.7142857142857144</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.7142857142857144</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7142857142857144</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.7142857142857144</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.7142857142857144</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.7142857142857144</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.7142857142857144</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.7142857142857144</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.7142857142857144</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.7142857142857144</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.7142857142857144</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.7142857142857144</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.7142857142857144</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.7142857142857144</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.7142857142857144</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.7142857142857144</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.7142857142857144</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.7142857142857144</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.7142857142857144</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.7142857142857144</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.7142857142857144</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.7142857142857144</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.7142857142857144</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.7142857142857144</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F622-4245-A9D9-BFE88AAB7F0A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>2nd Order</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>H!$F$7:$F$30</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>14.693877551020407</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29.387755102040813</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44.08163265306122</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>58.775510204081627</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>73.469387755102048</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>88.16326530612244</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>102.85714285714286</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>117.55102040816325</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>132.24489795918367</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>146.9387755102041</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>161.63265306122446</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>176.32653061224488</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>191.0204081632653</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>205.71428571428572</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>220.40816326530611</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>235.10204081632651</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>249.79591836734696</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>264.48979591836735</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>279.18367346938771</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>293.87755102040819</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>308.57142857142856</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>323.26530612244892</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>337.9591836734694</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>352.65306122448976</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>H!$H$7:$H$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>-0.74145186065855972</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.4344051520115109</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.0335336094563448</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.4996480764771656</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.8022598781071619</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2.9215750935097029</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2.8497892817622534</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2.591597972474923</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2.1638895299124603</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.5946404804616034</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.92108556037673894</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.18728218148208467</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.55877137620401141</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.268275545112862</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.894821463207381</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.397426590360332</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.7432153875300691</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.9095697147745794</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.8856082899807012</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.6728984365077597</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.2853535641373179</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.7483230891281722</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.0969343219550949</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.37379478030855762</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F622-4245-A9D9-BFE88AAB7F0A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>3rd Order</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>H!$F$7:$F$30</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>14.693877551020407</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29.387755102040813</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44.08163265306122</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>58.775510204081627</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>73.469387755102048</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>88.16326530612244</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>102.85714285714286</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>117.55102040816325</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>132.24489795918367</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>146.9387755102041</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>161.63265306122446</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>176.32653061224488</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>191.0204081632653</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>205.71428571428572</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>220.40816326530611</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>235.10204081632651</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>249.79591836734696</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>264.48979591836735</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>279.18367346938771</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>293.87755102040819</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>308.57142857142856</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>323.26530612244892</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>337.9591836734694</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>352.65306122448976</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>H!$I$7:$I$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>-1.8647266976149641</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3.2495424994203157</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3.7980476215626142</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3.3690773642174001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.0730326246000845</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.24346683592671009</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6487582086467207</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.1166545674684314</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.7824406292069535</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.4747679674600875</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.2728200158666239</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.48593321440112491</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1.426014618541622</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-2.9709596333785129</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-3.7512907769749106</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-3.5661800037890905</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-2.4632679021695938</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.72640278906521305</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.1974112284897527</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.8130563888861988</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.7047260662909296</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.6429378415393132</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.6435936922932508</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.96388741885613238</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F622-4245-A9D9-BFE88AAB7F0A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1792343055"/>
+        <c:axId val="1792192383"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1792343055"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Theta</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> [deg]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1792192383"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1792192383"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>y</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> tot [mm]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1792343055"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2521,6 +5771,117 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3038,6 +6399,1554 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3569,6 +8478,17 @@
   <sheetPr/>
   <sheetViews>
     <sheetView zoomScale="131" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{E898D1E5-7BE5-304D-82E4-34C404304AD1}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="136" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3638,6 +8558,118 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9319559" cy="6079191"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A1B00E5-C1FC-2949-96A9-8D895A6641A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB273E2D-27D4-7A4D-8C65-E2B14908705B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2118682E-ADDA-BA4F-A982-D9292066394C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3937,11 +8969,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F48EF844-6735-FC4F-A8F9-88668F673782}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C671A7EB-6A5B-7D4D-8E6B-5C021871A75D}">
   <dimension ref="B1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4458,4 +9490,3061 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F48EF844-6735-FC4F-A8F9-88668F673782}">
+  <dimension ref="A1:J108"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>30</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <f>D7*2*PI()/(24.5)</f>
+        <v>0.25645654315018718</v>
+      </c>
+      <c r="F7" s="1">
+        <f>E7*(180/PI())</f>
+        <v>14.693877551020407</v>
+      </c>
+      <c r="G7">
+        <f>$B$9/$B$6</f>
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="H7">
+        <f>$B$9*COS(E7-$B$10)/(1-$B$6)</f>
+        <v>-0.74145186065855972</v>
+      </c>
+      <c r="I7">
+        <f>$B$9*COS(2*E7-$B$11)/(4-$B$6)</f>
+        <v>-1.8647266976149641</v>
+      </c>
+      <c r="J7">
+        <f>SUM(G7:I7)</f>
+        <v>0.10810715601219067</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <f t="shared" ref="E8:E30" si="0">D8*2*PI()/(24.5)</f>
+        <v>0.51291308630037435</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" ref="F8:F30" si="1">E8*(180/PI())</f>
+        <v>29.387755102040813</v>
+      </c>
+      <c r="G8">
+        <f t="shared" ref="G8:G30" si="2">$B$9/$B$6</f>
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="H8">
+        <f t="shared" ref="H8:H30" si="3">$B$9*COS(E8-$B$10)/(1-$B$6)</f>
+        <v>-1.4344051520115109</v>
+      </c>
+      <c r="I8">
+        <f t="shared" ref="I8:I30" si="4">$B$9*COS(2*E8-$B$11)/(4-$B$6)</f>
+        <v>-3.2495424994203157</v>
+      </c>
+      <c r="J8">
+        <f t="shared" ref="J8:J30" si="5">SUM(G8:I8)</f>
+        <v>-1.9696619371461122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <f>B7+B8</f>
+        <v>38</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>0.76936962945056153</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="1"/>
+        <v>44.08163265306122</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="3"/>
+        <v>-2.0335336094563448</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="4"/>
+        <v>-3.7980476215626142</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="5"/>
+        <v>-3.1172955167332446</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <f>PI()/2</f>
+        <v>1.5707963267948966</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>1.0258261726007487</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="1"/>
+        <v>58.775510204081627</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="3"/>
+        <v>-2.4996480764771656</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="4"/>
+        <v>-3.3690773642174001</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="5"/>
+        <v>-3.1544397264088513</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <f>PI()/2</f>
+        <v>1.5707963267948966</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>1.282282715750936</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="1"/>
+        <v>73.469387755102048</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="2"/>
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="3"/>
+        <v>-2.8022598781071619</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="4"/>
+        <v>-2.0730326246000845</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="5"/>
+        <v>-2.161006788421532</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D12">
+        <v>6</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>1.5387392589011231</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="1"/>
+        <v>88.16326530612244</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="2"/>
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="3"/>
+        <v>-2.9215750935097029</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="4"/>
+        <v>-0.24346683592671009</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="5"/>
+        <v>-0.45075621515069858</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D13">
+        <v>7</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>1.7951958020513104</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="1"/>
+        <v>102.85714285714286</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="2"/>
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="3"/>
+        <v>-2.8497892817622534</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="4"/>
+        <v>1.6487582086467207</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="5"/>
+        <v>1.5132546411701817</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D14">
+        <v>8</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>2.0516523452014974</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="1"/>
+        <v>117.55102040816325</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="2"/>
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="3"/>
+        <v>-2.591597972474923</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="4"/>
+        <v>3.1166545674684314</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="5"/>
+        <v>3.2393423092792228</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D15">
+        <v>9</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>2.3081088883516849</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="1"/>
+        <v>132.24489795918367</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="2"/>
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="3"/>
+        <v>-2.1638895299124603</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="4"/>
+        <v>3.7824406292069535</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="5"/>
+        <v>4.332836813580208</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D16">
+        <v>10</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>2.564565431501872</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="1"/>
+        <v>146.9387755102041</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="2"/>
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="3"/>
+        <v>-1.5946404804616034</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="4"/>
+        <v>3.4747679674600875</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="5"/>
+        <v>4.5944132012841985</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D17">
+        <v>11</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>2.8210219746520586</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="1"/>
+        <v>161.63265306122446</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="2"/>
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="3"/>
+        <v>-0.92108556037673894</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="4"/>
+        <v>2.2728200158666239</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="5"/>
+        <v>4.0660201697755998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D18">
+        <v>12</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>3.0774785178022461</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="1"/>
+        <v>176.32653061224488</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="2"/>
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="3"/>
+        <v>-0.18728218148208467</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="4"/>
+        <v>0.48593321440112491</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="5"/>
+        <v>3.0129367472047548</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D19">
+        <v>13</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>3.3339350609524336</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="1"/>
+        <v>191.0204081632653</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="2"/>
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="3"/>
+        <v>0.55877137620401141</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="4"/>
+        <v>-1.426014618541622</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="5"/>
+        <v>1.8470424719481036</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D20">
+        <v>14</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>3.5903916041026207</v>
+      </c>
+      <c r="F20" s="1">
+        <f t="shared" si="1"/>
+        <v>205.71428571428572</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="2"/>
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="3"/>
+        <v>1.268275545112862</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="4"/>
+        <v>-2.9709596333785129</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="5"/>
+        <v>1.0116016260200635</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D21">
+        <v>15</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>3.8468481472528078</v>
+      </c>
+      <c r="F21" s="1">
+        <f t="shared" si="1"/>
+        <v>220.40816326530611</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="2"/>
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="3"/>
+        <v>1.894821463207381</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="4"/>
+        <v>-3.7512907769749106</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="5"/>
+        <v>0.85781640051818497</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D22">
+        <v>16</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>4.1033046904029948</v>
+      </c>
+      <c r="F22" s="1">
+        <f t="shared" si="1"/>
+        <v>235.10204081632651</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="2"/>
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="3"/>
+        <v>2.397426590360332</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="4"/>
+        <v>-3.5661800037890905</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="5"/>
+        <v>1.5455323008569555</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D23">
+        <v>17</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>4.3597612335531828</v>
+      </c>
+      <c r="F23" s="1">
+        <f t="shared" si="1"/>
+        <v>249.79591836734696</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="2"/>
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="3"/>
+        <v>2.7432153875300691</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="4"/>
+        <v>-2.4632679021695938</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="5"/>
+        <v>2.9942331996461893</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D24">
+        <v>18</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>4.6162177767033699</v>
+      </c>
+      <c r="F24" s="1">
+        <f t="shared" si="1"/>
+        <v>264.48979591836735</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="2"/>
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="3"/>
+        <v>2.9095697147745794</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="4"/>
+        <v>-0.72640278906521305</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="5"/>
+        <v>4.8974526399950804</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D25">
+        <v>19</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>4.872674319853556</v>
+      </c>
+      <c r="F25" s="1">
+        <f t="shared" si="1"/>
+        <v>279.18367346938771</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="2"/>
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="3"/>
+        <v>2.8856082899807012</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="4"/>
+        <v>1.1974112284897527</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="5"/>
+        <v>6.7973052327561678</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D26">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>5.129130863003744</v>
+      </c>
+      <c r="F26" s="1">
+        <f t="shared" si="1"/>
+        <v>293.87755102040819</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="2"/>
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="3"/>
+        <v>2.6728984365077597</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="4"/>
+        <v>2.8130563888861988</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="5"/>
+        <v>8.2002405396796725</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D27">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>5.3855874061539311</v>
+      </c>
+      <c r="F27" s="1">
+        <f t="shared" si="1"/>
+        <v>308.57142857142856</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="2"/>
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="3"/>
+        <v>2.2853535641373179</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="4"/>
+        <v>3.7047260662909296</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="5"/>
+        <v>8.7043653447139615</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D28">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>5.6420439493041172</v>
+      </c>
+      <c r="F28" s="1">
+        <f t="shared" si="1"/>
+        <v>323.26530612244892</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="2"/>
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="3"/>
+        <v>1.7483230891281722</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="4"/>
+        <v>3.6429378415393132</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="5"/>
+        <v>8.1055466449532005</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D29">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>5.8985004924543052</v>
+      </c>
+      <c r="F29" s="1">
+        <f t="shared" si="1"/>
+        <v>337.9591836734694</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="2"/>
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="3"/>
+        <v>1.0969343219550949</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="4"/>
+        <v>2.6435936922932508</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="5"/>
+        <v>6.4548137285340594</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D30">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>6.1549570356044923</v>
+      </c>
+      <c r="F30" s="1">
+        <f t="shared" si="1"/>
+        <v>352.65306122448976</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="2"/>
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="3"/>
+        <v>0.37379478030855762</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="4"/>
+        <v>0.96388741885613238</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="5"/>
+        <v>4.0519679134504045</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <v>16</v>
+      </c>
+      <c r="D32" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G32" t="s">
+        <v>10</v>
+      </c>
+      <c r="H32" t="s">
+        <v>11</v>
+      </c>
+      <c r="I32" t="s">
+        <v>16</v>
+      </c>
+      <c r="J32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33">
+        <v>30</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <f>D33*2*PI()/(24.5)</f>
+        <v>0.25645654315018718</v>
+      </c>
+      <c r="F33" s="1">
+        <f>E33*(180/PI())</f>
+        <v>14.693877551020407</v>
+      </c>
+      <c r="G33">
+        <f>$B$9/$B$6</f>
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="H33">
+        <f>$B$9*COS(E33-$B$10)/(1-$B$6)</f>
+        <v>-0.74145186065855972</v>
+      </c>
+      <c r="I33">
+        <f>$B$9*COS(2*E33-$B$11)/(4-$B$6)</f>
+        <v>-1.8647266976149641</v>
+      </c>
+      <c r="J33">
+        <f>SUM(G33:I33)</f>
+        <v>0.10810715601219067</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34">
+        <v>8</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34">
+        <f t="shared" ref="E34:E56" si="6">D34*2*PI()/(24.5)</f>
+        <v>0.51291308630037435</v>
+      </c>
+      <c r="F34" s="1">
+        <f t="shared" ref="F34:F56" si="7">E34*(180/PI())</f>
+        <v>29.387755102040813</v>
+      </c>
+      <c r="G34">
+        <f t="shared" ref="G34:G56" si="8">$B$9/$B$6</f>
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="H34">
+        <f t="shared" ref="H34:H56" si="9">$B$9*COS(E34-$B$10)/(1-$B$6)</f>
+        <v>-1.4344051520115109</v>
+      </c>
+      <c r="I34">
+        <f t="shared" ref="I34:I56" si="10">$B$9*COS(2*E34-$B$11)/(4-$B$6)</f>
+        <v>-3.2495424994203157</v>
+      </c>
+      <c r="J34">
+        <f t="shared" ref="J34:J56" si="11">SUM(G34:I34)</f>
+        <v>-1.9696619371461122</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35">
+        <f>B33+B34</f>
+        <v>38</v>
+      </c>
+      <c r="D35">
+        <v>3</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="6"/>
+        <v>0.76936962945056153</v>
+      </c>
+      <c r="F35" s="1">
+        <f t="shared" si="7"/>
+        <v>44.08163265306122</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="8"/>
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="9"/>
+        <v>-2.0335336094563448</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="10"/>
+        <v>-3.7980476215626142</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="11"/>
+        <v>-3.1172955167332446</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36">
+        <f>PI()/2</f>
+        <v>1.5707963267948966</v>
+      </c>
+      <c r="D36">
+        <v>4</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="6"/>
+        <v>1.0258261726007487</v>
+      </c>
+      <c r="F36" s="1">
+        <f t="shared" si="7"/>
+        <v>58.775510204081627</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="8"/>
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="9"/>
+        <v>-2.4996480764771656</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="10"/>
+        <v>-3.3690773642174001</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="11"/>
+        <v>-3.1544397264088513</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37">
+        <f>PI()/2</f>
+        <v>1.5707963267948966</v>
+      </c>
+      <c r="D37">
+        <v>5</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="6"/>
+        <v>1.282282715750936</v>
+      </c>
+      <c r="F37" s="1">
+        <f t="shared" si="7"/>
+        <v>73.469387755102048</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="8"/>
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="9"/>
+        <v>-2.8022598781071619</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="10"/>
+        <v>-2.0730326246000845</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="11"/>
+        <v>-2.161006788421532</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D38">
+        <v>6</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="6"/>
+        <v>1.5387392589011231</v>
+      </c>
+      <c r="F38" s="1">
+        <f t="shared" si="7"/>
+        <v>88.16326530612244</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="8"/>
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="9"/>
+        <v>-2.9215750935097029</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="10"/>
+        <v>-0.24346683592671009</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="11"/>
+        <v>-0.45075621515069858</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D39">
+        <v>7</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="6"/>
+        <v>1.7951958020513104</v>
+      </c>
+      <c r="F39" s="1">
+        <f t="shared" si="7"/>
+        <v>102.85714285714286</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="8"/>
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="9"/>
+        <v>-2.8497892817622534</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="10"/>
+        <v>1.6487582086467207</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="11"/>
+        <v>1.5132546411701817</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D40">
+        <v>8</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="6"/>
+        <v>2.0516523452014974</v>
+      </c>
+      <c r="F40" s="1">
+        <f t="shared" si="7"/>
+        <v>117.55102040816325</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="8"/>
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="9"/>
+        <v>-2.591597972474923</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="10"/>
+        <v>3.1166545674684314</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="11"/>
+        <v>3.2393423092792228</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D41">
+        <v>9</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="6"/>
+        <v>2.3081088883516849</v>
+      </c>
+      <c r="F41" s="1">
+        <f t="shared" si="7"/>
+        <v>132.24489795918367</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="8"/>
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="9"/>
+        <v>-2.1638895299124603</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="10"/>
+        <v>3.7824406292069535</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="11"/>
+        <v>4.332836813580208</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D42">
+        <v>10</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="6"/>
+        <v>2.564565431501872</v>
+      </c>
+      <c r="F42" s="1">
+        <f t="shared" si="7"/>
+        <v>146.9387755102041</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="8"/>
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="9"/>
+        <v>-1.5946404804616034</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="10"/>
+        <v>3.4747679674600875</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="11"/>
+        <v>4.5944132012841985</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D43">
+        <v>11</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="6"/>
+        <v>2.8210219746520586</v>
+      </c>
+      <c r="F43" s="1">
+        <f t="shared" si="7"/>
+        <v>161.63265306122446</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="8"/>
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="9"/>
+        <v>-0.92108556037673894</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="10"/>
+        <v>2.2728200158666239</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="11"/>
+        <v>4.0660201697755998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D44">
+        <v>12</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="6"/>
+        <v>3.0774785178022461</v>
+      </c>
+      <c r="F44" s="1">
+        <f t="shared" si="7"/>
+        <v>176.32653061224488</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="8"/>
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="9"/>
+        <v>-0.18728218148208467</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="10"/>
+        <v>0.48593321440112491</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="11"/>
+        <v>3.0129367472047548</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D45">
+        <v>13</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="6"/>
+        <v>3.3339350609524336</v>
+      </c>
+      <c r="F45" s="1">
+        <f t="shared" si="7"/>
+        <v>191.0204081632653</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="8"/>
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="9"/>
+        <v>0.55877137620401141</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="10"/>
+        <v>-1.426014618541622</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="11"/>
+        <v>1.8470424719481036</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D46">
+        <v>14</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="6"/>
+        <v>3.5903916041026207</v>
+      </c>
+      <c r="F46" s="1">
+        <f t="shared" si="7"/>
+        <v>205.71428571428572</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="8"/>
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="9"/>
+        <v>1.268275545112862</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="10"/>
+        <v>-2.9709596333785129</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="11"/>
+        <v>1.0116016260200635</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D47">
+        <v>15</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="6"/>
+        <v>3.8468481472528078</v>
+      </c>
+      <c r="F47" s="1">
+        <f t="shared" si="7"/>
+        <v>220.40816326530611</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="8"/>
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="9"/>
+        <v>1.894821463207381</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="10"/>
+        <v>-3.7512907769749106</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="11"/>
+        <v>0.85781640051818497</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D48">
+        <v>16</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="6"/>
+        <v>4.1033046904029948</v>
+      </c>
+      <c r="F48" s="1">
+        <f t="shared" si="7"/>
+        <v>235.10204081632651</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="8"/>
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="9"/>
+        <v>2.397426590360332</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="10"/>
+        <v>-3.5661800037890905</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="11"/>
+        <v>1.5455323008569555</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D49">
+        <v>17</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="6"/>
+        <v>4.3597612335531828</v>
+      </c>
+      <c r="F49" s="1">
+        <f t="shared" si="7"/>
+        <v>249.79591836734696</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="8"/>
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="9"/>
+        <v>2.7432153875300691</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="10"/>
+        <v>-2.4632679021695938</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="11"/>
+        <v>2.9942331996461893</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D50">
+        <v>18</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="6"/>
+        <v>4.6162177767033699</v>
+      </c>
+      <c r="F50" s="1">
+        <f t="shared" si="7"/>
+        <v>264.48979591836735</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="8"/>
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="9"/>
+        <v>2.9095697147745794</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="10"/>
+        <v>-0.72640278906521305</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="11"/>
+        <v>4.8974526399950804</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D51">
+        <v>19</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="6"/>
+        <v>4.872674319853556</v>
+      </c>
+      <c r="F51" s="1">
+        <f t="shared" si="7"/>
+        <v>279.18367346938771</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="8"/>
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="9"/>
+        <v>2.8856082899807012</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="10"/>
+        <v>1.1974112284897527</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="11"/>
+        <v>6.7973052327561678</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D52">
+        <v>20</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="6"/>
+        <v>5.129130863003744</v>
+      </c>
+      <c r="F52" s="1">
+        <f t="shared" si="7"/>
+        <v>293.87755102040819</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="8"/>
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="9"/>
+        <v>2.6728984365077597</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="10"/>
+        <v>2.8130563888861988</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="11"/>
+        <v>8.2002405396796725</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D53">
+        <v>21</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="6"/>
+        <v>5.3855874061539311</v>
+      </c>
+      <c r="F53" s="1">
+        <f t="shared" si="7"/>
+        <v>308.57142857142856</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="8"/>
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="9"/>
+        <v>2.2853535641373179</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="10"/>
+        <v>3.7047260662909296</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="11"/>
+        <v>8.7043653447139615</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D54">
+        <v>22</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="6"/>
+        <v>5.6420439493041172</v>
+      </c>
+      <c r="F54" s="1">
+        <f t="shared" si="7"/>
+        <v>323.26530612244892</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="8"/>
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="9"/>
+        <v>1.7483230891281722</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="10"/>
+        <v>3.6429378415393132</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="11"/>
+        <v>8.1055466449532005</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D55">
+        <v>23</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="6"/>
+        <v>5.8985004924543052</v>
+      </c>
+      <c r="F55" s="1">
+        <f t="shared" si="7"/>
+        <v>337.9591836734694</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="8"/>
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="9"/>
+        <v>1.0969343219550949</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="10"/>
+        <v>2.6435936922932508</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="11"/>
+        <v>6.4548137285340594</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D56">
+        <v>24</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="6"/>
+        <v>6.1549570356044923</v>
+      </c>
+      <c r="F56" s="1">
+        <f t="shared" si="7"/>
+        <v>352.65306122448976</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="8"/>
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="9"/>
+        <v>0.37379478030855762</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="10"/>
+        <v>0.96388741885613238</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="11"/>
+        <v>4.0519679134504045</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>1</v>
+      </c>
+      <c r="B58">
+        <v>18</v>
+      </c>
+      <c r="D58" t="s">
+        <v>4</v>
+      </c>
+      <c r="E58" t="s">
+        <v>5</v>
+      </c>
+      <c r="F58" t="s">
+        <v>6</v>
+      </c>
+      <c r="G58" t="s">
+        <v>10</v>
+      </c>
+      <c r="H58" t="s">
+        <v>11</v>
+      </c>
+      <c r="I58" t="s">
+        <v>16</v>
+      </c>
+      <c r="J58" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59">
+        <v>30</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <f>D59*2*PI()/(24.5)</f>
+        <v>0.25645654315018718</v>
+      </c>
+      <c r="F59" s="1">
+        <f>E59*(180/PI())</f>
+        <v>14.693877551020407</v>
+      </c>
+      <c r="G59">
+        <f>$B$9/$B$6</f>
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="H59">
+        <f>$B$9*COS(E59-$B$10)/(1-$B$6)</f>
+        <v>-0.74145186065855972</v>
+      </c>
+      <c r="I59">
+        <f>$B$9*COS(2*E59-$B$11)/(4-$B$6)</f>
+        <v>-1.8647266976149641</v>
+      </c>
+      <c r="J59">
+        <f>SUM(G59:I59)</f>
+        <v>0.10810715601219067</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>8</v>
+      </c>
+      <c r="B60">
+        <v>8</v>
+      </c>
+      <c r="D60">
+        <v>2</v>
+      </c>
+      <c r="E60">
+        <f t="shared" ref="E60:E82" si="12">D60*2*PI()/(24.5)</f>
+        <v>0.51291308630037435</v>
+      </c>
+      <c r="F60" s="1">
+        <f t="shared" ref="F60:F82" si="13">E60*(180/PI())</f>
+        <v>29.387755102040813</v>
+      </c>
+      <c r="G60">
+        <f t="shared" ref="G60:G82" si="14">$B$9/$B$6</f>
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="H60">
+        <f t="shared" ref="H60:H82" si="15">$B$9*COS(E60-$B$10)/(1-$B$6)</f>
+        <v>-1.4344051520115109</v>
+      </c>
+      <c r="I60">
+        <f t="shared" ref="I60:I82" si="16">$B$9*COS(2*E60-$B$11)/(4-$B$6)</f>
+        <v>-3.2495424994203157</v>
+      </c>
+      <c r="J60">
+        <f t="shared" ref="J60:J82" si="17">SUM(G60:I60)</f>
+        <v>-1.9696619371461122</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>9</v>
+      </c>
+      <c r="B61">
+        <f>B59+B60</f>
+        <v>38</v>
+      </c>
+      <c r="D61">
+        <v>3</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="12"/>
+        <v>0.76936962945056153</v>
+      </c>
+      <c r="F61" s="1">
+        <f t="shared" si="13"/>
+        <v>44.08163265306122</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="14"/>
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="15"/>
+        <v>-2.0335336094563448</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="16"/>
+        <v>-3.7980476215626142</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="17"/>
+        <v>-3.1172955167332446</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>13</v>
+      </c>
+      <c r="B62">
+        <f>PI()/2</f>
+        <v>1.5707963267948966</v>
+      </c>
+      <c r="D62">
+        <v>4</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="12"/>
+        <v>1.0258261726007487</v>
+      </c>
+      <c r="F62" s="1">
+        <f t="shared" si="13"/>
+        <v>58.775510204081627</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="14"/>
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="15"/>
+        <v>-2.4996480764771656</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="16"/>
+        <v>-3.3690773642174001</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="17"/>
+        <v>-3.1544397264088513</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>14</v>
+      </c>
+      <c r="B63">
+        <f>PI()/2</f>
+        <v>1.5707963267948966</v>
+      </c>
+      <c r="D63">
+        <v>5</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="12"/>
+        <v>1.282282715750936</v>
+      </c>
+      <c r="F63" s="1">
+        <f t="shared" si="13"/>
+        <v>73.469387755102048</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="14"/>
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="15"/>
+        <v>-2.8022598781071619</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="16"/>
+        <v>-2.0730326246000845</v>
+      </c>
+      <c r="J63">
+        <f t="shared" si="17"/>
+        <v>-2.161006788421532</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D64">
+        <v>6</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="12"/>
+        <v>1.5387392589011231</v>
+      </c>
+      <c r="F64" s="1">
+        <f t="shared" si="13"/>
+        <v>88.16326530612244</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="14"/>
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="15"/>
+        <v>-2.9215750935097029</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="16"/>
+        <v>-0.24346683592671009</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="17"/>
+        <v>-0.45075621515069858</v>
+      </c>
+    </row>
+    <row r="65" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D65">
+        <v>7</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="12"/>
+        <v>1.7951958020513104</v>
+      </c>
+      <c r="F65" s="1">
+        <f t="shared" si="13"/>
+        <v>102.85714285714286</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="14"/>
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="H65">
+        <f t="shared" si="15"/>
+        <v>-2.8497892817622534</v>
+      </c>
+      <c r="I65">
+        <f t="shared" si="16"/>
+        <v>1.6487582086467207</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="17"/>
+        <v>1.5132546411701817</v>
+      </c>
+    </row>
+    <row r="66" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D66">
+        <v>8</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="12"/>
+        <v>2.0516523452014974</v>
+      </c>
+      <c r="F66" s="1">
+        <f t="shared" si="13"/>
+        <v>117.55102040816325</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="14"/>
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="H66">
+        <f t="shared" si="15"/>
+        <v>-2.591597972474923</v>
+      </c>
+      <c r="I66">
+        <f t="shared" si="16"/>
+        <v>3.1166545674684314</v>
+      </c>
+      <c r="J66">
+        <f t="shared" si="17"/>
+        <v>3.2393423092792228</v>
+      </c>
+    </row>
+    <row r="67" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D67">
+        <v>9</v>
+      </c>
+      <c r="E67">
+        <f t="shared" si="12"/>
+        <v>2.3081088883516849</v>
+      </c>
+      <c r="F67" s="1">
+        <f t="shared" si="13"/>
+        <v>132.24489795918367</v>
+      </c>
+      <c r="G67">
+        <f t="shared" si="14"/>
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="H67">
+        <f t="shared" si="15"/>
+        <v>-2.1638895299124603</v>
+      </c>
+      <c r="I67">
+        <f t="shared" si="16"/>
+        <v>3.7824406292069535</v>
+      </c>
+      <c r="J67">
+        <f t="shared" si="17"/>
+        <v>4.332836813580208</v>
+      </c>
+    </row>
+    <row r="68" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D68">
+        <v>10</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="12"/>
+        <v>2.564565431501872</v>
+      </c>
+      <c r="F68" s="1">
+        <f t="shared" si="13"/>
+        <v>146.9387755102041</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="14"/>
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="H68">
+        <f t="shared" si="15"/>
+        <v>-1.5946404804616034</v>
+      </c>
+      <c r="I68">
+        <f t="shared" si="16"/>
+        <v>3.4747679674600875</v>
+      </c>
+      <c r="J68">
+        <f t="shared" si="17"/>
+        <v>4.5944132012841985</v>
+      </c>
+    </row>
+    <row r="69" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D69">
+        <v>11</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="12"/>
+        <v>2.8210219746520586</v>
+      </c>
+      <c r="F69" s="1">
+        <f t="shared" si="13"/>
+        <v>161.63265306122446</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="14"/>
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="15"/>
+        <v>-0.92108556037673894</v>
+      </c>
+      <c r="I69">
+        <f t="shared" si="16"/>
+        <v>2.2728200158666239</v>
+      </c>
+      <c r="J69">
+        <f t="shared" si="17"/>
+        <v>4.0660201697755998</v>
+      </c>
+    </row>
+    <row r="70" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D70">
+        <v>12</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="12"/>
+        <v>3.0774785178022461</v>
+      </c>
+      <c r="F70" s="1">
+        <f t="shared" si="13"/>
+        <v>176.32653061224488</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="14"/>
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="15"/>
+        <v>-0.18728218148208467</v>
+      </c>
+      <c r="I70">
+        <f t="shared" si="16"/>
+        <v>0.48593321440112491</v>
+      </c>
+      <c r="J70">
+        <f t="shared" si="17"/>
+        <v>3.0129367472047548</v>
+      </c>
+    </row>
+    <row r="71" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D71">
+        <v>13</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="12"/>
+        <v>3.3339350609524336</v>
+      </c>
+      <c r="F71" s="1">
+        <f t="shared" si="13"/>
+        <v>191.0204081632653</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="14"/>
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="15"/>
+        <v>0.55877137620401141</v>
+      </c>
+      <c r="I71">
+        <f t="shared" si="16"/>
+        <v>-1.426014618541622</v>
+      </c>
+      <c r="J71">
+        <f t="shared" si="17"/>
+        <v>1.8470424719481036</v>
+      </c>
+    </row>
+    <row r="72" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D72">
+        <v>14</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="12"/>
+        <v>3.5903916041026207</v>
+      </c>
+      <c r="F72" s="1">
+        <f t="shared" si="13"/>
+        <v>205.71428571428572</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="14"/>
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="H72">
+        <f t="shared" si="15"/>
+        <v>1.268275545112862</v>
+      </c>
+      <c r="I72">
+        <f t="shared" si="16"/>
+        <v>-2.9709596333785129</v>
+      </c>
+      <c r="J72">
+        <f t="shared" si="17"/>
+        <v>1.0116016260200635</v>
+      </c>
+    </row>
+    <row r="73" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D73">
+        <v>15</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="12"/>
+        <v>3.8468481472528078</v>
+      </c>
+      <c r="F73" s="1">
+        <f t="shared" si="13"/>
+        <v>220.40816326530611</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="14"/>
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="H73">
+        <f t="shared" si="15"/>
+        <v>1.894821463207381</v>
+      </c>
+      <c r="I73">
+        <f t="shared" si="16"/>
+        <v>-3.7512907769749106</v>
+      </c>
+      <c r="J73">
+        <f t="shared" si="17"/>
+        <v>0.85781640051818497</v>
+      </c>
+    </row>
+    <row r="74" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D74">
+        <v>16</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="12"/>
+        <v>4.1033046904029948</v>
+      </c>
+      <c r="F74" s="1">
+        <f t="shared" si="13"/>
+        <v>235.10204081632651</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="14"/>
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="H74">
+        <f t="shared" si="15"/>
+        <v>2.397426590360332</v>
+      </c>
+      <c r="I74">
+        <f t="shared" si="16"/>
+        <v>-3.5661800037890905</v>
+      </c>
+      <c r="J74">
+        <f t="shared" si="17"/>
+        <v>1.5455323008569555</v>
+      </c>
+    </row>
+    <row r="75" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D75">
+        <v>17</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="12"/>
+        <v>4.3597612335531828</v>
+      </c>
+      <c r="F75" s="1">
+        <f t="shared" si="13"/>
+        <v>249.79591836734696</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="14"/>
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="15"/>
+        <v>2.7432153875300691</v>
+      </c>
+      <c r="I75">
+        <f t="shared" si="16"/>
+        <v>-2.4632679021695938</v>
+      </c>
+      <c r="J75">
+        <f t="shared" si="17"/>
+        <v>2.9942331996461893</v>
+      </c>
+    </row>
+    <row r="76" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D76">
+        <v>18</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="12"/>
+        <v>4.6162177767033699</v>
+      </c>
+      <c r="F76" s="1">
+        <f t="shared" si="13"/>
+        <v>264.48979591836735</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="14"/>
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="15"/>
+        <v>2.9095697147745794</v>
+      </c>
+      <c r="I76">
+        <f t="shared" si="16"/>
+        <v>-0.72640278906521305</v>
+      </c>
+      <c r="J76">
+        <f t="shared" si="17"/>
+        <v>4.8974526399950804</v>
+      </c>
+    </row>
+    <row r="77" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D77">
+        <v>19</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="12"/>
+        <v>4.872674319853556</v>
+      </c>
+      <c r="F77" s="1">
+        <f t="shared" si="13"/>
+        <v>279.18367346938771</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="14"/>
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="H77">
+        <f t="shared" si="15"/>
+        <v>2.8856082899807012</v>
+      </c>
+      <c r="I77">
+        <f t="shared" si="16"/>
+        <v>1.1974112284897527</v>
+      </c>
+      <c r="J77">
+        <f t="shared" si="17"/>
+        <v>6.7973052327561678</v>
+      </c>
+    </row>
+    <row r="78" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D78">
+        <v>20</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="12"/>
+        <v>5.129130863003744</v>
+      </c>
+      <c r="F78" s="1">
+        <f t="shared" si="13"/>
+        <v>293.87755102040819</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="14"/>
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="H78">
+        <f t="shared" si="15"/>
+        <v>2.6728984365077597</v>
+      </c>
+      <c r="I78">
+        <f t="shared" si="16"/>
+        <v>2.8130563888861988</v>
+      </c>
+      <c r="J78">
+        <f t="shared" si="17"/>
+        <v>8.2002405396796725</v>
+      </c>
+    </row>
+    <row r="79" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D79">
+        <v>21</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="12"/>
+        <v>5.3855874061539311</v>
+      </c>
+      <c r="F79" s="1">
+        <f t="shared" si="13"/>
+        <v>308.57142857142856</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="14"/>
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="H79">
+        <f t="shared" si="15"/>
+        <v>2.2853535641373179</v>
+      </c>
+      <c r="I79">
+        <f t="shared" si="16"/>
+        <v>3.7047260662909296</v>
+      </c>
+      <c r="J79">
+        <f t="shared" si="17"/>
+        <v>8.7043653447139615</v>
+      </c>
+    </row>
+    <row r="80" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D80">
+        <v>22</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="12"/>
+        <v>5.6420439493041172</v>
+      </c>
+      <c r="F80" s="1">
+        <f t="shared" si="13"/>
+        <v>323.26530612244892</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="14"/>
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="H80">
+        <f t="shared" si="15"/>
+        <v>1.7483230891281722</v>
+      </c>
+      <c r="I80">
+        <f t="shared" si="16"/>
+        <v>3.6429378415393132</v>
+      </c>
+      <c r="J80">
+        <f t="shared" si="17"/>
+        <v>8.1055466449532005</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D81">
+        <v>23</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="12"/>
+        <v>5.8985004924543052</v>
+      </c>
+      <c r="F81" s="1">
+        <f t="shared" si="13"/>
+        <v>337.9591836734694</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="14"/>
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="H81">
+        <f t="shared" si="15"/>
+        <v>1.0969343219550949</v>
+      </c>
+      <c r="I81">
+        <f t="shared" si="16"/>
+        <v>2.6435936922932508</v>
+      </c>
+      <c r="J81">
+        <f t="shared" si="17"/>
+        <v>6.4548137285340594</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D82">
+        <v>24</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="12"/>
+        <v>6.1549570356044923</v>
+      </c>
+      <c r="F82" s="1">
+        <f t="shared" si="13"/>
+        <v>352.65306122448976</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="14"/>
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="H82">
+        <f t="shared" si="15"/>
+        <v>0.37379478030855762</v>
+      </c>
+      <c r="I82">
+        <f t="shared" si="16"/>
+        <v>0.96388741885613238</v>
+      </c>
+      <c r="J82">
+        <f t="shared" si="17"/>
+        <v>4.0519679134504045</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>1</v>
+      </c>
+      <c r="B84">
+        <v>20</v>
+      </c>
+      <c r="D84" t="s">
+        <v>4</v>
+      </c>
+      <c r="E84" t="s">
+        <v>5</v>
+      </c>
+      <c r="F84" t="s">
+        <v>6</v>
+      </c>
+      <c r="G84" t="s">
+        <v>10</v>
+      </c>
+      <c r="H84" t="s">
+        <v>11</v>
+      </c>
+      <c r="I84" t="s">
+        <v>16</v>
+      </c>
+      <c r="J84" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>7</v>
+      </c>
+      <c r="B85">
+        <v>30</v>
+      </c>
+      <c r="D85">
+        <v>1</v>
+      </c>
+      <c r="E85">
+        <f>D85*2*PI()/(24.5)</f>
+        <v>0.25645654315018718</v>
+      </c>
+      <c r="F85" s="1">
+        <f>E85*(180/PI())</f>
+        <v>14.693877551020407</v>
+      </c>
+      <c r="G85">
+        <f>$B$9/$B$6</f>
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="H85">
+        <f>$B$9*COS(E85-$B$10)/(1-$B$6)</f>
+        <v>-0.74145186065855972</v>
+      </c>
+      <c r="I85">
+        <f>$B$9*COS(2*E85-$B$11)/(4-$B$6)</f>
+        <v>-1.8647266976149641</v>
+      </c>
+      <c r="J85">
+        <f>SUM(G85:I85)</f>
+        <v>0.10810715601219067</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>8</v>
+      </c>
+      <c r="B86">
+        <v>8</v>
+      </c>
+      <c r="D86">
+        <v>2</v>
+      </c>
+      <c r="E86">
+        <f t="shared" ref="E86:E108" si="18">D86*2*PI()/(24.5)</f>
+        <v>0.51291308630037435</v>
+      </c>
+      <c r="F86" s="1">
+        <f t="shared" ref="F86:F108" si="19">E86*(180/PI())</f>
+        <v>29.387755102040813</v>
+      </c>
+      <c r="G86">
+        <f t="shared" ref="G86:G108" si="20">$B$9/$B$6</f>
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="H86">
+        <f t="shared" ref="H86:H108" si="21">$B$9*COS(E86-$B$10)/(1-$B$6)</f>
+        <v>-1.4344051520115109</v>
+      </c>
+      <c r="I86">
+        <f t="shared" ref="I86:I108" si="22">$B$9*COS(2*E86-$B$11)/(4-$B$6)</f>
+        <v>-3.2495424994203157</v>
+      </c>
+      <c r="J86">
+        <f t="shared" ref="J86:J108" si="23">SUM(G86:I86)</f>
+        <v>-1.9696619371461122</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>9</v>
+      </c>
+      <c r="B87">
+        <f>B85+B86</f>
+        <v>38</v>
+      </c>
+      <c r="D87">
+        <v>3</v>
+      </c>
+      <c r="E87">
+        <f t="shared" si="18"/>
+        <v>0.76936962945056153</v>
+      </c>
+      <c r="F87" s="1">
+        <f t="shared" si="19"/>
+        <v>44.08163265306122</v>
+      </c>
+      <c r="G87">
+        <f t="shared" si="20"/>
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="H87">
+        <f t="shared" si="21"/>
+        <v>-2.0335336094563448</v>
+      </c>
+      <c r="I87">
+        <f t="shared" si="22"/>
+        <v>-3.7980476215626142</v>
+      </c>
+      <c r="J87">
+        <f t="shared" si="23"/>
+        <v>-3.1172955167332446</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>13</v>
+      </c>
+      <c r="B88">
+        <f>PI()/2</f>
+        <v>1.5707963267948966</v>
+      </c>
+      <c r="D88">
+        <v>4</v>
+      </c>
+      <c r="E88">
+        <f t="shared" si="18"/>
+        <v>1.0258261726007487</v>
+      </c>
+      <c r="F88" s="1">
+        <f t="shared" si="19"/>
+        <v>58.775510204081627</v>
+      </c>
+      <c r="G88">
+        <f t="shared" si="20"/>
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="H88">
+        <f t="shared" si="21"/>
+        <v>-2.4996480764771656</v>
+      </c>
+      <c r="I88">
+        <f t="shared" si="22"/>
+        <v>-3.3690773642174001</v>
+      </c>
+      <c r="J88">
+        <f t="shared" si="23"/>
+        <v>-3.1544397264088513</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>14</v>
+      </c>
+      <c r="B89">
+        <f>PI()/2</f>
+        <v>1.5707963267948966</v>
+      </c>
+      <c r="D89">
+        <v>5</v>
+      </c>
+      <c r="E89">
+        <f t="shared" si="18"/>
+        <v>1.282282715750936</v>
+      </c>
+      <c r="F89" s="1">
+        <f t="shared" si="19"/>
+        <v>73.469387755102048</v>
+      </c>
+      <c r="G89">
+        <f t="shared" si="20"/>
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="H89">
+        <f t="shared" si="21"/>
+        <v>-2.8022598781071619</v>
+      </c>
+      <c r="I89">
+        <f t="shared" si="22"/>
+        <v>-2.0730326246000845</v>
+      </c>
+      <c r="J89">
+        <f t="shared" si="23"/>
+        <v>-2.161006788421532</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D90">
+        <v>6</v>
+      </c>
+      <c r="E90">
+        <f t="shared" si="18"/>
+        <v>1.5387392589011231</v>
+      </c>
+      <c r="F90" s="1">
+        <f t="shared" si="19"/>
+        <v>88.16326530612244</v>
+      </c>
+      <c r="G90">
+        <f t="shared" si="20"/>
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="H90">
+        <f t="shared" si="21"/>
+        <v>-2.9215750935097029</v>
+      </c>
+      <c r="I90">
+        <f t="shared" si="22"/>
+        <v>-0.24346683592671009</v>
+      </c>
+      <c r="J90">
+        <f t="shared" si="23"/>
+        <v>-0.45075621515069858</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D91">
+        <v>7</v>
+      </c>
+      <c r="E91">
+        <f t="shared" si="18"/>
+        <v>1.7951958020513104</v>
+      </c>
+      <c r="F91" s="1">
+        <f t="shared" si="19"/>
+        <v>102.85714285714286</v>
+      </c>
+      <c r="G91">
+        <f t="shared" si="20"/>
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="H91">
+        <f t="shared" si="21"/>
+        <v>-2.8497892817622534</v>
+      </c>
+      <c r="I91">
+        <f t="shared" si="22"/>
+        <v>1.6487582086467207</v>
+      </c>
+      <c r="J91">
+        <f t="shared" si="23"/>
+        <v>1.5132546411701817</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D92">
+        <v>8</v>
+      </c>
+      <c r="E92">
+        <f t="shared" si="18"/>
+        <v>2.0516523452014974</v>
+      </c>
+      <c r="F92" s="1">
+        <f t="shared" si="19"/>
+        <v>117.55102040816325</v>
+      </c>
+      <c r="G92">
+        <f t="shared" si="20"/>
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="H92">
+        <f t="shared" si="21"/>
+        <v>-2.591597972474923</v>
+      </c>
+      <c r="I92">
+        <f t="shared" si="22"/>
+        <v>3.1166545674684314</v>
+      </c>
+      <c r="J92">
+        <f t="shared" si="23"/>
+        <v>3.2393423092792228</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D93">
+        <v>9</v>
+      </c>
+      <c r="E93">
+        <f t="shared" si="18"/>
+        <v>2.3081088883516849</v>
+      </c>
+      <c r="F93" s="1">
+        <f t="shared" si="19"/>
+        <v>132.24489795918367</v>
+      </c>
+      <c r="G93">
+        <f t="shared" si="20"/>
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="H93">
+        <f t="shared" si="21"/>
+        <v>-2.1638895299124603</v>
+      </c>
+      <c r="I93">
+        <f t="shared" si="22"/>
+        <v>3.7824406292069535</v>
+      </c>
+      <c r="J93">
+        <f t="shared" si="23"/>
+        <v>4.332836813580208</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D94">
+        <v>10</v>
+      </c>
+      <c r="E94">
+        <f t="shared" si="18"/>
+        <v>2.564565431501872</v>
+      </c>
+      <c r="F94" s="1">
+        <f t="shared" si="19"/>
+        <v>146.9387755102041</v>
+      </c>
+      <c r="G94">
+        <f t="shared" si="20"/>
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="H94">
+        <f t="shared" si="21"/>
+        <v>-1.5946404804616034</v>
+      </c>
+      <c r="I94">
+        <f t="shared" si="22"/>
+        <v>3.4747679674600875</v>
+      </c>
+      <c r="J94">
+        <f t="shared" si="23"/>
+        <v>4.5944132012841985</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D95">
+        <v>11</v>
+      </c>
+      <c r="E95">
+        <f t="shared" si="18"/>
+        <v>2.8210219746520586</v>
+      </c>
+      <c r="F95" s="1">
+        <f t="shared" si="19"/>
+        <v>161.63265306122446</v>
+      </c>
+      <c r="G95">
+        <f t="shared" si="20"/>
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="H95">
+        <f t="shared" si="21"/>
+        <v>-0.92108556037673894</v>
+      </c>
+      <c r="I95">
+        <f t="shared" si="22"/>
+        <v>2.2728200158666239</v>
+      </c>
+      <c r="J95">
+        <f t="shared" si="23"/>
+        <v>4.0660201697755998</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D96">
+        <v>12</v>
+      </c>
+      <c r="E96">
+        <f t="shared" si="18"/>
+        <v>3.0774785178022461</v>
+      </c>
+      <c r="F96" s="1">
+        <f t="shared" si="19"/>
+        <v>176.32653061224488</v>
+      </c>
+      <c r="G96">
+        <f t="shared" si="20"/>
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="H96">
+        <f t="shared" si="21"/>
+        <v>-0.18728218148208467</v>
+      </c>
+      <c r="I96">
+        <f t="shared" si="22"/>
+        <v>0.48593321440112491</v>
+      </c>
+      <c r="J96">
+        <f t="shared" si="23"/>
+        <v>3.0129367472047548</v>
+      </c>
+    </row>
+    <row r="97" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D97">
+        <v>13</v>
+      </c>
+      <c r="E97">
+        <f t="shared" si="18"/>
+        <v>3.3339350609524336</v>
+      </c>
+      <c r="F97" s="1">
+        <f t="shared" si="19"/>
+        <v>191.0204081632653</v>
+      </c>
+      <c r="G97">
+        <f t="shared" si="20"/>
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="H97">
+        <f t="shared" si="21"/>
+        <v>0.55877137620401141</v>
+      </c>
+      <c r="I97">
+        <f t="shared" si="22"/>
+        <v>-1.426014618541622</v>
+      </c>
+      <c r="J97">
+        <f t="shared" si="23"/>
+        <v>1.8470424719481036</v>
+      </c>
+    </row>
+    <row r="98" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D98">
+        <v>14</v>
+      </c>
+      <c r="E98">
+        <f t="shared" si="18"/>
+        <v>3.5903916041026207</v>
+      </c>
+      <c r="F98" s="1">
+        <f t="shared" si="19"/>
+        <v>205.71428571428572</v>
+      </c>
+      <c r="G98">
+        <f t="shared" si="20"/>
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="H98">
+        <f t="shared" si="21"/>
+        <v>1.268275545112862</v>
+      </c>
+      <c r="I98">
+        <f t="shared" si="22"/>
+        <v>-2.9709596333785129</v>
+      </c>
+      <c r="J98">
+        <f t="shared" si="23"/>
+        <v>1.0116016260200635</v>
+      </c>
+    </row>
+    <row r="99" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D99">
+        <v>15</v>
+      </c>
+      <c r="E99">
+        <f t="shared" si="18"/>
+        <v>3.8468481472528078</v>
+      </c>
+      <c r="F99" s="1">
+        <f t="shared" si="19"/>
+        <v>220.40816326530611</v>
+      </c>
+      <c r="G99">
+        <f t="shared" si="20"/>
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="H99">
+        <f t="shared" si="21"/>
+        <v>1.894821463207381</v>
+      </c>
+      <c r="I99">
+        <f t="shared" si="22"/>
+        <v>-3.7512907769749106</v>
+      </c>
+      <c r="J99">
+        <f t="shared" si="23"/>
+        <v>0.85781640051818497</v>
+      </c>
+    </row>
+    <row r="100" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D100">
+        <v>16</v>
+      </c>
+      <c r="E100">
+        <f t="shared" si="18"/>
+        <v>4.1033046904029948</v>
+      </c>
+      <c r="F100" s="1">
+        <f t="shared" si="19"/>
+        <v>235.10204081632651</v>
+      </c>
+      <c r="G100">
+        <f t="shared" si="20"/>
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="H100">
+        <f t="shared" si="21"/>
+        <v>2.397426590360332</v>
+      </c>
+      <c r="I100">
+        <f t="shared" si="22"/>
+        <v>-3.5661800037890905</v>
+      </c>
+      <c r="J100">
+        <f t="shared" si="23"/>
+        <v>1.5455323008569555</v>
+      </c>
+    </row>
+    <row r="101" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D101">
+        <v>17</v>
+      </c>
+      <c r="E101">
+        <f t="shared" si="18"/>
+        <v>4.3597612335531828</v>
+      </c>
+      <c r="F101" s="1">
+        <f t="shared" si="19"/>
+        <v>249.79591836734696</v>
+      </c>
+      <c r="G101">
+        <f t="shared" si="20"/>
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="H101">
+        <f t="shared" si="21"/>
+        <v>2.7432153875300691</v>
+      </c>
+      <c r="I101">
+        <f t="shared" si="22"/>
+        <v>-2.4632679021695938</v>
+      </c>
+      <c r="J101">
+        <f t="shared" si="23"/>
+        <v>2.9942331996461893</v>
+      </c>
+    </row>
+    <row r="102" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D102">
+        <v>18</v>
+      </c>
+      <c r="E102">
+        <f t="shared" si="18"/>
+        <v>4.6162177767033699</v>
+      </c>
+      <c r="F102" s="1">
+        <f t="shared" si="19"/>
+        <v>264.48979591836735</v>
+      </c>
+      <c r="G102">
+        <f t="shared" si="20"/>
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="H102">
+        <f t="shared" si="21"/>
+        <v>2.9095697147745794</v>
+      </c>
+      <c r="I102">
+        <f t="shared" si="22"/>
+        <v>-0.72640278906521305</v>
+      </c>
+      <c r="J102">
+        <f t="shared" si="23"/>
+        <v>4.8974526399950804</v>
+      </c>
+    </row>
+    <row r="103" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D103">
+        <v>19</v>
+      </c>
+      <c r="E103">
+        <f t="shared" si="18"/>
+        <v>4.872674319853556</v>
+      </c>
+      <c r="F103" s="1">
+        <f t="shared" si="19"/>
+        <v>279.18367346938771</v>
+      </c>
+      <c r="G103">
+        <f t="shared" si="20"/>
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="H103">
+        <f t="shared" si="21"/>
+        <v>2.8856082899807012</v>
+      </c>
+      <c r="I103">
+        <f t="shared" si="22"/>
+        <v>1.1974112284897527</v>
+      </c>
+      <c r="J103">
+        <f t="shared" si="23"/>
+        <v>6.7973052327561678</v>
+      </c>
+    </row>
+    <row r="104" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D104">
+        <v>20</v>
+      </c>
+      <c r="E104">
+        <f t="shared" si="18"/>
+        <v>5.129130863003744</v>
+      </c>
+      <c r="F104" s="1">
+        <f t="shared" si="19"/>
+        <v>293.87755102040819</v>
+      </c>
+      <c r="G104">
+        <f t="shared" si="20"/>
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="H104">
+        <f t="shared" si="21"/>
+        <v>2.6728984365077597</v>
+      </c>
+      <c r="I104">
+        <f t="shared" si="22"/>
+        <v>2.8130563888861988</v>
+      </c>
+      <c r="J104">
+        <f t="shared" si="23"/>
+        <v>8.2002405396796725</v>
+      </c>
+    </row>
+    <row r="105" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D105">
+        <v>21</v>
+      </c>
+      <c r="E105">
+        <f t="shared" si="18"/>
+        <v>5.3855874061539311</v>
+      </c>
+      <c r="F105" s="1">
+        <f t="shared" si="19"/>
+        <v>308.57142857142856</v>
+      </c>
+      <c r="G105">
+        <f t="shared" si="20"/>
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="H105">
+        <f t="shared" si="21"/>
+        <v>2.2853535641373179</v>
+      </c>
+      <c r="I105">
+        <f t="shared" si="22"/>
+        <v>3.7047260662909296</v>
+      </c>
+      <c r="J105">
+        <f t="shared" si="23"/>
+        <v>8.7043653447139615</v>
+      </c>
+    </row>
+    <row r="106" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D106">
+        <v>22</v>
+      </c>
+      <c r="E106">
+        <f t="shared" si="18"/>
+        <v>5.6420439493041172</v>
+      </c>
+      <c r="F106" s="1">
+        <f t="shared" si="19"/>
+        <v>323.26530612244892</v>
+      </c>
+      <c r="G106">
+        <f t="shared" si="20"/>
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="H106">
+        <f t="shared" si="21"/>
+        <v>1.7483230891281722</v>
+      </c>
+      <c r="I106">
+        <f t="shared" si="22"/>
+        <v>3.6429378415393132</v>
+      </c>
+      <c r="J106">
+        <f t="shared" si="23"/>
+        <v>8.1055466449532005</v>
+      </c>
+    </row>
+    <row r="107" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D107">
+        <v>23</v>
+      </c>
+      <c r="E107">
+        <f t="shared" si="18"/>
+        <v>5.8985004924543052</v>
+      </c>
+      <c r="F107" s="1">
+        <f t="shared" si="19"/>
+        <v>337.9591836734694</v>
+      </c>
+      <c r="G107">
+        <f t="shared" si="20"/>
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="H107">
+        <f t="shared" si="21"/>
+        <v>1.0969343219550949</v>
+      </c>
+      <c r="I107">
+        <f t="shared" si="22"/>
+        <v>2.6435936922932508</v>
+      </c>
+      <c r="J107">
+        <f t="shared" si="23"/>
+        <v>6.4548137285340594</v>
+      </c>
+    </row>
+    <row r="108" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D108">
+        <v>24</v>
+      </c>
+      <c r="E108">
+        <f t="shared" si="18"/>
+        <v>6.1549570356044923</v>
+      </c>
+      <c r="F108" s="1">
+        <f t="shared" si="19"/>
+        <v>352.65306122448976</v>
+      </c>
+      <c r="G108">
+        <f t="shared" si="20"/>
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="H108">
+        <f t="shared" si="21"/>
+        <v>0.37379478030855762</v>
+      </c>
+      <c r="I108">
+        <f t="shared" si="22"/>
+        <v>0.96388741885613238</v>
+      </c>
+      <c r="J108">
+        <f t="shared" si="23"/>
+        <v>4.0519679134504045</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/ToyQuadScan.xlsx
+++ b/ToyQuadScan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samuelgrant/Documents/gm2/EDM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA7107A3-DE90-434A-BC80-F567B6C6D5FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A92D52-2780-4C49-B291-6214CF99F0FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="4" xr2:uid="{1274A7F7-32CE-AC49-AA55-A5E18D405CEC}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="3" xr2:uid="{1274A7F7-32CE-AC49-AA55-A5E18D405CEC}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="19">
   <si>
     <t>Br [ppm]</t>
   </si>
@@ -88,6 +88,12 @@
   </si>
   <si>
     <t>y3 [mm]</t>
+  </si>
+  <si>
+    <t>R0 [mm]</t>
+  </si>
+  <si>
+    <t>n</t>
   </si>
 </sst>
 </file>
@@ -2236,76 +2242,76 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>0.10810715601219067</c:v>
+                  <c:v>3.1623756991331713</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.9696619371461122</c:v>
+                  <c:v>3.067396458155204</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-3.1172955167332446</c:v>
+                  <c:v>2.9970563888619179</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-3.1544397264088513</c:v>
+                  <c:v>2.9578679373724537</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-2.161006788421532</c:v>
+                  <c:v>2.9508995146021557</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.45075621515069858</c:v>
+                  <c:v>2.9720903467791122</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.5132546411701817</c:v>
+                  <c:v>3.01367849055868</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.2393423092792228</c:v>
+                  <c:v>3.0663494479109961</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.332836813580208</c:v>
+                  <c:v>3.1215425319747352</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.5944132012841985</c:v>
+                  <c:v>3.1733273532892174</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.0660201697755998</c:v>
+                  <c:v>3.219388859518328</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.0129367472047548</c:v>
+                  <c:v>3.2609028176827053</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.8470424719481036</c:v>
+                  <c:v>3.3013809018128648</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.0116016260200635</c:v>
+                  <c:v>3.3448383673437312</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.85781640051818497</c:v>
+                  <c:v>3.3938166211629262</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.5455323008569555</c:v>
+                  <c:v>3.4478313546021284</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.9942331996461893</c:v>
+                  <c:v>3.5027043574888834</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.8974526399950804</c:v>
+                  <c:v>3.5510028384806374</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.7973052327561678</c:v>
+                  <c:v>3.583514787646449</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8.2002405396796725</c:v>
+                  <c:v>3.5914092990690181</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8.7043653447139615</c:v>
+                  <c:v>3.5685396363772091</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>8.1055466449532005</c:v>
+                  <c:v>3.5132943350094563</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6.4548137285340594</c:v>
+                  <c:v>3.4295023307547967</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.0519679134504045</c:v>
+                  <c:v>3.3261270912869567</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2435,76 +2441,76 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>2.7142857142857144</c:v>
+                  <c:v>3.2709555555555547</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.7142857142857144</c:v>
+                  <c:v>3.2709555555555547</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.7142857142857144</c:v>
+                  <c:v>3.2709555555555547</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.7142857142857144</c:v>
+                  <c:v>3.2709555555555547</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.7142857142857144</c:v>
+                  <c:v>3.2709555555555547</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.7142857142857144</c:v>
+                  <c:v>3.2709555555555547</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.7142857142857144</c:v>
+                  <c:v>3.2709555555555547</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.7142857142857144</c:v>
+                  <c:v>3.2709555555555547</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.7142857142857144</c:v>
+                  <c:v>3.2709555555555547</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.7142857142857144</c:v>
+                  <c:v>3.2709555555555547</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.7142857142857144</c:v>
+                  <c:v>3.2709555555555547</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.7142857142857144</c:v>
+                  <c:v>3.2709555555555547</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.7142857142857144</c:v>
+                  <c:v>3.2709555555555547</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.7142857142857144</c:v>
+                  <c:v>3.2709555555555547</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.7142857142857144</c:v>
+                  <c:v>3.2709555555555547</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.7142857142857144</c:v>
+                  <c:v>3.2709555555555547</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.7142857142857144</c:v>
+                  <c:v>3.2709555555555547</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.7142857142857144</c:v>
+                  <c:v>3.2709555555555547</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.7142857142857144</c:v>
+                  <c:v>3.2709555555555547</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.7142857142857144</c:v>
+                  <c:v>3.2709555555555547</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.7142857142857144</c:v>
+                  <c:v>3.2709555555555547</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.7142857142857144</c:v>
+                  <c:v>3.2709555555555547</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.7142857142857144</c:v>
+                  <c:v>3.2709555555555547</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.7142857142857144</c:v>
+                  <c:v>3.2709555555555547</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2634,76 +2640,76 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>-0.74145186065855972</c:v>
+                  <c:v>-7.4725733862972016E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.4344051520115109</c:v>
+                  <c:v>-0.14456363700494898</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-2.0335336094563448</c:v>
+                  <c:v>-0.20494559305128027</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-2.4996480764771656</c:v>
+                  <c:v>-0.25192200171703255</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-2.8022598781071619</c:v>
+                  <c:v>-0.28242012324351001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-2.9215750935097029</c:v>
+                  <c:v>-0.29444506714756108</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-2.8497892817622534</c:v>
+                  <c:v>-0.28721027855452586</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-2.591597972474923</c:v>
+                  <c:v>-0.26118898696804205</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-2.1638895299124603</c:v>
+                  <c:v>-0.21808325219858421</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1.5946404804616034</c:v>
+                  <c:v>-0.16071263216502923</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.92108556037673894</c:v>
+                  <c:v>-9.2829754838843814E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.18728218148208467</c:v>
+                  <c:v>-1.8874857820542521E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.55877137620401141</c:v>
+                  <c:v>5.631464881803791E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.268275545112862</c:v>
+                  <c:v>0.12782059885161257</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.894821463207381</c:v>
+                  <c:v>0.19096576850143668</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.397426590360332</c:v>
+                  <c:v>0.24161981492386783</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.7432153875300691</c:v>
+                  <c:v>0.2764694430671602</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.9095697147745794</c:v>
+                  <c:v>0.29323512920838291</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.8856082899807012</c:v>
+                  <c:v>0.29082022522454959</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.6728984365077597</c:v>
+                  <c:v>0.26938269064673775</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.2853535641373179</c:v>
+                  <c:v>0.23032476048389339</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.7483230891281722</c:v>
+                  <c:v>0.17620122464679225</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.0969343219550949</c:v>
+                  <c:v>0.11055231844016254</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.37379478030855762</c:v>
+                  <c:v>3.7672154801656366E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2839,76 +2845,76 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>-1.8647266976149641</c:v>
+                  <c:v>-3.3854122559411386E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-3.2495424994203157</c:v>
+                  <c:v>-5.8995460395401496E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-3.7980476215626142</c:v>
+                  <c:v>-6.8953573642356533E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-3.3690773642174001</c:v>
+                  <c:v>-6.1165616466068107E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-2.0730326246000845</c:v>
+                  <c:v>-3.7635917709888833E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.24346683592671009</c:v>
+                  <c:v>-4.4201416288816514E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.6487582086467207</c:v>
+                  <c:v>2.9933213557650818E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.1166545674684314</c:v>
+                  <c:v>5.6582879323483617E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.7824406292069535</c:v>
+                  <c:v>6.8670228617764936E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.4747679674600875</c:v>
+                  <c:v>6.3084429898692021E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.2728200158666239</c:v>
+                  <c:v>4.1263058801617396E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.48593321440112491</c:v>
+                  <c:v>8.8221199476928788E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-1.426014618541622</c:v>
+                  <c:v>-2.5889302560727686E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-2.9709596333785129</c:v>
+                  <c:v>-5.3937787063436007E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-3.7512907769749106</c:v>
+                  <c:v>-6.8104702894065089E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-3.5661800037890905</c:v>
+                  <c:v>-6.4744015877294475E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-2.4632679021695938</c:v>
+                  <c:v>-4.4720641133831576E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-0.72640278906521305</c:v>
+                  <c:v>-1.3187846283300121E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.1974112284897527</c:v>
+                  <c:v>2.1739006866344422E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.8130563888861988</c:v>
+                  <c:v>5.107105286672569E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.7047260662909296</c:v>
+                  <c:v>6.7259320337760567E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.6429378415393132</c:v>
+                  <c:v>6.6137554807109269E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.6435936922932508</c:v>
+                  <c:v>4.7994456759079582E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.96388741885613238</c:v>
+                  <c:v>1.7499380929745303E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3364,7 +3370,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>H!$F$33:$F$56</c:f>
+              <c:f>H!$F$7:$F$30</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="24"/>
@@ -3445,81 +3451,81 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>H!$J$33:$J$56</c:f>
+              <c:f>H!$J$7:$J$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>0.10810715601219067</c:v>
+                  <c:v>3.1623756991331713</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.9696619371461122</c:v>
+                  <c:v>3.067396458155204</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-3.1172955167332446</c:v>
+                  <c:v>2.9970563888619179</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-3.1544397264088513</c:v>
+                  <c:v>2.9578679373724537</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-2.161006788421532</c:v>
+                  <c:v>2.9508995146021557</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.45075621515069858</c:v>
+                  <c:v>2.9720903467791122</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.5132546411701817</c:v>
+                  <c:v>3.01367849055868</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.2393423092792228</c:v>
+                  <c:v>3.0663494479109961</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.332836813580208</c:v>
+                  <c:v>3.1215425319747352</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.5944132012841985</c:v>
+                  <c:v>3.1733273532892174</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.0660201697755998</c:v>
+                  <c:v>3.219388859518328</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.0129367472047548</c:v>
+                  <c:v>3.2609028176827053</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.8470424719481036</c:v>
+                  <c:v>3.3013809018128648</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.0116016260200635</c:v>
+                  <c:v>3.3448383673437312</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.85781640051818497</c:v>
+                  <c:v>3.3938166211629262</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.5455323008569555</c:v>
+                  <c:v>3.4478313546021284</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.9942331996461893</c:v>
+                  <c:v>3.5027043574888834</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.8974526399950804</c:v>
+                  <c:v>3.5510028384806374</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.7973052327561678</c:v>
+                  <c:v>3.583514787646449</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8.2002405396796725</c:v>
+                  <c:v>3.5914092990690181</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8.7043653447139615</c:v>
+                  <c:v>3.5685396363772091</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>8.1055466449532005</c:v>
+                  <c:v>3.5132943350094563</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6.4548137285340594</c:v>
+                  <c:v>3.4295023307547967</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.0519679134504045</c:v>
+                  <c:v>3.3261270912869567</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3848,76 +3854,76 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>-0.74145186065855972</c:v>
+                  <c:v>-7.4725733862972016E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.4344051520115109</c:v>
+                  <c:v>-0.14456363700494898</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-2.0335336094563448</c:v>
+                  <c:v>-0.20494559305128027</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-2.4996480764771656</c:v>
+                  <c:v>-0.25192200171703255</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-2.8022598781071619</c:v>
+                  <c:v>-0.28242012324351001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-2.9215750935097029</c:v>
+                  <c:v>-0.29444506714756108</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-2.8497892817622534</c:v>
+                  <c:v>-0.28721027855452586</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-2.591597972474923</c:v>
+                  <c:v>-0.26118898696804205</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-2.1638895299124603</c:v>
+                  <c:v>-0.21808325219858421</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1.5946404804616034</c:v>
+                  <c:v>-0.16071263216502923</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.92108556037673894</c:v>
+                  <c:v>-9.2829754838843814E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.18728218148208467</c:v>
+                  <c:v>-1.8874857820542521E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.55877137620401141</c:v>
+                  <c:v>5.631464881803791E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.268275545112862</c:v>
+                  <c:v>0.12782059885161257</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.894821463207381</c:v>
+                  <c:v>0.19096576850143668</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.397426590360332</c:v>
+                  <c:v>0.24161981492386783</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.7432153875300691</c:v>
+                  <c:v>0.2764694430671602</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.9095697147745794</c:v>
+                  <c:v>0.29323512920838291</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.8856082899807012</c:v>
+                  <c:v>0.29082022522454959</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.6728984365077597</c:v>
+                  <c:v>0.26938269064673775</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.2853535641373179</c:v>
+                  <c:v>0.23032476048389339</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.7483230891281722</c:v>
+                  <c:v>0.17620122464679225</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.0969343219550949</c:v>
+                  <c:v>0.11055231844016254</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.37379478030855762</c:v>
+                  <c:v>3.7672154801656366E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4053,76 +4059,76 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>-1.8647266976149641</c:v>
+                  <c:v>-3.3854122559411386E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-3.2495424994203157</c:v>
+                  <c:v>-5.8995460395401496E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-3.7980476215626142</c:v>
+                  <c:v>-6.8953573642356533E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-3.3690773642174001</c:v>
+                  <c:v>-6.1165616466068107E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-2.0730326246000845</c:v>
+                  <c:v>-3.7635917709888833E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.24346683592671009</c:v>
+                  <c:v>-4.4201416288816514E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.6487582086467207</c:v>
+                  <c:v>2.9933213557650818E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.1166545674684314</c:v>
+                  <c:v>5.6582879323483617E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.7824406292069535</c:v>
+                  <c:v>6.8670228617764936E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.4747679674600875</c:v>
+                  <c:v>6.3084429898692021E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.2728200158666239</c:v>
+                  <c:v>4.1263058801617396E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.48593321440112491</c:v>
+                  <c:v>8.8221199476928788E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-1.426014618541622</c:v>
+                  <c:v>-2.5889302560727686E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-2.9709596333785129</c:v>
+                  <c:v>-5.3937787063436007E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-3.7512907769749106</c:v>
+                  <c:v>-6.8104702894065089E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-3.5661800037890905</c:v>
+                  <c:v>-6.4744015877294475E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-2.4632679021695938</c:v>
+                  <c:v>-4.4720641133831576E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-0.72640278906521305</c:v>
+                  <c:v>-1.3187846283300121E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.1974112284897527</c:v>
+                  <c:v>2.1739006866344422E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.8130563888861988</c:v>
+                  <c:v>5.107105286672569E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.7047260662909296</c:v>
+                  <c:v>6.7259320337760567E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.6429378415393132</c:v>
+                  <c:v>6.6137554807109269E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.6435936922932508</c:v>
+                  <c:v>4.7994456759079582E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.96388741885613238</c:v>
+                  <c:v>1.7499380929745303E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5067,76 +5073,76 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>-0.74145186065855972</c:v>
+                  <c:v>-7.4725733862972016E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.4344051520115109</c:v>
+                  <c:v>-0.14456363700494898</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-2.0335336094563448</c:v>
+                  <c:v>-0.20494559305128027</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-2.4996480764771656</c:v>
+                  <c:v>-0.25192200171703255</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-2.8022598781071619</c:v>
+                  <c:v>-0.28242012324351001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-2.9215750935097029</c:v>
+                  <c:v>-0.29444506714756108</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-2.8497892817622534</c:v>
+                  <c:v>-0.28721027855452586</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-2.591597972474923</c:v>
+                  <c:v>-0.26118898696804205</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-2.1638895299124603</c:v>
+                  <c:v>-0.21808325219858421</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1.5946404804616034</c:v>
+                  <c:v>-0.16071263216502923</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.92108556037673894</c:v>
+                  <c:v>-9.2829754838843814E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.18728218148208467</c:v>
+                  <c:v>-1.8874857820542521E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.55877137620401141</c:v>
+                  <c:v>5.631464881803791E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.268275545112862</c:v>
+                  <c:v>0.12782059885161257</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.894821463207381</c:v>
+                  <c:v>0.19096576850143668</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.397426590360332</c:v>
+                  <c:v>0.24161981492386783</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.7432153875300691</c:v>
+                  <c:v>0.2764694430671602</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.9095697147745794</c:v>
+                  <c:v>0.29323512920838291</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.8856082899807012</c:v>
+                  <c:v>0.29082022522454959</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.6728984365077597</c:v>
+                  <c:v>0.26938269064673775</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.2853535641373179</c:v>
+                  <c:v>0.23032476048389339</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.7483230891281722</c:v>
+                  <c:v>0.17620122464679225</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.0969343219550949</c:v>
+                  <c:v>0.11055231844016254</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.37379478030855762</c:v>
+                  <c:v>3.7672154801656366E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5272,76 +5278,76 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>-1.8647266976149641</c:v>
+                  <c:v>-3.3854122559411386E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-3.2495424994203157</c:v>
+                  <c:v>-5.8995460395401496E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-3.7980476215626142</c:v>
+                  <c:v>-6.8953573642356533E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-3.3690773642174001</c:v>
+                  <c:v>-6.1165616466068107E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-2.0730326246000845</c:v>
+                  <c:v>-3.7635917709888833E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.24346683592671009</c:v>
+                  <c:v>-4.4201416288816514E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.6487582086467207</c:v>
+                  <c:v>2.9933213557650818E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.1166545674684314</c:v>
+                  <c:v>5.6582879323483617E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.7824406292069535</c:v>
+                  <c:v>6.8670228617764936E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.4747679674600875</c:v>
+                  <c:v>6.3084429898692021E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.2728200158666239</c:v>
+                  <c:v>4.1263058801617396E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.48593321440112491</c:v>
+                  <c:v>8.8221199476928788E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-1.426014618541622</c:v>
+                  <c:v>-2.5889302560727686E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-2.9709596333785129</c:v>
+                  <c:v>-5.3937787063436007E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-3.7512907769749106</c:v>
+                  <c:v>-6.8104702894065089E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-3.5661800037890905</c:v>
+                  <c:v>-6.4744015877294475E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-2.4632679021695938</c:v>
+                  <c:v>-4.4720641133831576E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-0.72640278906521305</c:v>
+                  <c:v>-1.3187846283300121E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.1974112284897527</c:v>
+                  <c:v>2.1739006866344422E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.8130563888861988</c:v>
+                  <c:v>5.107105286672569E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.7047260662909296</c:v>
+                  <c:v>6.7259320337760567E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.6429378415393132</c:v>
+                  <c:v>6.6137554807109269E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.6435936922932508</c:v>
+                  <c:v>4.7994456759079582E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.96388741885613238</c:v>
+                  <c:v>1.7499380929745303E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8477,7 +8483,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{34F266F7-2FDF-3847-AB2E-67D25962AC7E}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="131" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="136" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8488,7 +8494,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{E898D1E5-7BE5-304D-82E4-34C404304AD1}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="136" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="136" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8532,7 +8538,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9316565" cy="6078550"/>
+    <xdr:ext cx="9319559" cy="6079191"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -8600,14 +8606,14 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>819150</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9496,14 +9502,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F48EF844-6735-FC4F-A8F9-88668F673782}">
   <dimension ref="A1:J108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView topLeftCell="A2" zoomScale="92" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7:J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -9511,12 +9519,21 @@
         <v>12</v>
       </c>
     </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>14</v>
+      </c>
+    </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B6">
-        <v>14</v>
+        <f>(0.108/18.3)*B5</f>
+        <v>8.2622950819672136E-2</v>
       </c>
       <c r="D6" t="s">
         <v>4</v>
@@ -9559,20 +9576,20 @@
         <v>14.693877551020407</v>
       </c>
       <c r="G7">
-        <f>$B$9/$B$6</f>
-        <v>2.7142857142857144</v>
+        <f>($B$12/$B$6)*$B$9*0.000001</f>
+        <v>3.2709555555555547</v>
       </c>
       <c r="H7">
-        <f>$B$9*COS(E7-$B$10)/(1-$B$6)</f>
-        <v>-0.74145186065855972</v>
+        <f>$B$12/(1-$B$6) * $B$9 *COS(E7+$B$10) * 0.000001</f>
+        <v>-7.4725733862972016E-2</v>
       </c>
       <c r="I7">
-        <f>$B$9*COS(2*E7-$B$11)/(4-$B$6)</f>
-        <v>-1.8647266976149641</v>
+        <f>($B$12/(4-$B$6)) * $B$9 * COS(2*E7+$B$11) * 0.000001</f>
+        <v>-3.3854122559411386E-2</v>
       </c>
       <c r="J7">
         <f>SUM(G7:I7)</f>
-        <v>0.10810715601219067</v>
+        <v>3.1623756991331713</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -9594,20 +9611,20 @@
         <v>29.387755102040813</v>
       </c>
       <c r="G8">
-        <f t="shared" ref="G8:G30" si="2">$B$9/$B$6</f>
-        <v>2.7142857142857144</v>
+        <f t="shared" ref="G8:G30" si="2">($B$12/$B$6)*$B$9*0.000001</f>
+        <v>3.2709555555555547</v>
       </c>
       <c r="H8">
-        <f t="shared" ref="H8:H30" si="3">$B$9*COS(E8-$B$10)/(1-$B$6)</f>
-        <v>-1.4344051520115109</v>
+        <f t="shared" ref="H8:H30" si="3">$B$12/(1-$B$6) * $B$9 *COS(E8+$B$10) * 0.000001</f>
+        <v>-0.14456363700494898</v>
       </c>
       <c r="I8">
-        <f t="shared" ref="I8:I30" si="4">$B$9*COS(2*E8-$B$11)/(4-$B$6)</f>
-        <v>-3.2495424994203157</v>
+        <f t="shared" ref="I8:I30" si="4">($B$12/(4-$B$6)) * $B$9 * COS(2*E8+$B$11) * 0.000001</f>
+        <v>-5.8995460395401496E-2</v>
       </c>
       <c r="J8">
         <f t="shared" ref="J8:J30" si="5">SUM(G8:I8)</f>
-        <v>-1.9696619371461122</v>
+        <v>3.067396458155204</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -9631,19 +9648,19 @@
       </c>
       <c r="G9">
         <f t="shared" si="2"/>
-        <v>2.7142857142857144</v>
+        <v>3.2709555555555547</v>
       </c>
       <c r="H9">
         <f t="shared" si="3"/>
-        <v>-2.0335336094563448</v>
+        <v>-0.20494559305128027</v>
       </c>
       <c r="I9">
         <f t="shared" si="4"/>
-        <v>-3.7980476215626142</v>
+        <v>-6.8953573642356533E-2</v>
       </c>
       <c r="J9">
         <f t="shared" si="5"/>
-        <v>-3.1172955167332446</v>
+        <v>2.9970563888619179</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -9667,19 +9684,19 @@
       </c>
       <c r="G10">
         <f t="shared" si="2"/>
-        <v>2.7142857142857144</v>
+        <v>3.2709555555555547</v>
       </c>
       <c r="H10">
         <f t="shared" si="3"/>
-        <v>-2.4996480764771656</v>
+        <v>-0.25192200171703255</v>
       </c>
       <c r="I10">
         <f t="shared" si="4"/>
-        <v>-3.3690773642174001</v>
+        <v>-6.1165616466068107E-2</v>
       </c>
       <c r="J10">
         <f t="shared" si="5"/>
-        <v>-3.1544397264088513</v>
+        <v>2.9578679373724537</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -9703,22 +9720,28 @@
       </c>
       <c r="G11">
         <f t="shared" si="2"/>
-        <v>2.7142857142857144</v>
+        <v>3.2709555555555547</v>
       </c>
       <c r="H11">
         <f t="shared" si="3"/>
-        <v>-2.8022598781071619</v>
+        <v>-0.28242012324351001</v>
       </c>
       <c r="I11">
         <f t="shared" si="4"/>
-        <v>-2.0730326246000845</v>
+        <v>-3.7635917709888833E-2</v>
       </c>
       <c r="J11">
         <f t="shared" si="5"/>
-        <v>-2.161006788421532</v>
+        <v>2.9508995146021557</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>7112</v>
+      </c>
       <c r="D12">
         <v>6</v>
       </c>
@@ -9732,19 +9755,19 @@
       </c>
       <c r="G12">
         <f t="shared" si="2"/>
-        <v>2.7142857142857144</v>
+        <v>3.2709555555555547</v>
       </c>
       <c r="H12">
         <f t="shared" si="3"/>
-        <v>-2.9215750935097029</v>
+        <v>-0.29444506714756108</v>
       </c>
       <c r="I12">
         <f t="shared" si="4"/>
-        <v>-0.24346683592671009</v>
+        <v>-4.4201416288816514E-3</v>
       </c>
       <c r="J12">
         <f t="shared" si="5"/>
-        <v>-0.45075621515069858</v>
+        <v>2.9720903467791122</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -9761,19 +9784,19 @@
       </c>
       <c r="G13">
         <f t="shared" si="2"/>
-        <v>2.7142857142857144</v>
+        <v>3.2709555555555547</v>
       </c>
       <c r="H13">
         <f t="shared" si="3"/>
-        <v>-2.8497892817622534</v>
+        <v>-0.28721027855452586</v>
       </c>
       <c r="I13">
         <f t="shared" si="4"/>
-        <v>1.6487582086467207</v>
+        <v>2.9933213557650818E-2</v>
       </c>
       <c r="J13">
         <f t="shared" si="5"/>
-        <v>1.5132546411701817</v>
+        <v>3.01367849055868</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -9790,19 +9813,19 @@
       </c>
       <c r="G14">
         <f t="shared" si="2"/>
-        <v>2.7142857142857144</v>
+        <v>3.2709555555555547</v>
       </c>
       <c r="H14">
         <f t="shared" si="3"/>
-        <v>-2.591597972474923</v>
+        <v>-0.26118898696804205</v>
       </c>
       <c r="I14">
         <f t="shared" si="4"/>
-        <v>3.1166545674684314</v>
+        <v>5.6582879323483617E-2</v>
       </c>
       <c r="J14">
         <f t="shared" si="5"/>
-        <v>3.2393423092792228</v>
+        <v>3.0663494479109961</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -9819,19 +9842,19 @@
       </c>
       <c r="G15">
         <f t="shared" si="2"/>
-        <v>2.7142857142857144</v>
+        <v>3.2709555555555547</v>
       </c>
       <c r="H15">
         <f t="shared" si="3"/>
-        <v>-2.1638895299124603</v>
+        <v>-0.21808325219858421</v>
       </c>
       <c r="I15">
         <f t="shared" si="4"/>
-        <v>3.7824406292069535</v>
+        <v>6.8670228617764936E-2</v>
       </c>
       <c r="J15">
         <f t="shared" si="5"/>
-        <v>4.332836813580208</v>
+        <v>3.1215425319747352</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -9848,19 +9871,19 @@
       </c>
       <c r="G16">
         <f t="shared" si="2"/>
-        <v>2.7142857142857144</v>
+        <v>3.2709555555555547</v>
       </c>
       <c r="H16">
         <f t="shared" si="3"/>
-        <v>-1.5946404804616034</v>
+        <v>-0.16071263216502923</v>
       </c>
       <c r="I16">
         <f t="shared" si="4"/>
-        <v>3.4747679674600875</v>
+        <v>6.3084429898692021E-2</v>
       </c>
       <c r="J16">
         <f t="shared" si="5"/>
-        <v>4.5944132012841985</v>
+        <v>3.1733273532892174</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -9877,19 +9900,19 @@
       </c>
       <c r="G17">
         <f t="shared" si="2"/>
-        <v>2.7142857142857144</v>
+        <v>3.2709555555555547</v>
       </c>
       <c r="H17">
         <f t="shared" si="3"/>
-        <v>-0.92108556037673894</v>
+        <v>-9.2829754838843814E-2</v>
       </c>
       <c r="I17">
         <f t="shared" si="4"/>
-        <v>2.2728200158666239</v>
+        <v>4.1263058801617396E-2</v>
       </c>
       <c r="J17">
         <f t="shared" si="5"/>
-        <v>4.0660201697755998</v>
+        <v>3.219388859518328</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -9906,19 +9929,19 @@
       </c>
       <c r="G18">
         <f t="shared" si="2"/>
-        <v>2.7142857142857144</v>
+        <v>3.2709555555555547</v>
       </c>
       <c r="H18">
         <f t="shared" si="3"/>
-        <v>-0.18728218148208467</v>
+        <v>-1.8874857820542521E-2</v>
       </c>
       <c r="I18">
         <f t="shared" si="4"/>
-        <v>0.48593321440112491</v>
+        <v>8.8221199476928788E-3</v>
       </c>
       <c r="J18">
         <f t="shared" si="5"/>
-        <v>3.0129367472047548</v>
+        <v>3.2609028176827053</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -9935,19 +9958,19 @@
       </c>
       <c r="G19">
         <f t="shared" si="2"/>
-        <v>2.7142857142857144</v>
+        <v>3.2709555555555547</v>
       </c>
       <c r="H19">
         <f t="shared" si="3"/>
-        <v>0.55877137620401141</v>
+        <v>5.631464881803791E-2</v>
       </c>
       <c r="I19">
         <f t="shared" si="4"/>
-        <v>-1.426014618541622</v>
+        <v>-2.5889302560727686E-2</v>
       </c>
       <c r="J19">
         <f t="shared" si="5"/>
-        <v>1.8470424719481036</v>
+        <v>3.3013809018128648</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -9964,19 +9987,19 @@
       </c>
       <c r="G20">
         <f t="shared" si="2"/>
-        <v>2.7142857142857144</v>
+        <v>3.2709555555555547</v>
       </c>
       <c r="H20">
         <f t="shared" si="3"/>
-        <v>1.268275545112862</v>
+        <v>0.12782059885161257</v>
       </c>
       <c r="I20">
         <f t="shared" si="4"/>
-        <v>-2.9709596333785129</v>
+        <v>-5.3937787063436007E-2</v>
       </c>
       <c r="J20">
         <f t="shared" si="5"/>
-        <v>1.0116016260200635</v>
+        <v>3.3448383673437312</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -9993,19 +10016,19 @@
       </c>
       <c r="G21">
         <f t="shared" si="2"/>
-        <v>2.7142857142857144</v>
+        <v>3.2709555555555547</v>
       </c>
       <c r="H21">
         <f t="shared" si="3"/>
-        <v>1.894821463207381</v>
+        <v>0.19096576850143668</v>
       </c>
       <c r="I21">
         <f t="shared" si="4"/>
-        <v>-3.7512907769749106</v>
+        <v>-6.8104702894065089E-2</v>
       </c>
       <c r="J21">
         <f t="shared" si="5"/>
-        <v>0.85781640051818497</v>
+        <v>3.3938166211629262</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -10022,19 +10045,19 @@
       </c>
       <c r="G22">
         <f t="shared" si="2"/>
-        <v>2.7142857142857144</v>
+        <v>3.2709555555555547</v>
       </c>
       <c r="H22">
         <f t="shared" si="3"/>
-        <v>2.397426590360332</v>
+        <v>0.24161981492386783</v>
       </c>
       <c r="I22">
         <f t="shared" si="4"/>
-        <v>-3.5661800037890905</v>
+        <v>-6.4744015877294475E-2</v>
       </c>
       <c r="J22">
         <f t="shared" si="5"/>
-        <v>1.5455323008569555</v>
+        <v>3.4478313546021284</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
@@ -10051,19 +10074,19 @@
       </c>
       <c r="G23">
         <f t="shared" si="2"/>
-        <v>2.7142857142857144</v>
+        <v>3.2709555555555547</v>
       </c>
       <c r="H23">
         <f t="shared" si="3"/>
-        <v>2.7432153875300691</v>
+        <v>0.2764694430671602</v>
       </c>
       <c r="I23">
         <f t="shared" si="4"/>
-        <v>-2.4632679021695938</v>
+        <v>-4.4720641133831576E-2</v>
       </c>
       <c r="J23">
         <f t="shared" si="5"/>
-        <v>2.9942331996461893</v>
+        <v>3.5027043574888834</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
@@ -10080,19 +10103,19 @@
       </c>
       <c r="G24">
         <f t="shared" si="2"/>
-        <v>2.7142857142857144</v>
+        <v>3.2709555555555547</v>
       </c>
       <c r="H24">
         <f t="shared" si="3"/>
-        <v>2.9095697147745794</v>
+        <v>0.29323512920838291</v>
       </c>
       <c r="I24">
         <f t="shared" si="4"/>
-        <v>-0.72640278906521305</v>
+        <v>-1.3187846283300121E-2</v>
       </c>
       <c r="J24">
         <f t="shared" si="5"/>
-        <v>4.8974526399950804</v>
+        <v>3.5510028384806374</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
@@ -10109,19 +10132,19 @@
       </c>
       <c r="G25">
         <f t="shared" si="2"/>
-        <v>2.7142857142857144</v>
+        <v>3.2709555555555547</v>
       </c>
       <c r="H25">
         <f t="shared" si="3"/>
-        <v>2.8856082899807012</v>
+        <v>0.29082022522454959</v>
       </c>
       <c r="I25">
         <f t="shared" si="4"/>
-        <v>1.1974112284897527</v>
+        <v>2.1739006866344422E-2</v>
       </c>
       <c r="J25">
         <f t="shared" si="5"/>
-        <v>6.7973052327561678</v>
+        <v>3.583514787646449</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
@@ -10138,19 +10161,19 @@
       </c>
       <c r="G26">
         <f t="shared" si="2"/>
-        <v>2.7142857142857144</v>
+        <v>3.2709555555555547</v>
       </c>
       <c r="H26">
         <f t="shared" si="3"/>
-        <v>2.6728984365077597</v>
+        <v>0.26938269064673775</v>
       </c>
       <c r="I26">
         <f t="shared" si="4"/>
-        <v>2.8130563888861988</v>
+        <v>5.107105286672569E-2</v>
       </c>
       <c r="J26">
         <f t="shared" si="5"/>
-        <v>8.2002405396796725</v>
+        <v>3.5914092990690181</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
@@ -10167,19 +10190,19 @@
       </c>
       <c r="G27">
         <f t="shared" si="2"/>
-        <v>2.7142857142857144</v>
+        <v>3.2709555555555547</v>
       </c>
       <c r="H27">
         <f t="shared" si="3"/>
-        <v>2.2853535641373179</v>
+        <v>0.23032476048389339</v>
       </c>
       <c r="I27">
         <f t="shared" si="4"/>
-        <v>3.7047260662909296</v>
+        <v>6.7259320337760567E-2</v>
       </c>
       <c r="J27">
         <f t="shared" si="5"/>
-        <v>8.7043653447139615</v>
+        <v>3.5685396363772091</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
@@ -10196,19 +10219,19 @@
       </c>
       <c r="G28">
         <f t="shared" si="2"/>
-        <v>2.7142857142857144</v>
+        <v>3.2709555555555547</v>
       </c>
       <c r="H28">
         <f t="shared" si="3"/>
-        <v>1.7483230891281722</v>
+        <v>0.17620122464679225</v>
       </c>
       <c r="I28">
         <f t="shared" si="4"/>
-        <v>3.6429378415393132</v>
+        <v>6.6137554807109269E-2</v>
       </c>
       <c r="J28">
         <f t="shared" si="5"/>
-        <v>8.1055466449532005</v>
+        <v>3.5132943350094563</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
@@ -10225,19 +10248,19 @@
       </c>
       <c r="G29">
         <f t="shared" si="2"/>
-        <v>2.7142857142857144</v>
+        <v>3.2709555555555547</v>
       </c>
       <c r="H29">
         <f t="shared" si="3"/>
-        <v>1.0969343219550949</v>
+        <v>0.11055231844016254</v>
       </c>
       <c r="I29">
         <f t="shared" si="4"/>
-        <v>2.6435936922932508</v>
+        <v>4.7994456759079582E-2</v>
       </c>
       <c r="J29">
         <f t="shared" si="5"/>
-        <v>6.4548137285340594</v>
+        <v>3.4295023307547967</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
@@ -10254,19 +10277,19 @@
       </c>
       <c r="G30">
         <f t="shared" si="2"/>
-        <v>2.7142857142857144</v>
+        <v>3.2709555555555547</v>
       </c>
       <c r="H30">
         <f t="shared" si="3"/>
-        <v>0.37379478030855762</v>
+        <v>3.7672154801656366E-2</v>
       </c>
       <c r="I30">
         <f t="shared" si="4"/>
-        <v>0.96388741885613238</v>
+        <v>1.7499380929745303E-2</v>
       </c>
       <c r="J30">
         <f t="shared" si="5"/>
-        <v>4.0519679134504045</v>
+        <v>3.3261270912869567</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
@@ -10317,15 +10340,15 @@
         <v>14.693877551020407</v>
       </c>
       <c r="G33">
-        <f>$B$9/$B$6</f>
+        <f>$B$9/$B$5</f>
         <v>2.7142857142857144</v>
       </c>
       <c r="H33">
-        <f>$B$9*COS(E33-$B$10)/(1-$B$6)</f>
+        <f>$B$9*COS(E33-$B$10)/(1-$B$5)</f>
         <v>-0.74145186065855972</v>
       </c>
       <c r="I33">
-        <f>$B$9*COS(2*E33-$B$11)/(4-$B$6)</f>
+        <f>$B$9*COS(2*E33-$B$11)/(4-$B$5)</f>
         <v>-1.8647266976149641</v>
       </c>
       <c r="J33">
@@ -10352,19 +10375,19 @@
         <v>29.387755102040813</v>
       </c>
       <c r="G34">
-        <f t="shared" ref="G34:G56" si="8">$B$9/$B$6</f>
+        <f>$B$9/$B$5</f>
         <v>2.7142857142857144</v>
       </c>
       <c r="H34">
-        <f t="shared" ref="H34:H56" si="9">$B$9*COS(E34-$B$10)/(1-$B$6)</f>
+        <f>$B$9*COS(E34-$B$10)/(1-$B$5)</f>
         <v>-1.4344051520115109</v>
       </c>
       <c r="I34">
-        <f t="shared" ref="I34:I56" si="10">$B$9*COS(2*E34-$B$11)/(4-$B$6)</f>
+        <f>$B$9*COS(2*E34-$B$11)/(4-$B$5)</f>
         <v>-3.2495424994203157</v>
       </c>
       <c r="J34">
-        <f t="shared" ref="J34:J56" si="11">SUM(G34:I34)</f>
+        <f t="shared" ref="J34:J56" si="8">SUM(G34:I34)</f>
         <v>-1.9696619371461122</v>
       </c>
     </row>
@@ -10388,19 +10411,19 @@
         <v>44.08163265306122</v>
       </c>
       <c r="G35">
+        <f>$B$9/$B$5</f>
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="H35">
+        <f>$B$9*COS(E35-$B$10)/(1-$B$5)</f>
+        <v>-2.0335336094563448</v>
+      </c>
+      <c r="I35">
+        <f>$B$9*COS(2*E35-$B$11)/(4-$B$5)</f>
+        <v>-3.7980476215626142</v>
+      </c>
+      <c r="J35">
         <f t="shared" si="8"/>
-        <v>2.7142857142857144</v>
-      </c>
-      <c r="H35">
-        <f t="shared" si="9"/>
-        <v>-2.0335336094563448</v>
-      </c>
-      <c r="I35">
-        <f t="shared" si="10"/>
-        <v>-3.7980476215626142</v>
-      </c>
-      <c r="J35">
-        <f t="shared" si="11"/>
         <v>-3.1172955167332446</v>
       </c>
     </row>
@@ -10424,19 +10447,19 @@
         <v>58.775510204081627</v>
       </c>
       <c r="G36">
+        <f>$B$9/$B$5</f>
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="H36">
+        <f>$B$9*COS(E36-$B$10)/(1-$B$5)</f>
+        <v>-2.4996480764771656</v>
+      </c>
+      <c r="I36">
+        <f>$B$9*COS(2*E36-$B$11)/(4-$B$5)</f>
+        <v>-3.3690773642174001</v>
+      </c>
+      <c r="J36">
         <f t="shared" si="8"/>
-        <v>2.7142857142857144</v>
-      </c>
-      <c r="H36">
-        <f t="shared" si="9"/>
-        <v>-2.4996480764771656</v>
-      </c>
-      <c r="I36">
-        <f t="shared" si="10"/>
-        <v>-3.3690773642174001</v>
-      </c>
-      <c r="J36">
-        <f t="shared" si="11"/>
         <v>-3.1544397264088513</v>
       </c>
     </row>
@@ -10460,19 +10483,19 @@
         <v>73.469387755102048</v>
       </c>
       <c r="G37">
+        <f>$B$9/$B$5</f>
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="H37">
+        <f>$B$9*COS(E37-$B$10)/(1-$B$5)</f>
+        <v>-2.8022598781071619</v>
+      </c>
+      <c r="I37">
+        <f>$B$9*COS(2*E37-$B$11)/(4-$B$5)</f>
+        <v>-2.0730326246000845</v>
+      </c>
+      <c r="J37">
         <f t="shared" si="8"/>
-        <v>2.7142857142857144</v>
-      </c>
-      <c r="H37">
-        <f t="shared" si="9"/>
-        <v>-2.8022598781071619</v>
-      </c>
-      <c r="I37">
-        <f t="shared" si="10"/>
-        <v>-2.0730326246000845</v>
-      </c>
-      <c r="J37">
-        <f t="shared" si="11"/>
         <v>-2.161006788421532</v>
       </c>
     </row>
@@ -10489,19 +10512,19 @@
         <v>88.16326530612244</v>
       </c>
       <c r="G38">
+        <f>$B$9/$B$5</f>
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="H38">
+        <f>$B$9*COS(E38-$B$10)/(1-$B$5)</f>
+        <v>-2.9215750935097029</v>
+      </c>
+      <c r="I38">
+        <f>$B$9*COS(2*E38-$B$11)/(4-$B$5)</f>
+        <v>-0.24346683592671009</v>
+      </c>
+      <c r="J38">
         <f t="shared" si="8"/>
-        <v>2.7142857142857144</v>
-      </c>
-      <c r="H38">
-        <f t="shared" si="9"/>
-        <v>-2.9215750935097029</v>
-      </c>
-      <c r="I38">
-        <f t="shared" si="10"/>
-        <v>-0.24346683592671009</v>
-      </c>
-      <c r="J38">
-        <f t="shared" si="11"/>
         <v>-0.45075621515069858</v>
       </c>
     </row>
@@ -10518,19 +10541,19 @@
         <v>102.85714285714286</v>
       </c>
       <c r="G39">
+        <f>$B$9/$B$5</f>
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="H39">
+        <f>$B$9*COS(E39-$B$10)/(1-$B$5)</f>
+        <v>-2.8497892817622534</v>
+      </c>
+      <c r="I39">
+        <f>$B$9*COS(2*E39-$B$11)/(4-$B$5)</f>
+        <v>1.6487582086467207</v>
+      </c>
+      <c r="J39">
         <f t="shared" si="8"/>
-        <v>2.7142857142857144</v>
-      </c>
-      <c r="H39">
-        <f t="shared" si="9"/>
-        <v>-2.8497892817622534</v>
-      </c>
-      <c r="I39">
-        <f t="shared" si="10"/>
-        <v>1.6487582086467207</v>
-      </c>
-      <c r="J39">
-        <f t="shared" si="11"/>
         <v>1.5132546411701817</v>
       </c>
     </row>
@@ -10547,19 +10570,19 @@
         <v>117.55102040816325</v>
       </c>
       <c r="G40">
+        <f>$B$9/$B$5</f>
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="H40">
+        <f>$B$9*COS(E40-$B$10)/(1-$B$5)</f>
+        <v>-2.591597972474923</v>
+      </c>
+      <c r="I40">
+        <f>$B$9*COS(2*E40-$B$11)/(4-$B$5)</f>
+        <v>3.1166545674684314</v>
+      </c>
+      <c r="J40">
         <f t="shared" si="8"/>
-        <v>2.7142857142857144</v>
-      </c>
-      <c r="H40">
-        <f t="shared" si="9"/>
-        <v>-2.591597972474923</v>
-      </c>
-      <c r="I40">
-        <f t="shared" si="10"/>
-        <v>3.1166545674684314</v>
-      </c>
-      <c r="J40">
-        <f t="shared" si="11"/>
         <v>3.2393423092792228</v>
       </c>
     </row>
@@ -10576,19 +10599,19 @@
         <v>132.24489795918367</v>
       </c>
       <c r="G41">
+        <f>$B$9/$B$5</f>
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="H41">
+        <f>$B$9*COS(E41-$B$10)/(1-$B$5)</f>
+        <v>-2.1638895299124603</v>
+      </c>
+      <c r="I41">
+        <f>$B$9*COS(2*E41-$B$11)/(4-$B$5)</f>
+        <v>3.7824406292069535</v>
+      </c>
+      <c r="J41">
         <f t="shared" si="8"/>
-        <v>2.7142857142857144</v>
-      </c>
-      <c r="H41">
-        <f t="shared" si="9"/>
-        <v>-2.1638895299124603</v>
-      </c>
-      <c r="I41">
-        <f t="shared" si="10"/>
-        <v>3.7824406292069535</v>
-      </c>
-      <c r="J41">
-        <f t="shared" si="11"/>
         <v>4.332836813580208</v>
       </c>
     </row>
@@ -10605,19 +10628,19 @@
         <v>146.9387755102041</v>
       </c>
       <c r="G42">
+        <f>$B$9/$B$5</f>
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="H42">
+        <f>$B$9*COS(E42-$B$10)/(1-$B$5)</f>
+        <v>-1.5946404804616034</v>
+      </c>
+      <c r="I42">
+        <f>$B$9*COS(2*E42-$B$11)/(4-$B$5)</f>
+        <v>3.4747679674600875</v>
+      </c>
+      <c r="J42">
         <f t="shared" si="8"/>
-        <v>2.7142857142857144</v>
-      </c>
-      <c r="H42">
-        <f t="shared" si="9"/>
-        <v>-1.5946404804616034</v>
-      </c>
-      <c r="I42">
-        <f t="shared" si="10"/>
-        <v>3.4747679674600875</v>
-      </c>
-      <c r="J42">
-        <f t="shared" si="11"/>
         <v>4.5944132012841985</v>
       </c>
     </row>
@@ -10634,19 +10657,19 @@
         <v>161.63265306122446</v>
       </c>
       <c r="G43">
+        <f>$B$9/$B$5</f>
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="H43">
+        <f>$B$9*COS(E43-$B$10)/(1-$B$5)</f>
+        <v>-0.92108556037673894</v>
+      </c>
+      <c r="I43">
+        <f>$B$9*COS(2*E43-$B$11)/(4-$B$5)</f>
+        <v>2.2728200158666239</v>
+      </c>
+      <c r="J43">
         <f t="shared" si="8"/>
-        <v>2.7142857142857144</v>
-      </c>
-      <c r="H43">
-        <f t="shared" si="9"/>
-        <v>-0.92108556037673894</v>
-      </c>
-      <c r="I43">
-        <f t="shared" si="10"/>
-        <v>2.2728200158666239</v>
-      </c>
-      <c r="J43">
-        <f t="shared" si="11"/>
         <v>4.0660201697755998</v>
       </c>
     </row>
@@ -10663,19 +10686,19 @@
         <v>176.32653061224488</v>
       </c>
       <c r="G44">
+        <f>$B$9/$B$5</f>
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="H44">
+        <f>$B$9*COS(E44-$B$10)/(1-$B$5)</f>
+        <v>-0.18728218148208467</v>
+      </c>
+      <c r="I44">
+        <f>$B$9*COS(2*E44-$B$11)/(4-$B$5)</f>
+        <v>0.48593321440112491</v>
+      </c>
+      <c r="J44">
         <f t="shared" si="8"/>
-        <v>2.7142857142857144</v>
-      </c>
-      <c r="H44">
-        <f t="shared" si="9"/>
-        <v>-0.18728218148208467</v>
-      </c>
-      <c r="I44">
-        <f t="shared" si="10"/>
-        <v>0.48593321440112491</v>
-      </c>
-      <c r="J44">
-        <f t="shared" si="11"/>
         <v>3.0129367472047548</v>
       </c>
     </row>
@@ -10692,19 +10715,19 @@
         <v>191.0204081632653</v>
       </c>
       <c r="G45">
+        <f>$B$9/$B$5</f>
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="H45">
+        <f>$B$9*COS(E45-$B$10)/(1-$B$5)</f>
+        <v>0.55877137620401141</v>
+      </c>
+      <c r="I45">
+        <f>$B$9*COS(2*E45-$B$11)/(4-$B$5)</f>
+        <v>-1.426014618541622</v>
+      </c>
+      <c r="J45">
         <f t="shared" si="8"/>
-        <v>2.7142857142857144</v>
-      </c>
-      <c r="H45">
-        <f t="shared" si="9"/>
-        <v>0.55877137620401141</v>
-      </c>
-      <c r="I45">
-        <f t="shared" si="10"/>
-        <v>-1.426014618541622</v>
-      </c>
-      <c r="J45">
-        <f t="shared" si="11"/>
         <v>1.8470424719481036</v>
       </c>
     </row>
@@ -10721,19 +10744,19 @@
         <v>205.71428571428572</v>
       </c>
       <c r="G46">
+        <f>$B$9/$B$5</f>
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="H46">
+        <f>$B$9*COS(E46-$B$10)/(1-$B$5)</f>
+        <v>1.268275545112862</v>
+      </c>
+      <c r="I46">
+        <f>$B$9*COS(2*E46-$B$11)/(4-$B$5)</f>
+        <v>-2.9709596333785129</v>
+      </c>
+      <c r="J46">
         <f t="shared" si="8"/>
-        <v>2.7142857142857144</v>
-      </c>
-      <c r="H46">
-        <f t="shared" si="9"/>
-        <v>1.268275545112862</v>
-      </c>
-      <c r="I46">
-        <f t="shared" si="10"/>
-        <v>-2.9709596333785129</v>
-      </c>
-      <c r="J46">
-        <f t="shared" si="11"/>
         <v>1.0116016260200635</v>
       </c>
     </row>
@@ -10750,19 +10773,19 @@
         <v>220.40816326530611</v>
       </c>
       <c r="G47">
+        <f>$B$9/$B$5</f>
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="H47">
+        <f>$B$9*COS(E47-$B$10)/(1-$B$5)</f>
+        <v>1.894821463207381</v>
+      </c>
+      <c r="I47">
+        <f>$B$9*COS(2*E47-$B$11)/(4-$B$5)</f>
+        <v>-3.7512907769749106</v>
+      </c>
+      <c r="J47">
         <f t="shared" si="8"/>
-        <v>2.7142857142857144</v>
-      </c>
-      <c r="H47">
-        <f t="shared" si="9"/>
-        <v>1.894821463207381</v>
-      </c>
-      <c r="I47">
-        <f t="shared" si="10"/>
-        <v>-3.7512907769749106</v>
-      </c>
-      <c r="J47">
-        <f t="shared" si="11"/>
         <v>0.85781640051818497</v>
       </c>
     </row>
@@ -10779,19 +10802,19 @@
         <v>235.10204081632651</v>
       </c>
       <c r="G48">
+        <f>$B$9/$B$5</f>
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="H48">
+        <f>$B$9*COS(E48-$B$10)/(1-$B$5)</f>
+        <v>2.397426590360332</v>
+      </c>
+      <c r="I48">
+        <f>$B$9*COS(2*E48-$B$11)/(4-$B$5)</f>
+        <v>-3.5661800037890905</v>
+      </c>
+      <c r="J48">
         <f t="shared" si="8"/>
-        <v>2.7142857142857144</v>
-      </c>
-      <c r="H48">
-        <f t="shared" si="9"/>
-        <v>2.397426590360332</v>
-      </c>
-      <c r="I48">
-        <f t="shared" si="10"/>
-        <v>-3.5661800037890905</v>
-      </c>
-      <c r="J48">
-        <f t="shared" si="11"/>
         <v>1.5455323008569555</v>
       </c>
     </row>
@@ -10808,19 +10831,19 @@
         <v>249.79591836734696</v>
       </c>
       <c r="G49">
+        <f>$B$9/$B$5</f>
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="H49">
+        <f>$B$9*COS(E49-$B$10)/(1-$B$5)</f>
+        <v>2.7432153875300691</v>
+      </c>
+      <c r="I49">
+        <f>$B$9*COS(2*E49-$B$11)/(4-$B$5)</f>
+        <v>-2.4632679021695938</v>
+      </c>
+      <c r="J49">
         <f t="shared" si="8"/>
-        <v>2.7142857142857144</v>
-      </c>
-      <c r="H49">
-        <f t="shared" si="9"/>
-        <v>2.7432153875300691</v>
-      </c>
-      <c r="I49">
-        <f t="shared" si="10"/>
-        <v>-2.4632679021695938</v>
-      </c>
-      <c r="J49">
-        <f t="shared" si="11"/>
         <v>2.9942331996461893</v>
       </c>
     </row>
@@ -10837,19 +10860,19 @@
         <v>264.48979591836735</v>
       </c>
       <c r="G50">
+        <f>$B$9/$B$5</f>
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="H50">
+        <f>$B$9*COS(E50-$B$10)/(1-$B$5)</f>
+        <v>2.9095697147745794</v>
+      </c>
+      <c r="I50">
+        <f>$B$9*COS(2*E50-$B$11)/(4-$B$5)</f>
+        <v>-0.72640278906521305</v>
+      </c>
+      <c r="J50">
         <f t="shared" si="8"/>
-        <v>2.7142857142857144</v>
-      </c>
-      <c r="H50">
-        <f t="shared" si="9"/>
-        <v>2.9095697147745794</v>
-      </c>
-      <c r="I50">
-        <f t="shared" si="10"/>
-        <v>-0.72640278906521305</v>
-      </c>
-      <c r="J50">
-        <f t="shared" si="11"/>
         <v>4.8974526399950804</v>
       </c>
     </row>
@@ -10866,19 +10889,19 @@
         <v>279.18367346938771</v>
       </c>
       <c r="G51">
+        <f>$B$9/$B$5</f>
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="H51">
+        <f>$B$9*COS(E51-$B$10)/(1-$B$5)</f>
+        <v>2.8856082899807012</v>
+      </c>
+      <c r="I51">
+        <f>$B$9*COS(2*E51-$B$11)/(4-$B$5)</f>
+        <v>1.1974112284897527</v>
+      </c>
+      <c r="J51">
         <f t="shared" si="8"/>
-        <v>2.7142857142857144</v>
-      </c>
-      <c r="H51">
-        <f t="shared" si="9"/>
-        <v>2.8856082899807012</v>
-      </c>
-      <c r="I51">
-        <f t="shared" si="10"/>
-        <v>1.1974112284897527</v>
-      </c>
-      <c r="J51">
-        <f t="shared" si="11"/>
         <v>6.7973052327561678</v>
       </c>
     </row>
@@ -10895,19 +10918,19 @@
         <v>293.87755102040819</v>
       </c>
       <c r="G52">
+        <f>$B$9/$B$5</f>
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="H52">
+        <f>$B$9*COS(E52-$B$10)/(1-$B$5)</f>
+        <v>2.6728984365077597</v>
+      </c>
+      <c r="I52">
+        <f>$B$9*COS(2*E52-$B$11)/(4-$B$5)</f>
+        <v>2.8130563888861988</v>
+      </c>
+      <c r="J52">
         <f t="shared" si="8"/>
-        <v>2.7142857142857144</v>
-      </c>
-      <c r="H52">
-        <f t="shared" si="9"/>
-        <v>2.6728984365077597</v>
-      </c>
-      <c r="I52">
-        <f t="shared" si="10"/>
-        <v>2.8130563888861988</v>
-      </c>
-      <c r="J52">
-        <f t="shared" si="11"/>
         <v>8.2002405396796725</v>
       </c>
     </row>
@@ -10924,19 +10947,19 @@
         <v>308.57142857142856</v>
       </c>
       <c r="G53">
+        <f>$B$9/$B$5</f>
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="H53">
+        <f>$B$9*COS(E53-$B$10)/(1-$B$5)</f>
+        <v>2.2853535641373179</v>
+      </c>
+      <c r="I53">
+        <f>$B$9*COS(2*E53-$B$11)/(4-$B$5)</f>
+        <v>3.7047260662909296</v>
+      </c>
+      <c r="J53">
         <f t="shared" si="8"/>
-        <v>2.7142857142857144</v>
-      </c>
-      <c r="H53">
-        <f t="shared" si="9"/>
-        <v>2.2853535641373179</v>
-      </c>
-      <c r="I53">
-        <f t="shared" si="10"/>
-        <v>3.7047260662909296</v>
-      </c>
-      <c r="J53">
-        <f t="shared" si="11"/>
         <v>8.7043653447139615</v>
       </c>
     </row>
@@ -10953,19 +10976,19 @@
         <v>323.26530612244892</v>
       </c>
       <c r="G54">
+        <f>$B$9/$B$5</f>
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="H54">
+        <f>$B$9*COS(E54-$B$10)/(1-$B$5)</f>
+        <v>1.7483230891281722</v>
+      </c>
+      <c r="I54">
+        <f>$B$9*COS(2*E54-$B$11)/(4-$B$5)</f>
+        <v>3.6429378415393132</v>
+      </c>
+      <c r="J54">
         <f t="shared" si="8"/>
-        <v>2.7142857142857144</v>
-      </c>
-      <c r="H54">
-        <f t="shared" si="9"/>
-        <v>1.7483230891281722</v>
-      </c>
-      <c r="I54">
-        <f t="shared" si="10"/>
-        <v>3.6429378415393132</v>
-      </c>
-      <c r="J54">
-        <f t="shared" si="11"/>
         <v>8.1055466449532005</v>
       </c>
     </row>
@@ -10982,19 +11005,19 @@
         <v>337.9591836734694</v>
       </c>
       <c r="G55">
+        <f>$B$9/$B$5</f>
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="H55">
+        <f>$B$9*COS(E55-$B$10)/(1-$B$5)</f>
+        <v>1.0969343219550949</v>
+      </c>
+      <c r="I55">
+        <f>$B$9*COS(2*E55-$B$11)/(4-$B$5)</f>
+        <v>2.6435936922932508</v>
+      </c>
+      <c r="J55">
         <f t="shared" si="8"/>
-        <v>2.7142857142857144</v>
-      </c>
-      <c r="H55">
-        <f t="shared" si="9"/>
-        <v>1.0969343219550949</v>
-      </c>
-      <c r="I55">
-        <f t="shared" si="10"/>
-        <v>2.6435936922932508</v>
-      </c>
-      <c r="J55">
-        <f t="shared" si="11"/>
         <v>6.4548137285340594</v>
       </c>
     </row>
@@ -11011,19 +11034,19 @@
         <v>352.65306122448976</v>
       </c>
       <c r="G56">
+        <f>$B$9/$B$5</f>
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="H56">
+        <f>$B$9*COS(E56-$B$10)/(1-$B$5)</f>
+        <v>0.37379478030855762</v>
+      </c>
+      <c r="I56">
+        <f>$B$9*COS(2*E56-$B$11)/(4-$B$5)</f>
+        <v>0.96388741885613238</v>
+      </c>
+      <c r="J56">
         <f t="shared" si="8"/>
-        <v>2.7142857142857144</v>
-      </c>
-      <c r="H56">
-        <f t="shared" si="9"/>
-        <v>0.37379478030855762</v>
-      </c>
-      <c r="I56">
-        <f t="shared" si="10"/>
-        <v>0.96388741885613238</v>
-      </c>
-      <c r="J56">
-        <f t="shared" si="11"/>
         <v>4.0519679134504045</v>
       </c>
     </row>
@@ -11075,15 +11098,15 @@
         <v>14.693877551020407</v>
       </c>
       <c r="G59">
-        <f>$B$9/$B$6</f>
+        <f>$B$9/$B$5</f>
         <v>2.7142857142857144</v>
       </c>
       <c r="H59">
-        <f>$B$9*COS(E59-$B$10)/(1-$B$6)</f>
+        <f>$B$9*COS(E59-$B$10)/(1-$B$5)</f>
         <v>-0.74145186065855972</v>
       </c>
       <c r="I59">
-        <f>$B$9*COS(2*E59-$B$11)/(4-$B$6)</f>
+        <f>$B$9*COS(2*E59-$B$11)/(4-$B$5)</f>
         <v>-1.8647266976149641</v>
       </c>
       <c r="J59">
@@ -11102,27 +11125,27 @@
         <v>2</v>
       </c>
       <c r="E60">
-        <f t="shared" ref="E60:E82" si="12">D60*2*PI()/(24.5)</f>
+        <f t="shared" ref="E60:E82" si="9">D60*2*PI()/(24.5)</f>
         <v>0.51291308630037435</v>
       </c>
       <c r="F60" s="1">
-        <f t="shared" ref="F60:F82" si="13">E60*(180/PI())</f>
+        <f t="shared" ref="F60:F82" si="10">E60*(180/PI())</f>
         <v>29.387755102040813</v>
       </c>
       <c r="G60">
-        <f t="shared" ref="G60:G82" si="14">$B$9/$B$6</f>
+        <f>$B$9/$B$5</f>
         <v>2.7142857142857144</v>
       </c>
       <c r="H60">
-        <f t="shared" ref="H60:H82" si="15">$B$9*COS(E60-$B$10)/(1-$B$6)</f>
+        <f>$B$9*COS(E60-$B$10)/(1-$B$5)</f>
         <v>-1.4344051520115109</v>
       </c>
       <c r="I60">
-        <f t="shared" ref="I60:I82" si="16">$B$9*COS(2*E60-$B$11)/(4-$B$6)</f>
+        <f>$B$9*COS(2*E60-$B$11)/(4-$B$5)</f>
         <v>-3.2495424994203157</v>
       </c>
       <c r="J60">
-        <f t="shared" ref="J60:J82" si="17">SUM(G60:I60)</f>
+        <f t="shared" ref="J60:J82" si="11">SUM(G60:I60)</f>
         <v>-1.9696619371461122</v>
       </c>
     </row>
@@ -11138,27 +11161,27 @@
         <v>3</v>
       </c>
       <c r="E61">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0.76936962945056153</v>
       </c>
       <c r="F61" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>44.08163265306122</v>
       </c>
       <c r="G61">
-        <f t="shared" si="14"/>
+        <f>$B$9/$B$5</f>
         <v>2.7142857142857144</v>
       </c>
       <c r="H61">
-        <f t="shared" si="15"/>
+        <f>$B$9*COS(E61-$B$10)/(1-$B$5)</f>
         <v>-2.0335336094563448</v>
       </c>
       <c r="I61">
-        <f t="shared" si="16"/>
+        <f>$B$9*COS(2*E61-$B$11)/(4-$B$5)</f>
         <v>-3.7980476215626142</v>
       </c>
       <c r="J61">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>-3.1172955167332446</v>
       </c>
     </row>
@@ -11174,27 +11197,27 @@
         <v>4</v>
       </c>
       <c r="E62">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>1.0258261726007487</v>
       </c>
       <c r="F62" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>58.775510204081627</v>
       </c>
       <c r="G62">
-        <f t="shared" si="14"/>
+        <f>$B$9/$B$5</f>
         <v>2.7142857142857144</v>
       </c>
       <c r="H62">
-        <f t="shared" si="15"/>
+        <f>$B$9*COS(E62-$B$10)/(1-$B$5)</f>
         <v>-2.4996480764771656</v>
       </c>
       <c r="I62">
-        <f t="shared" si="16"/>
+        <f>$B$9*COS(2*E62-$B$11)/(4-$B$5)</f>
         <v>-3.3690773642174001</v>
       </c>
       <c r="J62">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>-3.1544397264088513</v>
       </c>
     </row>
@@ -11210,27 +11233,27 @@
         <v>5</v>
       </c>
       <c r="E63">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>1.282282715750936</v>
       </c>
       <c r="F63" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>73.469387755102048</v>
       </c>
       <c r="G63">
-        <f t="shared" si="14"/>
+        <f>$B$9/$B$5</f>
         <v>2.7142857142857144</v>
       </c>
       <c r="H63">
-        <f t="shared" si="15"/>
+        <f>$B$9*COS(E63-$B$10)/(1-$B$5)</f>
         <v>-2.8022598781071619</v>
       </c>
       <c r="I63">
-        <f t="shared" si="16"/>
+        <f>$B$9*COS(2*E63-$B$11)/(4-$B$5)</f>
         <v>-2.0730326246000845</v>
       </c>
       <c r="J63">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>-2.161006788421532</v>
       </c>
     </row>
@@ -11239,27 +11262,27 @@
         <v>6</v>
       </c>
       <c r="E64">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>1.5387392589011231</v>
       </c>
       <c r="F64" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>88.16326530612244</v>
       </c>
       <c r="G64">
-        <f t="shared" si="14"/>
+        <f>$B$9/$B$5</f>
         <v>2.7142857142857144</v>
       </c>
       <c r="H64">
-        <f t="shared" si="15"/>
+        <f>$B$9*COS(E64-$B$10)/(1-$B$5)</f>
         <v>-2.9215750935097029</v>
       </c>
       <c r="I64">
-        <f t="shared" si="16"/>
+        <f>$B$9*COS(2*E64-$B$11)/(4-$B$5)</f>
         <v>-0.24346683592671009</v>
       </c>
       <c r="J64">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>-0.45075621515069858</v>
       </c>
     </row>
@@ -11268,27 +11291,27 @@
         <v>7</v>
       </c>
       <c r="E65">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>1.7951958020513104</v>
       </c>
       <c r="F65" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>102.85714285714286</v>
       </c>
       <c r="G65">
-        <f t="shared" si="14"/>
+        <f>$B$9/$B$5</f>
         <v>2.7142857142857144</v>
       </c>
       <c r="H65">
-        <f t="shared" si="15"/>
+        <f>$B$9*COS(E65-$B$10)/(1-$B$5)</f>
         <v>-2.8497892817622534</v>
       </c>
       <c r="I65">
-        <f t="shared" si="16"/>
+        <f>$B$9*COS(2*E65-$B$11)/(4-$B$5)</f>
         <v>1.6487582086467207</v>
       </c>
       <c r="J65">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>1.5132546411701817</v>
       </c>
     </row>
@@ -11297,27 +11320,27 @@
         <v>8</v>
       </c>
       <c r="E66">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>2.0516523452014974</v>
       </c>
       <c r="F66" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>117.55102040816325</v>
       </c>
       <c r="G66">
-        <f t="shared" si="14"/>
+        <f>$B$9/$B$5</f>
         <v>2.7142857142857144</v>
       </c>
       <c r="H66">
-        <f t="shared" si="15"/>
+        <f>$B$9*COS(E66-$B$10)/(1-$B$5)</f>
         <v>-2.591597972474923</v>
       </c>
       <c r="I66">
-        <f t="shared" si="16"/>
+        <f>$B$9*COS(2*E66-$B$11)/(4-$B$5)</f>
         <v>3.1166545674684314</v>
       </c>
       <c r="J66">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>3.2393423092792228</v>
       </c>
     </row>
@@ -11326,27 +11349,27 @@
         <v>9</v>
       </c>
       <c r="E67">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>2.3081088883516849</v>
       </c>
       <c r="F67" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>132.24489795918367</v>
       </c>
       <c r="G67">
-        <f t="shared" si="14"/>
+        <f>$B$9/$B$5</f>
         <v>2.7142857142857144</v>
       </c>
       <c r="H67">
-        <f t="shared" si="15"/>
+        <f>$B$9*COS(E67-$B$10)/(1-$B$5)</f>
         <v>-2.1638895299124603</v>
       </c>
       <c r="I67">
-        <f t="shared" si="16"/>
+        <f>$B$9*COS(2*E67-$B$11)/(4-$B$5)</f>
         <v>3.7824406292069535</v>
       </c>
       <c r="J67">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>4.332836813580208</v>
       </c>
     </row>
@@ -11355,27 +11378,27 @@
         <v>10</v>
       </c>
       <c r="E68">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>2.564565431501872</v>
       </c>
       <c r="F68" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>146.9387755102041</v>
       </c>
       <c r="G68">
-        <f t="shared" si="14"/>
+        <f>$B$9/$B$5</f>
         <v>2.7142857142857144</v>
       </c>
       <c r="H68">
-        <f t="shared" si="15"/>
+        <f>$B$9*COS(E68-$B$10)/(1-$B$5)</f>
         <v>-1.5946404804616034</v>
       </c>
       <c r="I68">
-        <f t="shared" si="16"/>
+        <f>$B$9*COS(2*E68-$B$11)/(4-$B$5)</f>
         <v>3.4747679674600875</v>
       </c>
       <c r="J68">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>4.5944132012841985</v>
       </c>
     </row>
@@ -11384,27 +11407,27 @@
         <v>11</v>
       </c>
       <c r="E69">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>2.8210219746520586</v>
       </c>
       <c r="F69" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>161.63265306122446</v>
       </c>
       <c r="G69">
-        <f t="shared" si="14"/>
+        <f>$B$9/$B$5</f>
         <v>2.7142857142857144</v>
       </c>
       <c r="H69">
-        <f t="shared" si="15"/>
+        <f>$B$9*COS(E69-$B$10)/(1-$B$5)</f>
         <v>-0.92108556037673894</v>
       </c>
       <c r="I69">
-        <f t="shared" si="16"/>
+        <f>$B$9*COS(2*E69-$B$11)/(4-$B$5)</f>
         <v>2.2728200158666239</v>
       </c>
       <c r="J69">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>4.0660201697755998</v>
       </c>
     </row>
@@ -11413,27 +11436,27 @@
         <v>12</v>
       </c>
       <c r="E70">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>3.0774785178022461</v>
       </c>
       <c r="F70" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>176.32653061224488</v>
       </c>
       <c r="G70">
-        <f t="shared" si="14"/>
+        <f>$B$9/$B$5</f>
         <v>2.7142857142857144</v>
       </c>
       <c r="H70">
-        <f t="shared" si="15"/>
+        <f>$B$9*COS(E70-$B$10)/(1-$B$5)</f>
         <v>-0.18728218148208467</v>
       </c>
       <c r="I70">
-        <f t="shared" si="16"/>
+        <f>$B$9*COS(2*E70-$B$11)/(4-$B$5)</f>
         <v>0.48593321440112491</v>
       </c>
       <c r="J70">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>3.0129367472047548</v>
       </c>
     </row>
@@ -11442,27 +11465,27 @@
         <v>13</v>
       </c>
       <c r="E71">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>3.3339350609524336</v>
       </c>
       <c r="F71" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>191.0204081632653</v>
       </c>
       <c r="G71">
-        <f t="shared" si="14"/>
+        <f>$B$9/$B$5</f>
         <v>2.7142857142857144</v>
       </c>
       <c r="H71">
-        <f t="shared" si="15"/>
+        <f>$B$9*COS(E71-$B$10)/(1-$B$5)</f>
         <v>0.55877137620401141</v>
       </c>
       <c r="I71">
-        <f t="shared" si="16"/>
+        <f>$B$9*COS(2*E71-$B$11)/(4-$B$5)</f>
         <v>-1.426014618541622</v>
       </c>
       <c r="J71">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>1.8470424719481036</v>
       </c>
     </row>
@@ -11471,27 +11494,27 @@
         <v>14</v>
       </c>
       <c r="E72">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>3.5903916041026207</v>
       </c>
       <c r="F72" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>205.71428571428572</v>
       </c>
       <c r="G72">
-        <f t="shared" si="14"/>
+        <f>$B$9/$B$5</f>
         <v>2.7142857142857144</v>
       </c>
       <c r="H72">
-        <f t="shared" si="15"/>
+        <f>$B$9*COS(E72-$B$10)/(1-$B$5)</f>
         <v>1.268275545112862</v>
       </c>
       <c r="I72">
-        <f t="shared" si="16"/>
+        <f>$B$9*COS(2*E72-$B$11)/(4-$B$5)</f>
         <v>-2.9709596333785129</v>
       </c>
       <c r="J72">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>1.0116016260200635</v>
       </c>
     </row>
@@ -11500,27 +11523,27 @@
         <v>15</v>
       </c>
       <c r="E73">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>3.8468481472528078</v>
       </c>
       <c r="F73" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>220.40816326530611</v>
       </c>
       <c r="G73">
-        <f t="shared" si="14"/>
+        <f>$B$9/$B$5</f>
         <v>2.7142857142857144</v>
       </c>
       <c r="H73">
-        <f t="shared" si="15"/>
+        <f>$B$9*COS(E73-$B$10)/(1-$B$5)</f>
         <v>1.894821463207381</v>
       </c>
       <c r="I73">
-        <f t="shared" si="16"/>
+        <f>$B$9*COS(2*E73-$B$11)/(4-$B$5)</f>
         <v>-3.7512907769749106</v>
       </c>
       <c r="J73">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>0.85781640051818497</v>
       </c>
     </row>
@@ -11529,27 +11552,27 @@
         <v>16</v>
       </c>
       <c r="E74">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>4.1033046904029948</v>
       </c>
       <c r="F74" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>235.10204081632651</v>
       </c>
       <c r="G74">
-        <f t="shared" si="14"/>
+        <f>$B$9/$B$5</f>
         <v>2.7142857142857144</v>
       </c>
       <c r="H74">
-        <f t="shared" si="15"/>
+        <f>$B$9*COS(E74-$B$10)/(1-$B$5)</f>
         <v>2.397426590360332</v>
       </c>
       <c r="I74">
-        <f t="shared" si="16"/>
+        <f>$B$9*COS(2*E74-$B$11)/(4-$B$5)</f>
         <v>-3.5661800037890905</v>
       </c>
       <c r="J74">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>1.5455323008569555</v>
       </c>
     </row>
@@ -11558,27 +11581,27 @@
         <v>17</v>
       </c>
       <c r="E75">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>4.3597612335531828</v>
       </c>
       <c r="F75" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>249.79591836734696</v>
       </c>
       <c r="G75">
-        <f t="shared" si="14"/>
+        <f>$B$9/$B$5</f>
         <v>2.7142857142857144</v>
       </c>
       <c r="H75">
-        <f t="shared" si="15"/>
+        <f>$B$9*COS(E75-$B$10)/(1-$B$5)</f>
         <v>2.7432153875300691</v>
       </c>
       <c r="I75">
-        <f t="shared" si="16"/>
+        <f>$B$9*COS(2*E75-$B$11)/(4-$B$5)</f>
         <v>-2.4632679021695938</v>
       </c>
       <c r="J75">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>2.9942331996461893</v>
       </c>
     </row>
@@ -11587,27 +11610,27 @@
         <v>18</v>
       </c>
       <c r="E76">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>4.6162177767033699</v>
       </c>
       <c r="F76" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>264.48979591836735</v>
       </c>
       <c r="G76">
-        <f t="shared" si="14"/>
+        <f>$B$9/$B$5</f>
         <v>2.7142857142857144</v>
       </c>
       <c r="H76">
-        <f t="shared" si="15"/>
+        <f>$B$9*COS(E76-$B$10)/(1-$B$5)</f>
         <v>2.9095697147745794</v>
       </c>
       <c r="I76">
-        <f t="shared" si="16"/>
+        <f>$B$9*COS(2*E76-$B$11)/(4-$B$5)</f>
         <v>-0.72640278906521305</v>
       </c>
       <c r="J76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>4.8974526399950804</v>
       </c>
     </row>
@@ -11616,27 +11639,27 @@
         <v>19</v>
       </c>
       <c r="E77">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>4.872674319853556</v>
       </c>
       <c r="F77" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>279.18367346938771</v>
       </c>
       <c r="G77">
-        <f t="shared" si="14"/>
+        <f>$B$9/$B$5</f>
         <v>2.7142857142857144</v>
       </c>
       <c r="H77">
-        <f t="shared" si="15"/>
+        <f>$B$9*COS(E77-$B$10)/(1-$B$5)</f>
         <v>2.8856082899807012</v>
       </c>
       <c r="I77">
-        <f t="shared" si="16"/>
+        <f>$B$9*COS(2*E77-$B$11)/(4-$B$5)</f>
         <v>1.1974112284897527</v>
       </c>
       <c r="J77">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>6.7973052327561678</v>
       </c>
     </row>
@@ -11645,27 +11668,27 @@
         <v>20</v>
       </c>
       <c r="E78">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>5.129130863003744</v>
       </c>
       <c r="F78" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>293.87755102040819</v>
       </c>
       <c r="G78">
-        <f t="shared" si="14"/>
+        <f>$B$9/$B$5</f>
         <v>2.7142857142857144</v>
       </c>
       <c r="H78">
-        <f t="shared" si="15"/>
+        <f>$B$9*COS(E78-$B$10)/(1-$B$5)</f>
         <v>2.6728984365077597</v>
       </c>
       <c r="I78">
-        <f t="shared" si="16"/>
+        <f>$B$9*COS(2*E78-$B$11)/(4-$B$5)</f>
         <v>2.8130563888861988</v>
       </c>
       <c r="J78">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>8.2002405396796725</v>
       </c>
     </row>
@@ -11674,27 +11697,27 @@
         <v>21</v>
       </c>
       <c r="E79">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>5.3855874061539311</v>
       </c>
       <c r="F79" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>308.57142857142856</v>
       </c>
       <c r="G79">
-        <f t="shared" si="14"/>
+        <f>$B$9/$B$5</f>
         <v>2.7142857142857144</v>
       </c>
       <c r="H79">
-        <f t="shared" si="15"/>
+        <f>$B$9*COS(E79-$B$10)/(1-$B$5)</f>
         <v>2.2853535641373179</v>
       </c>
       <c r="I79">
-        <f t="shared" si="16"/>
+        <f>$B$9*COS(2*E79-$B$11)/(4-$B$5)</f>
         <v>3.7047260662909296</v>
       </c>
       <c r="J79">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>8.7043653447139615</v>
       </c>
     </row>
@@ -11703,27 +11726,27 @@
         <v>22</v>
       </c>
       <c r="E80">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>5.6420439493041172</v>
       </c>
       <c r="F80" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>323.26530612244892</v>
       </c>
       <c r="G80">
-        <f t="shared" si="14"/>
+        <f>$B$9/$B$5</f>
         <v>2.7142857142857144</v>
       </c>
       <c r="H80">
-        <f t="shared" si="15"/>
+        <f>$B$9*COS(E80-$B$10)/(1-$B$5)</f>
         <v>1.7483230891281722</v>
       </c>
       <c r="I80">
-        <f t="shared" si="16"/>
+        <f>$B$9*COS(2*E80-$B$11)/(4-$B$5)</f>
         <v>3.6429378415393132</v>
       </c>
       <c r="J80">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>8.1055466449532005</v>
       </c>
     </row>
@@ -11732,27 +11755,27 @@
         <v>23</v>
       </c>
       <c r="E81">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>5.8985004924543052</v>
       </c>
       <c r="F81" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>337.9591836734694</v>
       </c>
       <c r="G81">
-        <f t="shared" si="14"/>
+        <f>$B$9/$B$5</f>
         <v>2.7142857142857144</v>
       </c>
       <c r="H81">
-        <f t="shared" si="15"/>
+        <f>$B$9*COS(E81-$B$10)/(1-$B$5)</f>
         <v>1.0969343219550949</v>
       </c>
       <c r="I81">
-        <f t="shared" si="16"/>
+        <f>$B$9*COS(2*E81-$B$11)/(4-$B$5)</f>
         <v>2.6435936922932508</v>
       </c>
       <c r="J81">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>6.4548137285340594</v>
       </c>
     </row>
@@ -11761,27 +11784,27 @@
         <v>24</v>
       </c>
       <c r="E82">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>6.1549570356044923</v>
       </c>
       <c r="F82" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>352.65306122448976</v>
       </c>
       <c r="G82">
-        <f t="shared" si="14"/>
+        <f>$B$9/$B$5</f>
         <v>2.7142857142857144</v>
       </c>
       <c r="H82">
-        <f t="shared" si="15"/>
+        <f>$B$9*COS(E82-$B$10)/(1-$B$5)</f>
         <v>0.37379478030855762</v>
       </c>
       <c r="I82">
-        <f t="shared" si="16"/>
+        <f>$B$9*COS(2*E82-$B$11)/(4-$B$5)</f>
         <v>0.96388741885613238</v>
       </c>
       <c r="J82">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>4.0519679134504045</v>
       </c>
     </row>
@@ -11833,15 +11856,15 @@
         <v>14.693877551020407</v>
       </c>
       <c r="G85">
-        <f>$B$9/$B$6</f>
+        <f>$B$9/$B$5</f>
         <v>2.7142857142857144</v>
       </c>
       <c r="H85">
-        <f>$B$9*COS(E85-$B$10)/(1-$B$6)</f>
+        <f>$B$9*COS(E85-$B$10)/(1-$B$5)</f>
         <v>-0.74145186065855972</v>
       </c>
       <c r="I85">
-        <f>$B$9*COS(2*E85-$B$11)/(4-$B$6)</f>
+        <f>$B$9*COS(2*E85-$B$11)/(4-$B$5)</f>
         <v>-1.8647266976149641</v>
       </c>
       <c r="J85">
@@ -11860,27 +11883,27 @@
         <v>2</v>
       </c>
       <c r="E86">
-        <f t="shared" ref="E86:E108" si="18">D86*2*PI()/(24.5)</f>
+        <f t="shared" ref="E86:E108" si="12">D86*2*PI()/(24.5)</f>
         <v>0.51291308630037435</v>
       </c>
       <c r="F86" s="1">
-        <f t="shared" ref="F86:F108" si="19">E86*(180/PI())</f>
+        <f t="shared" ref="F86:F108" si="13">E86*(180/PI())</f>
         <v>29.387755102040813</v>
       </c>
       <c r="G86">
-        <f t="shared" ref="G86:G108" si="20">$B$9/$B$6</f>
+        <f>$B$9/$B$5</f>
         <v>2.7142857142857144</v>
       </c>
       <c r="H86">
-        <f t="shared" ref="H86:H108" si="21">$B$9*COS(E86-$B$10)/(1-$B$6)</f>
+        <f>$B$9*COS(E86-$B$10)/(1-$B$5)</f>
         <v>-1.4344051520115109</v>
       </c>
       <c r="I86">
-        <f t="shared" ref="I86:I108" si="22">$B$9*COS(2*E86-$B$11)/(4-$B$6)</f>
+        <f>$B$9*COS(2*E86-$B$11)/(4-$B$5)</f>
         <v>-3.2495424994203157</v>
       </c>
       <c r="J86">
-        <f t="shared" ref="J86:J108" si="23">SUM(G86:I86)</f>
+        <f t="shared" ref="J86:J108" si="14">SUM(G86:I86)</f>
         <v>-1.9696619371461122</v>
       </c>
     </row>
@@ -11896,27 +11919,27 @@
         <v>3</v>
       </c>
       <c r="E87">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>0.76936962945056153</v>
       </c>
       <c r="F87" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>44.08163265306122</v>
       </c>
       <c r="G87">
-        <f t="shared" si="20"/>
+        <f>$B$9/$B$5</f>
         <v>2.7142857142857144</v>
       </c>
       <c r="H87">
-        <f t="shared" si="21"/>
+        <f>$B$9*COS(E87-$B$10)/(1-$B$5)</f>
         <v>-2.0335336094563448</v>
       </c>
       <c r="I87">
-        <f t="shared" si="22"/>
+        <f>$B$9*COS(2*E87-$B$11)/(4-$B$5)</f>
         <v>-3.7980476215626142</v>
       </c>
       <c r="J87">
-        <f t="shared" si="23"/>
+        <f t="shared" si="14"/>
         <v>-3.1172955167332446</v>
       </c>
     </row>
@@ -11932,27 +11955,27 @@
         <v>4</v>
       </c>
       <c r="E88">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>1.0258261726007487</v>
       </c>
       <c r="F88" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>58.775510204081627</v>
       </c>
       <c r="G88">
-        <f t="shared" si="20"/>
+        <f>$B$9/$B$5</f>
         <v>2.7142857142857144</v>
       </c>
       <c r="H88">
-        <f t="shared" si="21"/>
+        <f>$B$9*COS(E88-$B$10)/(1-$B$5)</f>
         <v>-2.4996480764771656</v>
       </c>
       <c r="I88">
-        <f t="shared" si="22"/>
+        <f>$B$9*COS(2*E88-$B$11)/(4-$B$5)</f>
         <v>-3.3690773642174001</v>
       </c>
       <c r="J88">
-        <f t="shared" si="23"/>
+        <f t="shared" si="14"/>
         <v>-3.1544397264088513</v>
       </c>
     </row>
@@ -11968,27 +11991,27 @@
         <v>5</v>
       </c>
       <c r="E89">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>1.282282715750936</v>
       </c>
       <c r="F89" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>73.469387755102048</v>
       </c>
       <c r="G89">
-        <f t="shared" si="20"/>
+        <f>$B$9/$B$5</f>
         <v>2.7142857142857144</v>
       </c>
       <c r="H89">
-        <f t="shared" si="21"/>
+        <f>$B$9*COS(E89-$B$10)/(1-$B$5)</f>
         <v>-2.8022598781071619</v>
       </c>
       <c r="I89">
-        <f t="shared" si="22"/>
+        <f>$B$9*COS(2*E89-$B$11)/(4-$B$5)</f>
         <v>-2.0730326246000845</v>
       </c>
       <c r="J89">
-        <f t="shared" si="23"/>
+        <f t="shared" si="14"/>
         <v>-2.161006788421532</v>
       </c>
     </row>
@@ -11997,27 +12020,27 @@
         <v>6</v>
       </c>
       <c r="E90">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>1.5387392589011231</v>
       </c>
       <c r="F90" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>88.16326530612244</v>
       </c>
       <c r="G90">
-        <f t="shared" si="20"/>
+        <f>$B$9/$B$5</f>
         <v>2.7142857142857144</v>
       </c>
       <c r="H90">
-        <f t="shared" si="21"/>
+        <f>$B$9*COS(E90-$B$10)/(1-$B$5)</f>
         <v>-2.9215750935097029</v>
       </c>
       <c r="I90">
-        <f t="shared" si="22"/>
+        <f>$B$9*COS(2*E90-$B$11)/(4-$B$5)</f>
         <v>-0.24346683592671009</v>
       </c>
       <c r="J90">
-        <f t="shared" si="23"/>
+        <f t="shared" si="14"/>
         <v>-0.45075621515069858</v>
       </c>
     </row>
@@ -12026,27 +12049,27 @@
         <v>7</v>
       </c>
       <c r="E91">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>1.7951958020513104</v>
       </c>
       <c r="F91" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>102.85714285714286</v>
       </c>
       <c r="G91">
-        <f t="shared" si="20"/>
+        <f>$B$9/$B$5</f>
         <v>2.7142857142857144</v>
       </c>
       <c r="H91">
-        <f t="shared" si="21"/>
+        <f>$B$9*COS(E91-$B$10)/(1-$B$5)</f>
         <v>-2.8497892817622534</v>
       </c>
       <c r="I91">
-        <f t="shared" si="22"/>
+        <f>$B$9*COS(2*E91-$B$11)/(4-$B$5)</f>
         <v>1.6487582086467207</v>
       </c>
       <c r="J91">
-        <f t="shared" si="23"/>
+        <f t="shared" si="14"/>
         <v>1.5132546411701817</v>
       </c>
     </row>
@@ -12055,27 +12078,27 @@
         <v>8</v>
       </c>
       <c r="E92">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>2.0516523452014974</v>
       </c>
       <c r="F92" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>117.55102040816325</v>
       </c>
       <c r="G92">
-        <f t="shared" si="20"/>
+        <f>$B$9/$B$5</f>
         <v>2.7142857142857144</v>
       </c>
       <c r="H92">
-        <f t="shared" si="21"/>
+        <f>$B$9*COS(E92-$B$10)/(1-$B$5)</f>
         <v>-2.591597972474923</v>
       </c>
       <c r="I92">
-        <f t="shared" si="22"/>
+        <f>$B$9*COS(2*E92-$B$11)/(4-$B$5)</f>
         <v>3.1166545674684314</v>
       </c>
       <c r="J92">
-        <f t="shared" si="23"/>
+        <f t="shared" si="14"/>
         <v>3.2393423092792228</v>
       </c>
     </row>
@@ -12084,27 +12107,27 @@
         <v>9</v>
       </c>
       <c r="E93">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>2.3081088883516849</v>
       </c>
       <c r="F93" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>132.24489795918367</v>
       </c>
       <c r="G93">
-        <f t="shared" si="20"/>
+        <f>$B$9/$B$5</f>
         <v>2.7142857142857144</v>
       </c>
       <c r="H93">
-        <f t="shared" si="21"/>
+        <f>$B$9*COS(E93-$B$10)/(1-$B$5)</f>
         <v>-2.1638895299124603</v>
       </c>
       <c r="I93">
-        <f t="shared" si="22"/>
+        <f>$B$9*COS(2*E93-$B$11)/(4-$B$5)</f>
         <v>3.7824406292069535</v>
       </c>
       <c r="J93">
-        <f t="shared" si="23"/>
+        <f t="shared" si="14"/>
         <v>4.332836813580208</v>
       </c>
     </row>
@@ -12113,27 +12136,27 @@
         <v>10</v>
       </c>
       <c r="E94">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>2.564565431501872</v>
       </c>
       <c r="F94" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>146.9387755102041</v>
       </c>
       <c r="G94">
-        <f t="shared" si="20"/>
+        <f>$B$9/$B$5</f>
         <v>2.7142857142857144</v>
       </c>
       <c r="H94">
-        <f t="shared" si="21"/>
+        <f>$B$9*COS(E94-$B$10)/(1-$B$5)</f>
         <v>-1.5946404804616034</v>
       </c>
       <c r="I94">
-        <f t="shared" si="22"/>
+        <f>$B$9*COS(2*E94-$B$11)/(4-$B$5)</f>
         <v>3.4747679674600875</v>
       </c>
       <c r="J94">
-        <f t="shared" si="23"/>
+        <f t="shared" si="14"/>
         <v>4.5944132012841985</v>
       </c>
     </row>
@@ -12142,27 +12165,27 @@
         <v>11</v>
       </c>
       <c r="E95">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>2.8210219746520586</v>
       </c>
       <c r="F95" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>161.63265306122446</v>
       </c>
       <c r="G95">
-        <f t="shared" si="20"/>
+        <f>$B$9/$B$5</f>
         <v>2.7142857142857144</v>
       </c>
       <c r="H95">
-        <f t="shared" si="21"/>
+        <f>$B$9*COS(E95-$B$10)/(1-$B$5)</f>
         <v>-0.92108556037673894</v>
       </c>
       <c r="I95">
-        <f t="shared" si="22"/>
+        <f>$B$9*COS(2*E95-$B$11)/(4-$B$5)</f>
         <v>2.2728200158666239</v>
       </c>
       <c r="J95">
-        <f t="shared" si="23"/>
+        <f t="shared" si="14"/>
         <v>4.0660201697755998</v>
       </c>
     </row>
@@ -12171,27 +12194,27 @@
         <v>12</v>
       </c>
       <c r="E96">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>3.0774785178022461</v>
       </c>
       <c r="F96" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>176.32653061224488</v>
       </c>
       <c r="G96">
-        <f t="shared" si="20"/>
+        <f>$B$9/$B$5</f>
         <v>2.7142857142857144</v>
       </c>
       <c r="H96">
-        <f t="shared" si="21"/>
+        <f>$B$9*COS(E96-$B$10)/(1-$B$5)</f>
         <v>-0.18728218148208467</v>
       </c>
       <c r="I96">
-        <f t="shared" si="22"/>
+        <f>$B$9*COS(2*E96-$B$11)/(4-$B$5)</f>
         <v>0.48593321440112491</v>
       </c>
       <c r="J96">
-        <f t="shared" si="23"/>
+        <f t="shared" si="14"/>
         <v>3.0129367472047548</v>
       </c>
     </row>
@@ -12200,27 +12223,27 @@
         <v>13</v>
       </c>
       <c r="E97">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>3.3339350609524336</v>
       </c>
       <c r="F97" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>191.0204081632653</v>
       </c>
       <c r="G97">
-        <f t="shared" si="20"/>
+        <f>$B$9/$B$5</f>
         <v>2.7142857142857144</v>
       </c>
       <c r="H97">
-        <f t="shared" si="21"/>
+        <f>$B$9*COS(E97-$B$10)/(1-$B$5)</f>
         <v>0.55877137620401141</v>
       </c>
       <c r="I97">
-        <f t="shared" si="22"/>
+        <f>$B$9*COS(2*E97-$B$11)/(4-$B$5)</f>
         <v>-1.426014618541622</v>
       </c>
       <c r="J97">
-        <f t="shared" si="23"/>
+        <f t="shared" si="14"/>
         <v>1.8470424719481036</v>
       </c>
     </row>
@@ -12229,27 +12252,27 @@
         <v>14</v>
       </c>
       <c r="E98">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>3.5903916041026207</v>
       </c>
       <c r="F98" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>205.71428571428572</v>
       </c>
       <c r="G98">
-        <f t="shared" si="20"/>
+        <f>$B$9/$B$5</f>
         <v>2.7142857142857144</v>
       </c>
       <c r="H98">
-        <f t="shared" si="21"/>
+        <f>$B$9*COS(E98-$B$10)/(1-$B$5)</f>
         <v>1.268275545112862</v>
       </c>
       <c r="I98">
-        <f t="shared" si="22"/>
+        <f>$B$9*COS(2*E98-$B$11)/(4-$B$5)</f>
         <v>-2.9709596333785129</v>
       </c>
       <c r="J98">
-        <f t="shared" si="23"/>
+        <f t="shared" si="14"/>
         <v>1.0116016260200635</v>
       </c>
     </row>
@@ -12258,27 +12281,27 @@
         <v>15</v>
       </c>
       <c r="E99">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>3.8468481472528078</v>
       </c>
       <c r="F99" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>220.40816326530611</v>
       </c>
       <c r="G99">
-        <f t="shared" si="20"/>
+        <f>$B$9/$B$5</f>
         <v>2.7142857142857144</v>
       </c>
       <c r="H99">
-        <f t="shared" si="21"/>
+        <f>$B$9*COS(E99-$B$10)/(1-$B$5)</f>
         <v>1.894821463207381</v>
       </c>
       <c r="I99">
-        <f t="shared" si="22"/>
+        <f>$B$9*COS(2*E99-$B$11)/(4-$B$5)</f>
         <v>-3.7512907769749106</v>
       </c>
       <c r="J99">
-        <f t="shared" si="23"/>
+        <f t="shared" si="14"/>
         <v>0.85781640051818497</v>
       </c>
     </row>
@@ -12287,27 +12310,27 @@
         <v>16</v>
       </c>
       <c r="E100">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>4.1033046904029948</v>
       </c>
       <c r="F100" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>235.10204081632651</v>
       </c>
       <c r="G100">
-        <f t="shared" si="20"/>
+        <f>$B$9/$B$5</f>
         <v>2.7142857142857144</v>
       </c>
       <c r="H100">
-        <f t="shared" si="21"/>
+        <f>$B$9*COS(E100-$B$10)/(1-$B$5)</f>
         <v>2.397426590360332</v>
       </c>
       <c r="I100">
-        <f t="shared" si="22"/>
+        <f>$B$9*COS(2*E100-$B$11)/(4-$B$5)</f>
         <v>-3.5661800037890905</v>
       </c>
       <c r="J100">
-        <f t="shared" si="23"/>
+        <f t="shared" si="14"/>
         <v>1.5455323008569555</v>
       </c>
     </row>
@@ -12316,27 +12339,27 @@
         <v>17</v>
       </c>
       <c r="E101">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>4.3597612335531828</v>
       </c>
       <c r="F101" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>249.79591836734696</v>
       </c>
       <c r="G101">
-        <f t="shared" si="20"/>
+        <f>$B$9/$B$5</f>
         <v>2.7142857142857144</v>
       </c>
       <c r="H101">
-        <f t="shared" si="21"/>
+        <f>$B$9*COS(E101-$B$10)/(1-$B$5)</f>
         <v>2.7432153875300691</v>
       </c>
       <c r="I101">
-        <f t="shared" si="22"/>
+        <f>$B$9*COS(2*E101-$B$11)/(4-$B$5)</f>
         <v>-2.4632679021695938</v>
       </c>
       <c r="J101">
-        <f t="shared" si="23"/>
+        <f t="shared" si="14"/>
         <v>2.9942331996461893</v>
       </c>
     </row>
@@ -12345,27 +12368,27 @@
         <v>18</v>
       </c>
       <c r="E102">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>4.6162177767033699</v>
       </c>
       <c r="F102" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>264.48979591836735</v>
       </c>
       <c r="G102">
-        <f t="shared" si="20"/>
+        <f>$B$9/$B$5</f>
         <v>2.7142857142857144</v>
       </c>
       <c r="H102">
-        <f t="shared" si="21"/>
+        <f>$B$9*COS(E102-$B$10)/(1-$B$5)</f>
         <v>2.9095697147745794</v>
       </c>
       <c r="I102">
-        <f t="shared" si="22"/>
+        <f>$B$9*COS(2*E102-$B$11)/(4-$B$5)</f>
         <v>-0.72640278906521305</v>
       </c>
       <c r="J102">
-        <f t="shared" si="23"/>
+        <f t="shared" si="14"/>
         <v>4.8974526399950804</v>
       </c>
     </row>
@@ -12374,27 +12397,27 @@
         <v>19</v>
       </c>
       <c r="E103">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>4.872674319853556</v>
       </c>
       <c r="F103" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>279.18367346938771</v>
       </c>
       <c r="G103">
-        <f t="shared" si="20"/>
+        <f>$B$9/$B$5</f>
         <v>2.7142857142857144</v>
       </c>
       <c r="H103">
-        <f t="shared" si="21"/>
+        <f>$B$9*COS(E103-$B$10)/(1-$B$5)</f>
         <v>2.8856082899807012</v>
       </c>
       <c r="I103">
-        <f t="shared" si="22"/>
+        <f>$B$9*COS(2*E103-$B$11)/(4-$B$5)</f>
         <v>1.1974112284897527</v>
       </c>
       <c r="J103">
-        <f t="shared" si="23"/>
+        <f t="shared" si="14"/>
         <v>6.7973052327561678</v>
       </c>
     </row>
@@ -12403,27 +12426,27 @@
         <v>20</v>
       </c>
       <c r="E104">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>5.129130863003744</v>
       </c>
       <c r="F104" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>293.87755102040819</v>
       </c>
       <c r="G104">
-        <f t="shared" si="20"/>
+        <f>$B$9/$B$5</f>
         <v>2.7142857142857144</v>
       </c>
       <c r="H104">
-        <f t="shared" si="21"/>
+        <f>$B$9*COS(E104-$B$10)/(1-$B$5)</f>
         <v>2.6728984365077597</v>
       </c>
       <c r="I104">
-        <f t="shared" si="22"/>
+        <f>$B$9*COS(2*E104-$B$11)/(4-$B$5)</f>
         <v>2.8130563888861988</v>
       </c>
       <c r="J104">
-        <f t="shared" si="23"/>
+        <f t="shared" si="14"/>
         <v>8.2002405396796725</v>
       </c>
     </row>
@@ -12432,27 +12455,27 @@
         <v>21</v>
       </c>
       <c r="E105">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>5.3855874061539311</v>
       </c>
       <c r="F105" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>308.57142857142856</v>
       </c>
       <c r="G105">
-        <f t="shared" si="20"/>
+        <f>$B$9/$B$5</f>
         <v>2.7142857142857144</v>
       </c>
       <c r="H105">
-        <f t="shared" si="21"/>
+        <f>$B$9*COS(E105-$B$10)/(1-$B$5)</f>
         <v>2.2853535641373179</v>
       </c>
       <c r="I105">
-        <f t="shared" si="22"/>
+        <f>$B$9*COS(2*E105-$B$11)/(4-$B$5)</f>
         <v>3.7047260662909296</v>
       </c>
       <c r="J105">
-        <f t="shared" si="23"/>
+        <f t="shared" si="14"/>
         <v>8.7043653447139615</v>
       </c>
     </row>
@@ -12461,27 +12484,27 @@
         <v>22</v>
       </c>
       <c r="E106">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>5.6420439493041172</v>
       </c>
       <c r="F106" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>323.26530612244892</v>
       </c>
       <c r="G106">
-        <f t="shared" si="20"/>
+        <f>$B$9/$B$5</f>
         <v>2.7142857142857144</v>
       </c>
       <c r="H106">
-        <f t="shared" si="21"/>
+        <f>$B$9*COS(E106-$B$10)/(1-$B$5)</f>
         <v>1.7483230891281722</v>
       </c>
       <c r="I106">
-        <f t="shared" si="22"/>
+        <f>$B$9*COS(2*E106-$B$11)/(4-$B$5)</f>
         <v>3.6429378415393132</v>
       </c>
       <c r="J106">
-        <f t="shared" si="23"/>
+        <f t="shared" si="14"/>
         <v>8.1055466449532005</v>
       </c>
     </row>
@@ -12490,27 +12513,27 @@
         <v>23</v>
       </c>
       <c r="E107">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>5.8985004924543052</v>
       </c>
       <c r="F107" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>337.9591836734694</v>
       </c>
       <c r="G107">
-        <f t="shared" si="20"/>
+        <f>$B$9/$B$5</f>
         <v>2.7142857142857144</v>
       </c>
       <c r="H107">
-        <f t="shared" si="21"/>
+        <f>$B$9*COS(E107-$B$10)/(1-$B$5)</f>
         <v>1.0969343219550949</v>
       </c>
       <c r="I107">
-        <f t="shared" si="22"/>
+        <f>$B$9*COS(2*E107-$B$11)/(4-$B$5)</f>
         <v>2.6435936922932508</v>
       </c>
       <c r="J107">
-        <f t="shared" si="23"/>
+        <f t="shared" si="14"/>
         <v>6.4548137285340594</v>
       </c>
     </row>
@@ -12519,27 +12542,27 @@
         <v>24</v>
       </c>
       <c r="E108">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>6.1549570356044923</v>
       </c>
       <c r="F108" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>352.65306122448976</v>
       </c>
       <c r="G108">
-        <f t="shared" si="20"/>
+        <f>$B$9/$B$5</f>
         <v>2.7142857142857144</v>
       </c>
       <c r="H108">
-        <f t="shared" si="21"/>
+        <f>$B$9*COS(E108-$B$10)/(1-$B$5)</f>
         <v>0.37379478030855762</v>
       </c>
       <c r="I108">
-        <f t="shared" si="22"/>
+        <f>$B$9*COS(2*E108-$B$11)/(4-$B$5)</f>
         <v>0.96388741885613238</v>
       </c>
       <c r="J108">
-        <f t="shared" si="23"/>
+        <f t="shared" si="14"/>
         <v>4.0519679134504045</v>
       </c>
     </row>

--- a/ToyQuadScan.xlsx
+++ b/ToyQuadScan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samuelgrant/Documents/gm2/EDM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A92D52-2780-4C49-B291-6214CF99F0FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65AA715C-8302-FF46-9E3F-1AE3800A1721}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="3" xr2:uid="{1274A7F7-32CE-AC49-AA55-A5E18D405CEC}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{1274A7F7-32CE-AC49-AA55-A5E18D405CEC}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="4" r:id="rId1"/>
@@ -8494,7 +8494,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{E898D1E5-7BE5-304D-82E4-34C404304AD1}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="136" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8978,8 +8978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C671A7EB-6A5B-7D4D-8E6B-5C021871A75D}">
   <dimension ref="B1:K14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K14" sqref="B1:K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10340,15 +10340,15 @@
         <v>14.693877551020407</v>
       </c>
       <c r="G33">
-        <f>$B$9/$B$5</f>
+        <f t="shared" ref="G33:G56" si="6">$B$9/$B$5</f>
         <v>2.7142857142857144</v>
       </c>
       <c r="H33">
-        <f>$B$9*COS(E33-$B$10)/(1-$B$5)</f>
+        <f t="shared" ref="H33:H56" si="7">$B$9*COS(E33-$B$10)/(1-$B$5)</f>
         <v>-0.74145186065855972</v>
       </c>
       <c r="I33">
-        <f>$B$9*COS(2*E33-$B$11)/(4-$B$5)</f>
+        <f t="shared" ref="I33:I56" si="8">$B$9*COS(2*E33-$B$11)/(4-$B$5)</f>
         <v>-1.8647266976149641</v>
       </c>
       <c r="J33">
@@ -10367,27 +10367,27 @@
         <v>2</v>
       </c>
       <c r="E34">
-        <f t="shared" ref="E34:E56" si="6">D34*2*PI()/(24.5)</f>
+        <f t="shared" ref="E34:E56" si="9">D34*2*PI()/(24.5)</f>
         <v>0.51291308630037435</v>
       </c>
       <c r="F34" s="1">
-        <f t="shared" ref="F34:F56" si="7">E34*(180/PI())</f>
+        <f t="shared" ref="F34:F56" si="10">E34*(180/PI())</f>
         <v>29.387755102040813</v>
       </c>
       <c r="G34">
-        <f>$B$9/$B$5</f>
+        <f t="shared" si="6"/>
         <v>2.7142857142857144</v>
       </c>
       <c r="H34">
-        <f>$B$9*COS(E34-$B$10)/(1-$B$5)</f>
+        <f t="shared" si="7"/>
         <v>-1.4344051520115109</v>
       </c>
       <c r="I34">
-        <f>$B$9*COS(2*E34-$B$11)/(4-$B$5)</f>
+        <f t="shared" si="8"/>
         <v>-3.2495424994203157</v>
       </c>
       <c r="J34">
-        <f t="shared" ref="J34:J56" si="8">SUM(G34:I34)</f>
+        <f t="shared" ref="J34:J56" si="11">SUM(G34:I34)</f>
         <v>-1.9696619371461122</v>
       </c>
     </row>
@@ -10403,27 +10403,27 @@
         <v>3</v>
       </c>
       <c r="E35">
+        <f t="shared" si="9"/>
+        <v>0.76936962945056153</v>
+      </c>
+      <c r="F35" s="1">
+        <f t="shared" si="10"/>
+        <v>44.08163265306122</v>
+      </c>
+      <c r="G35">
         <f t="shared" si="6"/>
-        <v>0.76936962945056153</v>
-      </c>
-      <c r="F35" s="1">
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="H35">
         <f t="shared" si="7"/>
-        <v>44.08163265306122</v>
-      </c>
-      <c r="G35">
-        <f>$B$9/$B$5</f>
-        <v>2.7142857142857144</v>
-      </c>
-      <c r="H35">
-        <f>$B$9*COS(E35-$B$10)/(1-$B$5)</f>
         <v>-2.0335336094563448</v>
       </c>
       <c r="I35">
-        <f>$B$9*COS(2*E35-$B$11)/(4-$B$5)</f>
+        <f t="shared" si="8"/>
         <v>-3.7980476215626142</v>
       </c>
       <c r="J35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>-3.1172955167332446</v>
       </c>
     </row>
@@ -10439,27 +10439,27 @@
         <v>4</v>
       </c>
       <c r="E36">
+        <f t="shared" si="9"/>
+        <v>1.0258261726007487</v>
+      </c>
+      <c r="F36" s="1">
+        <f t="shared" si="10"/>
+        <v>58.775510204081627</v>
+      </c>
+      <c r="G36">
         <f t="shared" si="6"/>
-        <v>1.0258261726007487</v>
-      </c>
-      <c r="F36" s="1">
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="H36">
         <f t="shared" si="7"/>
-        <v>58.775510204081627</v>
-      </c>
-      <c r="G36">
-        <f>$B$9/$B$5</f>
-        <v>2.7142857142857144</v>
-      </c>
-      <c r="H36">
-        <f>$B$9*COS(E36-$B$10)/(1-$B$5)</f>
         <v>-2.4996480764771656</v>
       </c>
       <c r="I36">
-        <f>$B$9*COS(2*E36-$B$11)/(4-$B$5)</f>
+        <f t="shared" si="8"/>
         <v>-3.3690773642174001</v>
       </c>
       <c r="J36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>-3.1544397264088513</v>
       </c>
     </row>
@@ -10475,27 +10475,27 @@
         <v>5</v>
       </c>
       <c r="E37">
+        <f t="shared" si="9"/>
+        <v>1.282282715750936</v>
+      </c>
+      <c r="F37" s="1">
+        <f t="shared" si="10"/>
+        <v>73.469387755102048</v>
+      </c>
+      <c r="G37">
         <f t="shared" si="6"/>
-        <v>1.282282715750936</v>
-      </c>
-      <c r="F37" s="1">
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="H37">
         <f t="shared" si="7"/>
-        <v>73.469387755102048</v>
-      </c>
-      <c r="G37">
-        <f>$B$9/$B$5</f>
-        <v>2.7142857142857144</v>
-      </c>
-      <c r="H37">
-        <f>$B$9*COS(E37-$B$10)/(1-$B$5)</f>
         <v>-2.8022598781071619</v>
       </c>
       <c r="I37">
-        <f>$B$9*COS(2*E37-$B$11)/(4-$B$5)</f>
+        <f t="shared" si="8"/>
         <v>-2.0730326246000845</v>
       </c>
       <c r="J37">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>-2.161006788421532</v>
       </c>
     </row>
@@ -10504,27 +10504,27 @@
         <v>6</v>
       </c>
       <c r="E38">
+        <f t="shared" si="9"/>
+        <v>1.5387392589011231</v>
+      </c>
+      <c r="F38" s="1">
+        <f t="shared" si="10"/>
+        <v>88.16326530612244</v>
+      </c>
+      <c r="G38">
         <f t="shared" si="6"/>
-        <v>1.5387392589011231</v>
-      </c>
-      <c r="F38" s="1">
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="H38">
         <f t="shared" si="7"/>
-        <v>88.16326530612244</v>
-      </c>
-      <c r="G38">
-        <f>$B$9/$B$5</f>
-        <v>2.7142857142857144</v>
-      </c>
-      <c r="H38">
-        <f>$B$9*COS(E38-$B$10)/(1-$B$5)</f>
         <v>-2.9215750935097029</v>
       </c>
       <c r="I38">
-        <f>$B$9*COS(2*E38-$B$11)/(4-$B$5)</f>
+        <f t="shared" si="8"/>
         <v>-0.24346683592671009</v>
       </c>
       <c r="J38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>-0.45075621515069858</v>
       </c>
     </row>
@@ -10533,27 +10533,27 @@
         <v>7</v>
       </c>
       <c r="E39">
+        <f t="shared" si="9"/>
+        <v>1.7951958020513104</v>
+      </c>
+      <c r="F39" s="1">
+        <f t="shared" si="10"/>
+        <v>102.85714285714286</v>
+      </c>
+      <c r="G39">
         <f t="shared" si="6"/>
-        <v>1.7951958020513104</v>
-      </c>
-      <c r="F39" s="1">
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="H39">
         <f t="shared" si="7"/>
-        <v>102.85714285714286</v>
-      </c>
-      <c r="G39">
-        <f>$B$9/$B$5</f>
-        <v>2.7142857142857144</v>
-      </c>
-      <c r="H39">
-        <f>$B$9*COS(E39-$B$10)/(1-$B$5)</f>
         <v>-2.8497892817622534</v>
       </c>
       <c r="I39">
-        <f>$B$9*COS(2*E39-$B$11)/(4-$B$5)</f>
+        <f t="shared" si="8"/>
         <v>1.6487582086467207</v>
       </c>
       <c r="J39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.5132546411701817</v>
       </c>
     </row>
@@ -10562,27 +10562,27 @@
         <v>8</v>
       </c>
       <c r="E40">
+        <f t="shared" si="9"/>
+        <v>2.0516523452014974</v>
+      </c>
+      <c r="F40" s="1">
+        <f t="shared" si="10"/>
+        <v>117.55102040816325</v>
+      </c>
+      <c r="G40">
         <f t="shared" si="6"/>
-        <v>2.0516523452014974</v>
-      </c>
-      <c r="F40" s="1">
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="H40">
         <f t="shared" si="7"/>
-        <v>117.55102040816325</v>
-      </c>
-      <c r="G40">
-        <f>$B$9/$B$5</f>
-        <v>2.7142857142857144</v>
-      </c>
-      <c r="H40">
-        <f>$B$9*COS(E40-$B$10)/(1-$B$5)</f>
         <v>-2.591597972474923</v>
       </c>
       <c r="I40">
-        <f>$B$9*COS(2*E40-$B$11)/(4-$B$5)</f>
+        <f t="shared" si="8"/>
         <v>3.1166545674684314</v>
       </c>
       <c r="J40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>3.2393423092792228</v>
       </c>
     </row>
@@ -10591,27 +10591,27 @@
         <v>9</v>
       </c>
       <c r="E41">
+        <f t="shared" si="9"/>
+        <v>2.3081088883516849</v>
+      </c>
+      <c r="F41" s="1">
+        <f t="shared" si="10"/>
+        <v>132.24489795918367</v>
+      </c>
+      <c r="G41">
         <f t="shared" si="6"/>
-        <v>2.3081088883516849</v>
-      </c>
-      <c r="F41" s="1">
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="H41">
         <f t="shared" si="7"/>
-        <v>132.24489795918367</v>
-      </c>
-      <c r="G41">
-        <f>$B$9/$B$5</f>
-        <v>2.7142857142857144</v>
-      </c>
-      <c r="H41">
-        <f>$B$9*COS(E41-$B$10)/(1-$B$5)</f>
         <v>-2.1638895299124603</v>
       </c>
       <c r="I41">
-        <f>$B$9*COS(2*E41-$B$11)/(4-$B$5)</f>
+        <f t="shared" si="8"/>
         <v>3.7824406292069535</v>
       </c>
       <c r="J41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>4.332836813580208</v>
       </c>
     </row>
@@ -10620,27 +10620,27 @@
         <v>10</v>
       </c>
       <c r="E42">
+        <f t="shared" si="9"/>
+        <v>2.564565431501872</v>
+      </c>
+      <c r="F42" s="1">
+        <f t="shared" si="10"/>
+        <v>146.9387755102041</v>
+      </c>
+      <c r="G42">
         <f t="shared" si="6"/>
-        <v>2.564565431501872</v>
-      </c>
-      <c r="F42" s="1">
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="H42">
         <f t="shared" si="7"/>
-        <v>146.9387755102041</v>
-      </c>
-      <c r="G42">
-        <f>$B$9/$B$5</f>
-        <v>2.7142857142857144</v>
-      </c>
-      <c r="H42">
-        <f>$B$9*COS(E42-$B$10)/(1-$B$5)</f>
         <v>-1.5946404804616034</v>
       </c>
       <c r="I42">
-        <f>$B$9*COS(2*E42-$B$11)/(4-$B$5)</f>
+        <f t="shared" si="8"/>
         <v>3.4747679674600875</v>
       </c>
       <c r="J42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>4.5944132012841985</v>
       </c>
     </row>
@@ -10649,27 +10649,27 @@
         <v>11</v>
       </c>
       <c r="E43">
+        <f t="shared" si="9"/>
+        <v>2.8210219746520586</v>
+      </c>
+      <c r="F43" s="1">
+        <f t="shared" si="10"/>
+        <v>161.63265306122446</v>
+      </c>
+      <c r="G43">
         <f t="shared" si="6"/>
-        <v>2.8210219746520586</v>
-      </c>
-      <c r="F43" s="1">
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="H43">
         <f t="shared" si="7"/>
-        <v>161.63265306122446</v>
-      </c>
-      <c r="G43">
-        <f>$B$9/$B$5</f>
-        <v>2.7142857142857144</v>
-      </c>
-      <c r="H43">
-        <f>$B$9*COS(E43-$B$10)/(1-$B$5)</f>
         <v>-0.92108556037673894</v>
       </c>
       <c r="I43">
-        <f>$B$9*COS(2*E43-$B$11)/(4-$B$5)</f>
+        <f t="shared" si="8"/>
         <v>2.2728200158666239</v>
       </c>
       <c r="J43">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>4.0660201697755998</v>
       </c>
     </row>
@@ -10678,27 +10678,27 @@
         <v>12</v>
       </c>
       <c r="E44">
+        <f t="shared" si="9"/>
+        <v>3.0774785178022461</v>
+      </c>
+      <c r="F44" s="1">
+        <f t="shared" si="10"/>
+        <v>176.32653061224488</v>
+      </c>
+      <c r="G44">
         <f t="shared" si="6"/>
-        <v>3.0774785178022461</v>
-      </c>
-      <c r="F44" s="1">
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="H44">
         <f t="shared" si="7"/>
-        <v>176.32653061224488</v>
-      </c>
-      <c r="G44">
-        <f>$B$9/$B$5</f>
-        <v>2.7142857142857144</v>
-      </c>
-      <c r="H44">
-        <f>$B$9*COS(E44-$B$10)/(1-$B$5)</f>
         <v>-0.18728218148208467</v>
       </c>
       <c r="I44">
-        <f>$B$9*COS(2*E44-$B$11)/(4-$B$5)</f>
+        <f t="shared" si="8"/>
         <v>0.48593321440112491</v>
       </c>
       <c r="J44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>3.0129367472047548</v>
       </c>
     </row>
@@ -10707,27 +10707,27 @@
         <v>13</v>
       </c>
       <c r="E45">
+        <f t="shared" si="9"/>
+        <v>3.3339350609524336</v>
+      </c>
+      <c r="F45" s="1">
+        <f t="shared" si="10"/>
+        <v>191.0204081632653</v>
+      </c>
+      <c r="G45">
         <f t="shared" si="6"/>
-        <v>3.3339350609524336</v>
-      </c>
-      <c r="F45" s="1">
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="H45">
         <f t="shared" si="7"/>
-        <v>191.0204081632653</v>
-      </c>
-      <c r="G45">
-        <f>$B$9/$B$5</f>
-        <v>2.7142857142857144</v>
-      </c>
-      <c r="H45">
-        <f>$B$9*COS(E45-$B$10)/(1-$B$5)</f>
         <v>0.55877137620401141</v>
       </c>
       <c r="I45">
-        <f>$B$9*COS(2*E45-$B$11)/(4-$B$5)</f>
+        <f t="shared" si="8"/>
         <v>-1.426014618541622</v>
       </c>
       <c r="J45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.8470424719481036</v>
       </c>
     </row>
@@ -10736,27 +10736,27 @@
         <v>14</v>
       </c>
       <c r="E46">
+        <f t="shared" si="9"/>
+        <v>3.5903916041026207</v>
+      </c>
+      <c r="F46" s="1">
+        <f t="shared" si="10"/>
+        <v>205.71428571428572</v>
+      </c>
+      <c r="G46">
         <f t="shared" si="6"/>
-        <v>3.5903916041026207</v>
-      </c>
-      <c r="F46" s="1">
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="H46">
         <f t="shared" si="7"/>
-        <v>205.71428571428572</v>
-      </c>
-      <c r="G46">
-        <f>$B$9/$B$5</f>
-        <v>2.7142857142857144</v>
-      </c>
-      <c r="H46">
-        <f>$B$9*COS(E46-$B$10)/(1-$B$5)</f>
         <v>1.268275545112862</v>
       </c>
       <c r="I46">
-        <f>$B$9*COS(2*E46-$B$11)/(4-$B$5)</f>
+        <f t="shared" si="8"/>
         <v>-2.9709596333785129</v>
       </c>
       <c r="J46">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.0116016260200635</v>
       </c>
     </row>
@@ -10765,27 +10765,27 @@
         <v>15</v>
       </c>
       <c r="E47">
+        <f t="shared" si="9"/>
+        <v>3.8468481472528078</v>
+      </c>
+      <c r="F47" s="1">
+        <f t="shared" si="10"/>
+        <v>220.40816326530611</v>
+      </c>
+      <c r="G47">
         <f t="shared" si="6"/>
-        <v>3.8468481472528078</v>
-      </c>
-      <c r="F47" s="1">
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="H47">
         <f t="shared" si="7"/>
-        <v>220.40816326530611</v>
-      </c>
-      <c r="G47">
-        <f>$B$9/$B$5</f>
-        <v>2.7142857142857144</v>
-      </c>
-      <c r="H47">
-        <f>$B$9*COS(E47-$B$10)/(1-$B$5)</f>
         <v>1.894821463207381</v>
       </c>
       <c r="I47">
-        <f>$B$9*COS(2*E47-$B$11)/(4-$B$5)</f>
+        <f t="shared" si="8"/>
         <v>-3.7512907769749106</v>
       </c>
       <c r="J47">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.85781640051818497</v>
       </c>
     </row>
@@ -10794,27 +10794,27 @@
         <v>16</v>
       </c>
       <c r="E48">
+        <f t="shared" si="9"/>
+        <v>4.1033046904029948</v>
+      </c>
+      <c r="F48" s="1">
+        <f t="shared" si="10"/>
+        <v>235.10204081632651</v>
+      </c>
+      <c r="G48">
         <f t="shared" si="6"/>
-        <v>4.1033046904029948</v>
-      </c>
-      <c r="F48" s="1">
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="H48">
         <f t="shared" si="7"/>
-        <v>235.10204081632651</v>
-      </c>
-      <c r="G48">
-        <f>$B$9/$B$5</f>
-        <v>2.7142857142857144</v>
-      </c>
-      <c r="H48">
-        <f>$B$9*COS(E48-$B$10)/(1-$B$5)</f>
         <v>2.397426590360332</v>
       </c>
       <c r="I48">
-        <f>$B$9*COS(2*E48-$B$11)/(4-$B$5)</f>
+        <f t="shared" si="8"/>
         <v>-3.5661800037890905</v>
       </c>
       <c r="J48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.5455323008569555</v>
       </c>
     </row>
@@ -10823,27 +10823,27 @@
         <v>17</v>
       </c>
       <c r="E49">
+        <f t="shared" si="9"/>
+        <v>4.3597612335531828</v>
+      </c>
+      <c r="F49" s="1">
+        <f t="shared" si="10"/>
+        <v>249.79591836734696</v>
+      </c>
+      <c r="G49">
         <f t="shared" si="6"/>
-        <v>4.3597612335531828</v>
-      </c>
-      <c r="F49" s="1">
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="H49">
         <f t="shared" si="7"/>
-        <v>249.79591836734696</v>
-      </c>
-      <c r="G49">
-        <f>$B$9/$B$5</f>
-        <v>2.7142857142857144</v>
-      </c>
-      <c r="H49">
-        <f>$B$9*COS(E49-$B$10)/(1-$B$5)</f>
         <v>2.7432153875300691</v>
       </c>
       <c r="I49">
-        <f>$B$9*COS(2*E49-$B$11)/(4-$B$5)</f>
+        <f t="shared" si="8"/>
         <v>-2.4632679021695938</v>
       </c>
       <c r="J49">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2.9942331996461893</v>
       </c>
     </row>
@@ -10852,27 +10852,27 @@
         <v>18</v>
       </c>
       <c r="E50">
+        <f t="shared" si="9"/>
+        <v>4.6162177767033699</v>
+      </c>
+      <c r="F50" s="1">
+        <f t="shared" si="10"/>
+        <v>264.48979591836735</v>
+      </c>
+      <c r="G50">
         <f t="shared" si="6"/>
-        <v>4.6162177767033699</v>
-      </c>
-      <c r="F50" s="1">
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="H50">
         <f t="shared" si="7"/>
-        <v>264.48979591836735</v>
-      </c>
-      <c r="G50">
-        <f>$B$9/$B$5</f>
-        <v>2.7142857142857144</v>
-      </c>
-      <c r="H50">
-        <f>$B$9*COS(E50-$B$10)/(1-$B$5)</f>
         <v>2.9095697147745794</v>
       </c>
       <c r="I50">
-        <f>$B$9*COS(2*E50-$B$11)/(4-$B$5)</f>
+        <f t="shared" si="8"/>
         <v>-0.72640278906521305</v>
       </c>
       <c r="J50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>4.8974526399950804</v>
       </c>
     </row>
@@ -10881,27 +10881,27 @@
         <v>19</v>
       </c>
       <c r="E51">
+        <f t="shared" si="9"/>
+        <v>4.872674319853556</v>
+      </c>
+      <c r="F51" s="1">
+        <f t="shared" si="10"/>
+        <v>279.18367346938771</v>
+      </c>
+      <c r="G51">
         <f t="shared" si="6"/>
-        <v>4.872674319853556</v>
-      </c>
-      <c r="F51" s="1">
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="H51">
         <f t="shared" si="7"/>
-        <v>279.18367346938771</v>
-      </c>
-      <c r="G51">
-        <f>$B$9/$B$5</f>
-        <v>2.7142857142857144</v>
-      </c>
-      <c r="H51">
-        <f>$B$9*COS(E51-$B$10)/(1-$B$5)</f>
         <v>2.8856082899807012</v>
       </c>
       <c r="I51">
-        <f>$B$9*COS(2*E51-$B$11)/(4-$B$5)</f>
+        <f t="shared" si="8"/>
         <v>1.1974112284897527</v>
       </c>
       <c r="J51">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>6.7973052327561678</v>
       </c>
     </row>
@@ -10910,27 +10910,27 @@
         <v>20</v>
       </c>
       <c r="E52">
+        <f t="shared" si="9"/>
+        <v>5.129130863003744</v>
+      </c>
+      <c r="F52" s="1">
+        <f t="shared" si="10"/>
+        <v>293.87755102040819</v>
+      </c>
+      <c r="G52">
         <f t="shared" si="6"/>
-        <v>5.129130863003744</v>
-      </c>
-      <c r="F52" s="1">
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="H52">
         <f t="shared" si="7"/>
-        <v>293.87755102040819</v>
-      </c>
-      <c r="G52">
-        <f>$B$9/$B$5</f>
-        <v>2.7142857142857144</v>
-      </c>
-      <c r="H52">
-        <f>$B$9*COS(E52-$B$10)/(1-$B$5)</f>
         <v>2.6728984365077597</v>
       </c>
       <c r="I52">
-        <f>$B$9*COS(2*E52-$B$11)/(4-$B$5)</f>
+        <f t="shared" si="8"/>
         <v>2.8130563888861988</v>
       </c>
       <c r="J52">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>8.2002405396796725</v>
       </c>
     </row>
@@ -10939,27 +10939,27 @@
         <v>21</v>
       </c>
       <c r="E53">
+        <f t="shared" si="9"/>
+        <v>5.3855874061539311</v>
+      </c>
+      <c r="F53" s="1">
+        <f t="shared" si="10"/>
+        <v>308.57142857142856</v>
+      </c>
+      <c r="G53">
         <f t="shared" si="6"/>
-        <v>5.3855874061539311</v>
-      </c>
-      <c r="F53" s="1">
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="H53">
         <f t="shared" si="7"/>
-        <v>308.57142857142856</v>
-      </c>
-      <c r="G53">
-        <f>$B$9/$B$5</f>
-        <v>2.7142857142857144</v>
-      </c>
-      <c r="H53">
-        <f>$B$9*COS(E53-$B$10)/(1-$B$5)</f>
         <v>2.2853535641373179</v>
       </c>
       <c r="I53">
-        <f>$B$9*COS(2*E53-$B$11)/(4-$B$5)</f>
+        <f t="shared" si="8"/>
         <v>3.7047260662909296</v>
       </c>
       <c r="J53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>8.7043653447139615</v>
       </c>
     </row>
@@ -10968,27 +10968,27 @@
         <v>22</v>
       </c>
       <c r="E54">
+        <f t="shared" si="9"/>
+        <v>5.6420439493041172</v>
+      </c>
+      <c r="F54" s="1">
+        <f t="shared" si="10"/>
+        <v>323.26530612244892</v>
+      </c>
+      <c r="G54">
         <f t="shared" si="6"/>
-        <v>5.6420439493041172</v>
-      </c>
-      <c r="F54" s="1">
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="H54">
         <f t="shared" si="7"/>
-        <v>323.26530612244892</v>
-      </c>
-      <c r="G54">
-        <f>$B$9/$B$5</f>
-        <v>2.7142857142857144</v>
-      </c>
-      <c r="H54">
-        <f>$B$9*COS(E54-$B$10)/(1-$B$5)</f>
         <v>1.7483230891281722</v>
       </c>
       <c r="I54">
-        <f>$B$9*COS(2*E54-$B$11)/(4-$B$5)</f>
+        <f t="shared" si="8"/>
         <v>3.6429378415393132</v>
       </c>
       <c r="J54">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>8.1055466449532005</v>
       </c>
     </row>
@@ -10997,27 +10997,27 @@
         <v>23</v>
       </c>
       <c r="E55">
+        <f t="shared" si="9"/>
+        <v>5.8985004924543052</v>
+      </c>
+      <c r="F55" s="1">
+        <f t="shared" si="10"/>
+        <v>337.9591836734694</v>
+      </c>
+      <c r="G55">
         <f t="shared" si="6"/>
-        <v>5.8985004924543052</v>
-      </c>
-      <c r="F55" s="1">
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="H55">
         <f t="shared" si="7"/>
-        <v>337.9591836734694</v>
-      </c>
-      <c r="G55">
-        <f>$B$9/$B$5</f>
-        <v>2.7142857142857144</v>
-      </c>
-      <c r="H55">
-        <f>$B$9*COS(E55-$B$10)/(1-$B$5)</f>
         <v>1.0969343219550949</v>
       </c>
       <c r="I55">
-        <f>$B$9*COS(2*E55-$B$11)/(4-$B$5)</f>
+        <f t="shared" si="8"/>
         <v>2.6435936922932508</v>
       </c>
       <c r="J55">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>6.4548137285340594</v>
       </c>
     </row>
@@ -11026,27 +11026,27 @@
         <v>24</v>
       </c>
       <c r="E56">
+        <f t="shared" si="9"/>
+        <v>6.1549570356044923</v>
+      </c>
+      <c r="F56" s="1">
+        <f t="shared" si="10"/>
+        <v>352.65306122448976</v>
+      </c>
+      <c r="G56">
         <f t="shared" si="6"/>
-        <v>6.1549570356044923</v>
-      </c>
-      <c r="F56" s="1">
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="H56">
         <f t="shared" si="7"/>
-        <v>352.65306122448976</v>
-      </c>
-      <c r="G56">
-        <f>$B$9/$B$5</f>
-        <v>2.7142857142857144</v>
-      </c>
-      <c r="H56">
-        <f>$B$9*COS(E56-$B$10)/(1-$B$5)</f>
         <v>0.37379478030855762</v>
       </c>
       <c r="I56">
-        <f>$B$9*COS(2*E56-$B$11)/(4-$B$5)</f>
+        <f t="shared" si="8"/>
         <v>0.96388741885613238</v>
       </c>
       <c r="J56">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>4.0519679134504045</v>
       </c>
     </row>
@@ -11098,15 +11098,15 @@
         <v>14.693877551020407</v>
       </c>
       <c r="G59">
-        <f>$B$9/$B$5</f>
+        <f t="shared" ref="G59:G82" si="12">$B$9/$B$5</f>
         <v>2.7142857142857144</v>
       </c>
       <c r="H59">
-        <f>$B$9*COS(E59-$B$10)/(1-$B$5)</f>
+        <f t="shared" ref="H59:H82" si="13">$B$9*COS(E59-$B$10)/(1-$B$5)</f>
         <v>-0.74145186065855972</v>
       </c>
       <c r="I59">
-        <f>$B$9*COS(2*E59-$B$11)/(4-$B$5)</f>
+        <f t="shared" ref="I59:I82" si="14">$B$9*COS(2*E59-$B$11)/(4-$B$5)</f>
         <v>-1.8647266976149641</v>
       </c>
       <c r="J59">
@@ -11125,27 +11125,27 @@
         <v>2</v>
       </c>
       <c r="E60">
-        <f t="shared" ref="E60:E82" si="9">D60*2*PI()/(24.5)</f>
+        <f t="shared" ref="E60:E82" si="15">D60*2*PI()/(24.5)</f>
         <v>0.51291308630037435</v>
       </c>
       <c r="F60" s="1">
-        <f t="shared" ref="F60:F82" si="10">E60*(180/PI())</f>
+        <f t="shared" ref="F60:F82" si="16">E60*(180/PI())</f>
         <v>29.387755102040813</v>
       </c>
       <c r="G60">
-        <f>$B$9/$B$5</f>
+        <f t="shared" si="12"/>
         <v>2.7142857142857144</v>
       </c>
       <c r="H60">
-        <f>$B$9*COS(E60-$B$10)/(1-$B$5)</f>
+        <f t="shared" si="13"/>
         <v>-1.4344051520115109</v>
       </c>
       <c r="I60">
-        <f>$B$9*COS(2*E60-$B$11)/(4-$B$5)</f>
+        <f t="shared" si="14"/>
         <v>-3.2495424994203157</v>
       </c>
       <c r="J60">
-        <f t="shared" ref="J60:J82" si="11">SUM(G60:I60)</f>
+        <f t="shared" ref="J60:J82" si="17">SUM(G60:I60)</f>
         <v>-1.9696619371461122</v>
       </c>
     </row>
@@ -11161,27 +11161,27 @@
         <v>3</v>
       </c>
       <c r="E61">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.76936962945056153</v>
       </c>
       <c r="F61" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>44.08163265306122</v>
       </c>
       <c r="G61">
-        <f>$B$9/$B$5</f>
+        <f t="shared" si="12"/>
         <v>2.7142857142857144</v>
       </c>
       <c r="H61">
-        <f>$B$9*COS(E61-$B$10)/(1-$B$5)</f>
+        <f t="shared" si="13"/>
         <v>-2.0335336094563448</v>
       </c>
       <c r="I61">
-        <f>$B$9*COS(2*E61-$B$11)/(4-$B$5)</f>
+        <f t="shared" si="14"/>
         <v>-3.7980476215626142</v>
       </c>
       <c r="J61">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>-3.1172955167332446</v>
       </c>
     </row>
@@ -11197,27 +11197,27 @@
         <v>4</v>
       </c>
       <c r="E62">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>1.0258261726007487</v>
       </c>
       <c r="F62" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>58.775510204081627</v>
       </c>
       <c r="G62">
-        <f>$B$9/$B$5</f>
+        <f t="shared" si="12"/>
         <v>2.7142857142857144</v>
       </c>
       <c r="H62">
-        <f>$B$9*COS(E62-$B$10)/(1-$B$5)</f>
+        <f t="shared" si="13"/>
         <v>-2.4996480764771656</v>
       </c>
       <c r="I62">
-        <f>$B$9*COS(2*E62-$B$11)/(4-$B$5)</f>
+        <f t="shared" si="14"/>
         <v>-3.3690773642174001</v>
       </c>
       <c r="J62">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>-3.1544397264088513</v>
       </c>
     </row>
@@ -11233,27 +11233,27 @@
         <v>5</v>
       </c>
       <c r="E63">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>1.282282715750936</v>
       </c>
       <c r="F63" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>73.469387755102048</v>
       </c>
       <c r="G63">
-        <f>$B$9/$B$5</f>
+        <f t="shared" si="12"/>
         <v>2.7142857142857144</v>
       </c>
       <c r="H63">
-        <f>$B$9*COS(E63-$B$10)/(1-$B$5)</f>
+        <f t="shared" si="13"/>
         <v>-2.8022598781071619</v>
       </c>
       <c r="I63">
-        <f>$B$9*COS(2*E63-$B$11)/(4-$B$5)</f>
+        <f t="shared" si="14"/>
         <v>-2.0730326246000845</v>
       </c>
       <c r="J63">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>-2.161006788421532</v>
       </c>
     </row>
@@ -11262,27 +11262,27 @@
         <v>6</v>
       </c>
       <c r="E64">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>1.5387392589011231</v>
       </c>
       <c r="F64" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>88.16326530612244</v>
       </c>
       <c r="G64">
-        <f>$B$9/$B$5</f>
+        <f t="shared" si="12"/>
         <v>2.7142857142857144</v>
       </c>
       <c r="H64">
-        <f>$B$9*COS(E64-$B$10)/(1-$B$5)</f>
+        <f t="shared" si="13"/>
         <v>-2.9215750935097029</v>
       </c>
       <c r="I64">
-        <f>$B$9*COS(2*E64-$B$11)/(4-$B$5)</f>
+        <f t="shared" si="14"/>
         <v>-0.24346683592671009</v>
       </c>
       <c r="J64">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>-0.45075621515069858</v>
       </c>
     </row>
@@ -11291,27 +11291,27 @@
         <v>7</v>
       </c>
       <c r="E65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>1.7951958020513104</v>
       </c>
       <c r="F65" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>102.85714285714286</v>
       </c>
       <c r="G65">
-        <f>$B$9/$B$5</f>
+        <f t="shared" si="12"/>
         <v>2.7142857142857144</v>
       </c>
       <c r="H65">
-        <f>$B$9*COS(E65-$B$10)/(1-$B$5)</f>
+        <f t="shared" si="13"/>
         <v>-2.8497892817622534</v>
       </c>
       <c r="I65">
-        <f>$B$9*COS(2*E65-$B$11)/(4-$B$5)</f>
+        <f t="shared" si="14"/>
         <v>1.6487582086467207</v>
       </c>
       <c r="J65">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>1.5132546411701817</v>
       </c>
     </row>
@@ -11320,27 +11320,27 @@
         <v>8</v>
       </c>
       <c r="E66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>2.0516523452014974</v>
       </c>
       <c r="F66" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>117.55102040816325</v>
       </c>
       <c r="G66">
-        <f>$B$9/$B$5</f>
+        <f t="shared" si="12"/>
         <v>2.7142857142857144</v>
       </c>
       <c r="H66">
-        <f>$B$9*COS(E66-$B$10)/(1-$B$5)</f>
+        <f t="shared" si="13"/>
         <v>-2.591597972474923</v>
       </c>
       <c r="I66">
-        <f>$B$9*COS(2*E66-$B$11)/(4-$B$5)</f>
+        <f t="shared" si="14"/>
         <v>3.1166545674684314</v>
       </c>
       <c r="J66">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>3.2393423092792228</v>
       </c>
     </row>
@@ -11349,27 +11349,27 @@
         <v>9</v>
       </c>
       <c r="E67">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>2.3081088883516849</v>
       </c>
       <c r="F67" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>132.24489795918367</v>
       </c>
       <c r="G67">
-        <f>$B$9/$B$5</f>
+        <f t="shared" si="12"/>
         <v>2.7142857142857144</v>
       </c>
       <c r="H67">
-        <f>$B$9*COS(E67-$B$10)/(1-$B$5)</f>
+        <f t="shared" si="13"/>
         <v>-2.1638895299124603</v>
       </c>
       <c r="I67">
-        <f>$B$9*COS(2*E67-$B$11)/(4-$B$5)</f>
+        <f t="shared" si="14"/>
         <v>3.7824406292069535</v>
       </c>
       <c r="J67">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>4.332836813580208</v>
       </c>
     </row>
@@ -11378,27 +11378,27 @@
         <v>10</v>
       </c>
       <c r="E68">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>2.564565431501872</v>
       </c>
       <c r="F68" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>146.9387755102041</v>
       </c>
       <c r="G68">
-        <f>$B$9/$B$5</f>
+        <f t="shared" si="12"/>
         <v>2.7142857142857144</v>
       </c>
       <c r="H68">
-        <f>$B$9*COS(E68-$B$10)/(1-$B$5)</f>
+        <f t="shared" si="13"/>
         <v>-1.5946404804616034</v>
       </c>
       <c r="I68">
-        <f>$B$9*COS(2*E68-$B$11)/(4-$B$5)</f>
+        <f t="shared" si="14"/>
         <v>3.4747679674600875</v>
       </c>
       <c r="J68">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>4.5944132012841985</v>
       </c>
     </row>
@@ -11407,27 +11407,27 @@
         <v>11</v>
       </c>
       <c r="E69">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>2.8210219746520586</v>
       </c>
       <c r="F69" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>161.63265306122446</v>
       </c>
       <c r="G69">
-        <f>$B$9/$B$5</f>
+        <f t="shared" si="12"/>
         <v>2.7142857142857144</v>
       </c>
       <c r="H69">
-        <f>$B$9*COS(E69-$B$10)/(1-$B$5)</f>
+        <f t="shared" si="13"/>
         <v>-0.92108556037673894</v>
       </c>
       <c r="I69">
-        <f>$B$9*COS(2*E69-$B$11)/(4-$B$5)</f>
+        <f t="shared" si="14"/>
         <v>2.2728200158666239</v>
       </c>
       <c r="J69">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>4.0660201697755998</v>
       </c>
     </row>
@@ -11436,27 +11436,27 @@
         <v>12</v>
       </c>
       <c r="E70">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>3.0774785178022461</v>
       </c>
       <c r="F70" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>176.32653061224488</v>
       </c>
       <c r="G70">
-        <f>$B$9/$B$5</f>
+        <f t="shared" si="12"/>
         <v>2.7142857142857144</v>
       </c>
       <c r="H70">
-        <f>$B$9*COS(E70-$B$10)/(1-$B$5)</f>
+        <f t="shared" si="13"/>
         <v>-0.18728218148208467</v>
       </c>
       <c r="I70">
-        <f>$B$9*COS(2*E70-$B$11)/(4-$B$5)</f>
+        <f t="shared" si="14"/>
         <v>0.48593321440112491</v>
       </c>
       <c r="J70">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>3.0129367472047548</v>
       </c>
     </row>
@@ -11465,27 +11465,27 @@
         <v>13</v>
       </c>
       <c r="E71">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>3.3339350609524336</v>
       </c>
       <c r="F71" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>191.0204081632653</v>
       </c>
       <c r="G71">
-        <f>$B$9/$B$5</f>
+        <f t="shared" si="12"/>
         <v>2.7142857142857144</v>
       </c>
       <c r="H71">
-        <f>$B$9*COS(E71-$B$10)/(1-$B$5)</f>
+        <f t="shared" si="13"/>
         <v>0.55877137620401141</v>
       </c>
       <c r="I71">
-        <f>$B$9*COS(2*E71-$B$11)/(4-$B$5)</f>
+        <f t="shared" si="14"/>
         <v>-1.426014618541622</v>
       </c>
       <c r="J71">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>1.8470424719481036</v>
       </c>
     </row>
@@ -11494,27 +11494,27 @@
         <v>14</v>
       </c>
       <c r="E72">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>3.5903916041026207</v>
       </c>
       <c r="F72" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>205.71428571428572</v>
       </c>
       <c r="G72">
-        <f>$B$9/$B$5</f>
+        <f t="shared" si="12"/>
         <v>2.7142857142857144</v>
       </c>
       <c r="H72">
-        <f>$B$9*COS(E72-$B$10)/(1-$B$5)</f>
+        <f t="shared" si="13"/>
         <v>1.268275545112862</v>
       </c>
       <c r="I72">
-        <f>$B$9*COS(2*E72-$B$11)/(4-$B$5)</f>
+        <f t="shared" si="14"/>
         <v>-2.9709596333785129</v>
       </c>
       <c r="J72">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>1.0116016260200635</v>
       </c>
     </row>
@@ -11523,27 +11523,27 @@
         <v>15</v>
       </c>
       <c r="E73">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>3.8468481472528078</v>
       </c>
       <c r="F73" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>220.40816326530611</v>
       </c>
       <c r="G73">
-        <f>$B$9/$B$5</f>
+        <f t="shared" si="12"/>
         <v>2.7142857142857144</v>
       </c>
       <c r="H73">
-        <f>$B$9*COS(E73-$B$10)/(1-$B$5)</f>
+        <f t="shared" si="13"/>
         <v>1.894821463207381</v>
       </c>
       <c r="I73">
-        <f>$B$9*COS(2*E73-$B$11)/(4-$B$5)</f>
+        <f t="shared" si="14"/>
         <v>-3.7512907769749106</v>
       </c>
       <c r="J73">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0.85781640051818497</v>
       </c>
     </row>
@@ -11552,27 +11552,27 @@
         <v>16</v>
       </c>
       <c r="E74">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>4.1033046904029948</v>
       </c>
       <c r="F74" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>235.10204081632651</v>
       </c>
       <c r="G74">
-        <f>$B$9/$B$5</f>
+        <f t="shared" si="12"/>
         <v>2.7142857142857144</v>
       </c>
       <c r="H74">
-        <f>$B$9*COS(E74-$B$10)/(1-$B$5)</f>
+        <f t="shared" si="13"/>
         <v>2.397426590360332</v>
       </c>
       <c r="I74">
-        <f>$B$9*COS(2*E74-$B$11)/(4-$B$5)</f>
+        <f t="shared" si="14"/>
         <v>-3.5661800037890905</v>
       </c>
       <c r="J74">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>1.5455323008569555</v>
       </c>
     </row>
@@ -11581,27 +11581,27 @@
         <v>17</v>
       </c>
       <c r="E75">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>4.3597612335531828</v>
       </c>
       <c r="F75" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>249.79591836734696</v>
       </c>
       <c r="G75">
-        <f>$B$9/$B$5</f>
+        <f t="shared" si="12"/>
         <v>2.7142857142857144</v>
       </c>
       <c r="H75">
-        <f>$B$9*COS(E75-$B$10)/(1-$B$5)</f>
+        <f t="shared" si="13"/>
         <v>2.7432153875300691</v>
       </c>
       <c r="I75">
-        <f>$B$9*COS(2*E75-$B$11)/(4-$B$5)</f>
+        <f t="shared" si="14"/>
         <v>-2.4632679021695938</v>
       </c>
       <c r="J75">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>2.9942331996461893</v>
       </c>
     </row>
@@ -11610,27 +11610,27 @@
         <v>18</v>
       </c>
       <c r="E76">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>4.6162177767033699</v>
       </c>
       <c r="F76" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>264.48979591836735</v>
       </c>
       <c r="G76">
-        <f>$B$9/$B$5</f>
+        <f t="shared" si="12"/>
         <v>2.7142857142857144</v>
       </c>
       <c r="H76">
-        <f>$B$9*COS(E76-$B$10)/(1-$B$5)</f>
+        <f t="shared" si="13"/>
         <v>2.9095697147745794</v>
       </c>
       <c r="I76">
-        <f>$B$9*COS(2*E76-$B$11)/(4-$B$5)</f>
+        <f t="shared" si="14"/>
         <v>-0.72640278906521305</v>
       </c>
       <c r="J76">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>4.8974526399950804</v>
       </c>
     </row>
@@ -11639,27 +11639,27 @@
         <v>19</v>
       </c>
       <c r="E77">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>4.872674319853556</v>
       </c>
       <c r="F77" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>279.18367346938771</v>
       </c>
       <c r="G77">
-        <f>$B$9/$B$5</f>
+        <f t="shared" si="12"/>
         <v>2.7142857142857144</v>
       </c>
       <c r="H77">
-        <f>$B$9*COS(E77-$B$10)/(1-$B$5)</f>
+        <f t="shared" si="13"/>
         <v>2.8856082899807012</v>
       </c>
       <c r="I77">
-        <f>$B$9*COS(2*E77-$B$11)/(4-$B$5)</f>
+        <f t="shared" si="14"/>
         <v>1.1974112284897527</v>
       </c>
       <c r="J77">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>6.7973052327561678</v>
       </c>
     </row>
@@ -11668,27 +11668,27 @@
         <v>20</v>
       </c>
       <c r="E78">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>5.129130863003744</v>
       </c>
       <c r="F78" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>293.87755102040819</v>
       </c>
       <c r="G78">
-        <f>$B$9/$B$5</f>
+        <f t="shared" si="12"/>
         <v>2.7142857142857144</v>
       </c>
       <c r="H78">
-        <f>$B$9*COS(E78-$B$10)/(1-$B$5)</f>
+        <f t="shared" si="13"/>
         <v>2.6728984365077597</v>
       </c>
       <c r="I78">
-        <f>$B$9*COS(2*E78-$B$11)/(4-$B$5)</f>
+        <f t="shared" si="14"/>
         <v>2.8130563888861988</v>
       </c>
       <c r="J78">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>8.2002405396796725</v>
       </c>
     </row>
@@ -11697,27 +11697,27 @@
         <v>21</v>
       </c>
       <c r="E79">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>5.3855874061539311</v>
       </c>
       <c r="F79" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>308.57142857142856</v>
       </c>
       <c r="G79">
-        <f>$B$9/$B$5</f>
+        <f t="shared" si="12"/>
         <v>2.7142857142857144</v>
       </c>
       <c r="H79">
-        <f>$B$9*COS(E79-$B$10)/(1-$B$5)</f>
+        <f t="shared" si="13"/>
         <v>2.2853535641373179</v>
       </c>
       <c r="I79">
-        <f>$B$9*COS(2*E79-$B$11)/(4-$B$5)</f>
+        <f t="shared" si="14"/>
         <v>3.7047260662909296</v>
       </c>
       <c r="J79">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>8.7043653447139615</v>
       </c>
     </row>
@@ -11726,27 +11726,27 @@
         <v>22</v>
       </c>
       <c r="E80">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>5.6420439493041172</v>
       </c>
       <c r="F80" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>323.26530612244892</v>
       </c>
       <c r="G80">
-        <f>$B$9/$B$5</f>
+        <f t="shared" si="12"/>
         <v>2.7142857142857144</v>
       </c>
       <c r="H80">
-        <f>$B$9*COS(E80-$B$10)/(1-$B$5)</f>
+        <f t="shared" si="13"/>
         <v>1.7483230891281722</v>
       </c>
       <c r="I80">
-        <f>$B$9*COS(2*E80-$B$11)/(4-$B$5)</f>
+        <f t="shared" si="14"/>
         <v>3.6429378415393132</v>
       </c>
       <c r="J80">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>8.1055466449532005</v>
       </c>
     </row>
@@ -11755,27 +11755,27 @@
         <v>23</v>
       </c>
       <c r="E81">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>5.8985004924543052</v>
       </c>
       <c r="F81" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>337.9591836734694</v>
       </c>
       <c r="G81">
-        <f>$B$9/$B$5</f>
+        <f t="shared" si="12"/>
         <v>2.7142857142857144</v>
       </c>
       <c r="H81">
-        <f>$B$9*COS(E81-$B$10)/(1-$B$5)</f>
+        <f t="shared" si="13"/>
         <v>1.0969343219550949</v>
       </c>
       <c r="I81">
-        <f>$B$9*COS(2*E81-$B$11)/(4-$B$5)</f>
+        <f t="shared" si="14"/>
         <v>2.6435936922932508</v>
       </c>
       <c r="J81">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>6.4548137285340594</v>
       </c>
     </row>
@@ -11784,27 +11784,27 @@
         <v>24</v>
       </c>
       <c r="E82">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>6.1549570356044923</v>
       </c>
       <c r="F82" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>352.65306122448976</v>
       </c>
       <c r="G82">
-        <f>$B$9/$B$5</f>
+        <f t="shared" si="12"/>
         <v>2.7142857142857144</v>
       </c>
       <c r="H82">
-        <f>$B$9*COS(E82-$B$10)/(1-$B$5)</f>
+        <f t="shared" si="13"/>
         <v>0.37379478030855762</v>
       </c>
       <c r="I82">
-        <f>$B$9*COS(2*E82-$B$11)/(4-$B$5)</f>
+        <f t="shared" si="14"/>
         <v>0.96388741885613238</v>
       </c>
       <c r="J82">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>4.0519679134504045</v>
       </c>
     </row>
@@ -11856,15 +11856,15 @@
         <v>14.693877551020407</v>
       </c>
       <c r="G85">
-        <f>$B$9/$B$5</f>
+        <f t="shared" ref="G85:G108" si="18">$B$9/$B$5</f>
         <v>2.7142857142857144</v>
       </c>
       <c r="H85">
-        <f>$B$9*COS(E85-$B$10)/(1-$B$5)</f>
+        <f t="shared" ref="H85:H108" si="19">$B$9*COS(E85-$B$10)/(1-$B$5)</f>
         <v>-0.74145186065855972</v>
       </c>
       <c r="I85">
-        <f>$B$9*COS(2*E85-$B$11)/(4-$B$5)</f>
+        <f t="shared" ref="I85:I108" si="20">$B$9*COS(2*E85-$B$11)/(4-$B$5)</f>
         <v>-1.8647266976149641</v>
       </c>
       <c r="J85">
@@ -11883,27 +11883,27 @@
         <v>2</v>
       </c>
       <c r="E86">
-        <f t="shared" ref="E86:E108" si="12">D86*2*PI()/(24.5)</f>
+        <f t="shared" ref="E86:E108" si="21">D86*2*PI()/(24.5)</f>
         <v>0.51291308630037435</v>
       </c>
       <c r="F86" s="1">
-        <f t="shared" ref="F86:F108" si="13">E86*(180/PI())</f>
+        <f t="shared" ref="F86:F108" si="22">E86*(180/PI())</f>
         <v>29.387755102040813</v>
       </c>
       <c r="G86">
-        <f>$B$9/$B$5</f>
+        <f t="shared" si="18"/>
         <v>2.7142857142857144</v>
       </c>
       <c r="H86">
-        <f>$B$9*COS(E86-$B$10)/(1-$B$5)</f>
+        <f t="shared" si="19"/>
         <v>-1.4344051520115109</v>
       </c>
       <c r="I86">
-        <f>$B$9*COS(2*E86-$B$11)/(4-$B$5)</f>
+        <f t="shared" si="20"/>
         <v>-3.2495424994203157</v>
       </c>
       <c r="J86">
-        <f t="shared" ref="J86:J108" si="14">SUM(G86:I86)</f>
+        <f t="shared" ref="J86:J108" si="23">SUM(G86:I86)</f>
         <v>-1.9696619371461122</v>
       </c>
     </row>
@@ -11919,27 +11919,27 @@
         <v>3</v>
       </c>
       <c r="E87">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>0.76936962945056153</v>
       </c>
       <c r="F87" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>44.08163265306122</v>
       </c>
       <c r="G87">
-        <f>$B$9/$B$5</f>
+        <f t="shared" si="18"/>
         <v>2.7142857142857144</v>
       </c>
       <c r="H87">
-        <f>$B$9*COS(E87-$B$10)/(1-$B$5)</f>
+        <f t="shared" si="19"/>
         <v>-2.0335336094563448</v>
       </c>
       <c r="I87">
-        <f>$B$9*COS(2*E87-$B$11)/(4-$B$5)</f>
+        <f t="shared" si="20"/>
         <v>-3.7980476215626142</v>
       </c>
       <c r="J87">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>-3.1172955167332446</v>
       </c>
     </row>
@@ -11955,27 +11955,27 @@
         <v>4</v>
       </c>
       <c r="E88">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>1.0258261726007487</v>
       </c>
       <c r="F88" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>58.775510204081627</v>
       </c>
       <c r="G88">
-        <f>$B$9/$B$5</f>
+        <f t="shared" si="18"/>
         <v>2.7142857142857144</v>
       </c>
       <c r="H88">
-        <f>$B$9*COS(E88-$B$10)/(1-$B$5)</f>
+        <f t="shared" si="19"/>
         <v>-2.4996480764771656</v>
       </c>
       <c r="I88">
-        <f>$B$9*COS(2*E88-$B$11)/(4-$B$5)</f>
+        <f t="shared" si="20"/>
         <v>-3.3690773642174001</v>
       </c>
       <c r="J88">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>-3.1544397264088513</v>
       </c>
     </row>
@@ -11991,27 +11991,27 @@
         <v>5</v>
       </c>
       <c r="E89">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>1.282282715750936</v>
       </c>
       <c r="F89" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>73.469387755102048</v>
       </c>
       <c r="G89">
-        <f>$B$9/$B$5</f>
+        <f t="shared" si="18"/>
         <v>2.7142857142857144</v>
       </c>
       <c r="H89">
-        <f>$B$9*COS(E89-$B$10)/(1-$B$5)</f>
+        <f t="shared" si="19"/>
         <v>-2.8022598781071619</v>
       </c>
       <c r="I89">
-        <f>$B$9*COS(2*E89-$B$11)/(4-$B$5)</f>
+        <f t="shared" si="20"/>
         <v>-2.0730326246000845</v>
       </c>
       <c r="J89">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>-2.161006788421532</v>
       </c>
     </row>
@@ -12020,27 +12020,27 @@
         <v>6</v>
       </c>
       <c r="E90">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>1.5387392589011231</v>
       </c>
       <c r="F90" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>88.16326530612244</v>
       </c>
       <c r="G90">
-        <f>$B$9/$B$5</f>
+        <f t="shared" si="18"/>
         <v>2.7142857142857144</v>
       </c>
       <c r="H90">
-        <f>$B$9*COS(E90-$B$10)/(1-$B$5)</f>
+        <f t="shared" si="19"/>
         <v>-2.9215750935097029</v>
       </c>
       <c r="I90">
-        <f>$B$9*COS(2*E90-$B$11)/(4-$B$5)</f>
+        <f t="shared" si="20"/>
         <v>-0.24346683592671009</v>
       </c>
       <c r="J90">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>-0.45075621515069858</v>
       </c>
     </row>
@@ -12049,27 +12049,27 @@
         <v>7</v>
       </c>
       <c r="E91">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>1.7951958020513104</v>
       </c>
       <c r="F91" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>102.85714285714286</v>
       </c>
       <c r="G91">
-        <f>$B$9/$B$5</f>
+        <f t="shared" si="18"/>
         <v>2.7142857142857144</v>
       </c>
       <c r="H91">
-        <f>$B$9*COS(E91-$B$10)/(1-$B$5)</f>
+        <f t="shared" si="19"/>
         <v>-2.8497892817622534</v>
       </c>
       <c r="I91">
-        <f>$B$9*COS(2*E91-$B$11)/(4-$B$5)</f>
+        <f t="shared" si="20"/>
         <v>1.6487582086467207</v>
       </c>
       <c r="J91">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>1.5132546411701817</v>
       </c>
     </row>
@@ -12078,27 +12078,27 @@
         <v>8</v>
       </c>
       <c r="E92">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>2.0516523452014974</v>
       </c>
       <c r="F92" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>117.55102040816325</v>
       </c>
       <c r="G92">
-        <f>$B$9/$B$5</f>
+        <f t="shared" si="18"/>
         <v>2.7142857142857144</v>
       </c>
       <c r="H92">
-        <f>$B$9*COS(E92-$B$10)/(1-$B$5)</f>
+        <f t="shared" si="19"/>
         <v>-2.591597972474923</v>
       </c>
       <c r="I92">
-        <f>$B$9*COS(2*E92-$B$11)/(4-$B$5)</f>
+        <f t="shared" si="20"/>
         <v>3.1166545674684314</v>
       </c>
       <c r="J92">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>3.2393423092792228</v>
       </c>
     </row>
@@ -12107,27 +12107,27 @@
         <v>9</v>
       </c>
       <c r="E93">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>2.3081088883516849</v>
       </c>
       <c r="F93" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>132.24489795918367</v>
       </c>
       <c r="G93">
-        <f>$B$9/$B$5</f>
+        <f t="shared" si="18"/>
         <v>2.7142857142857144</v>
       </c>
       <c r="H93">
-        <f>$B$9*COS(E93-$B$10)/(1-$B$5)</f>
+        <f t="shared" si="19"/>
         <v>-2.1638895299124603</v>
       </c>
       <c r="I93">
-        <f>$B$9*COS(2*E93-$B$11)/(4-$B$5)</f>
+        <f t="shared" si="20"/>
         <v>3.7824406292069535</v>
       </c>
       <c r="J93">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>4.332836813580208</v>
       </c>
     </row>
@@ -12136,27 +12136,27 @@
         <v>10</v>
       </c>
       <c r="E94">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>2.564565431501872</v>
       </c>
       <c r="F94" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>146.9387755102041</v>
       </c>
       <c r="G94">
-        <f>$B$9/$B$5</f>
+        <f t="shared" si="18"/>
         <v>2.7142857142857144</v>
       </c>
       <c r="H94">
-        <f>$B$9*COS(E94-$B$10)/(1-$B$5)</f>
+        <f t="shared" si="19"/>
         <v>-1.5946404804616034</v>
       </c>
       <c r="I94">
-        <f>$B$9*COS(2*E94-$B$11)/(4-$B$5)</f>
+        <f t="shared" si="20"/>
         <v>3.4747679674600875</v>
       </c>
       <c r="J94">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>4.5944132012841985</v>
       </c>
     </row>
@@ -12165,27 +12165,27 @@
         <v>11</v>
       </c>
       <c r="E95">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>2.8210219746520586</v>
       </c>
       <c r="F95" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>161.63265306122446</v>
       </c>
       <c r="G95">
-        <f>$B$9/$B$5</f>
+        <f t="shared" si="18"/>
         <v>2.7142857142857144</v>
       </c>
       <c r="H95">
-        <f>$B$9*COS(E95-$B$10)/(1-$B$5)</f>
+        <f t="shared" si="19"/>
         <v>-0.92108556037673894</v>
       </c>
       <c r="I95">
-        <f>$B$9*COS(2*E95-$B$11)/(4-$B$5)</f>
+        <f t="shared" si="20"/>
         <v>2.2728200158666239</v>
       </c>
       <c r="J95">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>4.0660201697755998</v>
       </c>
     </row>
@@ -12194,27 +12194,27 @@
         <v>12</v>
       </c>
       <c r="E96">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>3.0774785178022461</v>
       </c>
       <c r="F96" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>176.32653061224488</v>
       </c>
       <c r="G96">
-        <f>$B$9/$B$5</f>
+        <f t="shared" si="18"/>
         <v>2.7142857142857144</v>
       </c>
       <c r="H96">
-        <f>$B$9*COS(E96-$B$10)/(1-$B$5)</f>
+        <f t="shared" si="19"/>
         <v>-0.18728218148208467</v>
       </c>
       <c r="I96">
-        <f>$B$9*COS(2*E96-$B$11)/(4-$B$5)</f>
+        <f t="shared" si="20"/>
         <v>0.48593321440112491</v>
       </c>
       <c r="J96">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>3.0129367472047548</v>
       </c>
     </row>
@@ -12223,27 +12223,27 @@
         <v>13</v>
       </c>
       <c r="E97">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>3.3339350609524336</v>
       </c>
       <c r="F97" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>191.0204081632653</v>
       </c>
       <c r="G97">
-        <f>$B$9/$B$5</f>
+        <f t="shared" si="18"/>
         <v>2.7142857142857144</v>
       </c>
       <c r="H97">
-        <f>$B$9*COS(E97-$B$10)/(1-$B$5)</f>
+        <f t="shared" si="19"/>
         <v>0.55877137620401141</v>
       </c>
       <c r="I97">
-        <f>$B$9*COS(2*E97-$B$11)/(4-$B$5)</f>
+        <f t="shared" si="20"/>
         <v>-1.426014618541622</v>
       </c>
       <c r="J97">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>1.8470424719481036</v>
       </c>
     </row>
@@ -12252,27 +12252,27 @@
         <v>14</v>
       </c>
       <c r="E98">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>3.5903916041026207</v>
       </c>
       <c r="F98" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>205.71428571428572</v>
       </c>
       <c r="G98">
-        <f>$B$9/$B$5</f>
+        <f t="shared" si="18"/>
         <v>2.7142857142857144</v>
       </c>
       <c r="H98">
-        <f>$B$9*COS(E98-$B$10)/(1-$B$5)</f>
+        <f t="shared" si="19"/>
         <v>1.268275545112862</v>
       </c>
       <c r="I98">
-        <f>$B$9*COS(2*E98-$B$11)/(4-$B$5)</f>
+        <f t="shared" si="20"/>
         <v>-2.9709596333785129</v>
       </c>
       <c r="J98">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>1.0116016260200635</v>
       </c>
     </row>
@@ -12281,27 +12281,27 @@
         <v>15</v>
       </c>
       <c r="E99">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>3.8468481472528078</v>
       </c>
       <c r="F99" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>220.40816326530611</v>
       </c>
       <c r="G99">
-        <f>$B$9/$B$5</f>
+        <f t="shared" si="18"/>
         <v>2.7142857142857144</v>
       </c>
       <c r="H99">
-        <f>$B$9*COS(E99-$B$10)/(1-$B$5)</f>
+        <f t="shared" si="19"/>
         <v>1.894821463207381</v>
       </c>
       <c r="I99">
-        <f>$B$9*COS(2*E99-$B$11)/(4-$B$5)</f>
+        <f t="shared" si="20"/>
         <v>-3.7512907769749106</v>
       </c>
       <c r="J99">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>0.85781640051818497</v>
       </c>
     </row>
@@ -12310,27 +12310,27 @@
         <v>16</v>
       </c>
       <c r="E100">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>4.1033046904029948</v>
       </c>
       <c r="F100" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>235.10204081632651</v>
       </c>
       <c r="G100">
-        <f>$B$9/$B$5</f>
+        <f t="shared" si="18"/>
         <v>2.7142857142857144</v>
       </c>
       <c r="H100">
-        <f>$B$9*COS(E100-$B$10)/(1-$B$5)</f>
+        <f t="shared" si="19"/>
         <v>2.397426590360332</v>
       </c>
       <c r="I100">
-        <f>$B$9*COS(2*E100-$B$11)/(4-$B$5)</f>
+        <f t="shared" si="20"/>
         <v>-3.5661800037890905</v>
       </c>
       <c r="J100">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>1.5455323008569555</v>
       </c>
     </row>
@@ -12339,27 +12339,27 @@
         <v>17</v>
       </c>
       <c r="E101">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>4.3597612335531828</v>
       </c>
       <c r="F101" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>249.79591836734696</v>
       </c>
       <c r="G101">
-        <f>$B$9/$B$5</f>
+        <f t="shared" si="18"/>
         <v>2.7142857142857144</v>
       </c>
       <c r="H101">
-        <f>$B$9*COS(E101-$B$10)/(1-$B$5)</f>
+        <f t="shared" si="19"/>
         <v>2.7432153875300691</v>
       </c>
       <c r="I101">
-        <f>$B$9*COS(2*E101-$B$11)/(4-$B$5)</f>
+        <f t="shared" si="20"/>
         <v>-2.4632679021695938</v>
       </c>
       <c r="J101">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>2.9942331996461893</v>
       </c>
     </row>
@@ -12368,27 +12368,27 @@
         <v>18</v>
       </c>
       <c r="E102">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>4.6162177767033699</v>
       </c>
       <c r="F102" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>264.48979591836735</v>
       </c>
       <c r="G102">
-        <f>$B$9/$B$5</f>
+        <f t="shared" si="18"/>
         <v>2.7142857142857144</v>
       </c>
       <c r="H102">
-        <f>$B$9*COS(E102-$B$10)/(1-$B$5)</f>
+        <f t="shared" si="19"/>
         <v>2.9095697147745794</v>
       </c>
       <c r="I102">
-        <f>$B$9*COS(2*E102-$B$11)/(4-$B$5)</f>
+        <f t="shared" si="20"/>
         <v>-0.72640278906521305</v>
       </c>
       <c r="J102">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>4.8974526399950804</v>
       </c>
     </row>
@@ -12397,27 +12397,27 @@
         <v>19</v>
       </c>
       <c r="E103">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>4.872674319853556</v>
       </c>
       <c r="F103" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>279.18367346938771</v>
       </c>
       <c r="G103">
-        <f>$B$9/$B$5</f>
+        <f t="shared" si="18"/>
         <v>2.7142857142857144</v>
       </c>
       <c r="H103">
-        <f>$B$9*COS(E103-$B$10)/(1-$B$5)</f>
+        <f t="shared" si="19"/>
         <v>2.8856082899807012</v>
       </c>
       <c r="I103">
-        <f>$B$9*COS(2*E103-$B$11)/(4-$B$5)</f>
+        <f t="shared" si="20"/>
         <v>1.1974112284897527</v>
       </c>
       <c r="J103">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>6.7973052327561678</v>
       </c>
     </row>
@@ -12426,27 +12426,27 @@
         <v>20</v>
       </c>
       <c r="E104">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>5.129130863003744</v>
       </c>
       <c r="F104" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>293.87755102040819</v>
       </c>
       <c r="G104">
-        <f>$B$9/$B$5</f>
+        <f t="shared" si="18"/>
         <v>2.7142857142857144</v>
       </c>
       <c r="H104">
-        <f>$B$9*COS(E104-$B$10)/(1-$B$5)</f>
+        <f t="shared" si="19"/>
         <v>2.6728984365077597</v>
       </c>
       <c r="I104">
-        <f>$B$9*COS(2*E104-$B$11)/(4-$B$5)</f>
+        <f t="shared" si="20"/>
         <v>2.8130563888861988</v>
       </c>
       <c r="J104">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>8.2002405396796725</v>
       </c>
     </row>
@@ -12455,27 +12455,27 @@
         <v>21</v>
       </c>
       <c r="E105">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>5.3855874061539311</v>
       </c>
       <c r="F105" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>308.57142857142856</v>
       </c>
       <c r="G105">
-        <f>$B$9/$B$5</f>
+        <f t="shared" si="18"/>
         <v>2.7142857142857144</v>
       </c>
       <c r="H105">
-        <f>$B$9*COS(E105-$B$10)/(1-$B$5)</f>
+        <f t="shared" si="19"/>
         <v>2.2853535641373179</v>
       </c>
       <c r="I105">
-        <f>$B$9*COS(2*E105-$B$11)/(4-$B$5)</f>
+        <f t="shared" si="20"/>
         <v>3.7047260662909296</v>
       </c>
       <c r="J105">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>8.7043653447139615</v>
       </c>
     </row>
@@ -12484,27 +12484,27 @@
         <v>22</v>
       </c>
       <c r="E106">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>5.6420439493041172</v>
       </c>
       <c r="F106" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>323.26530612244892</v>
       </c>
       <c r="G106">
-        <f>$B$9/$B$5</f>
+        <f t="shared" si="18"/>
         <v>2.7142857142857144</v>
       </c>
       <c r="H106">
-        <f>$B$9*COS(E106-$B$10)/(1-$B$5)</f>
+        <f t="shared" si="19"/>
         <v>1.7483230891281722</v>
       </c>
       <c r="I106">
-        <f>$B$9*COS(2*E106-$B$11)/(4-$B$5)</f>
+        <f t="shared" si="20"/>
         <v>3.6429378415393132</v>
       </c>
       <c r="J106">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>8.1055466449532005</v>
       </c>
     </row>
@@ -12513,27 +12513,27 @@
         <v>23</v>
       </c>
       <c r="E107">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>5.8985004924543052</v>
       </c>
       <c r="F107" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>337.9591836734694</v>
       </c>
       <c r="G107">
-        <f>$B$9/$B$5</f>
+        <f t="shared" si="18"/>
         <v>2.7142857142857144</v>
       </c>
       <c r="H107">
-        <f>$B$9*COS(E107-$B$10)/(1-$B$5)</f>
+        <f t="shared" si="19"/>
         <v>1.0969343219550949</v>
       </c>
       <c r="I107">
-        <f>$B$9*COS(2*E107-$B$11)/(4-$B$5)</f>
+        <f t="shared" si="20"/>
         <v>2.6435936922932508</v>
       </c>
       <c r="J107">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>6.4548137285340594</v>
       </c>
     </row>
@@ -12542,27 +12542,27 @@
         <v>24</v>
       </c>
       <c r="E108">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>6.1549570356044923</v>
       </c>
       <c r="F108" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>352.65306122448976</v>
       </c>
       <c r="G108">
-        <f>$B$9/$B$5</f>
+        <f t="shared" si="18"/>
         <v>2.7142857142857144</v>
       </c>
       <c r="H108">
-        <f>$B$9*COS(E108-$B$10)/(1-$B$5)</f>
+        <f t="shared" si="19"/>
         <v>0.37379478030855762</v>
       </c>
       <c r="I108">
-        <f>$B$9*COS(2*E108-$B$11)/(4-$B$5)</f>
+        <f t="shared" si="20"/>
         <v>0.96388741885613238</v>
       </c>
       <c r="J108">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>4.0519679134504045</v>
       </c>
     </row>

--- a/ToyQuadScan.xlsx
+++ b/ToyQuadScan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samuelgrant/Documents/gm2/EDM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65AA715C-8302-FF46-9E3F-1AE3800A1721}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6AFB89C-05B2-E346-B90F-9B48B986A9E9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{1274A7F7-32CE-AC49-AA55-A5E18D405CEC}"/>
   </bookViews>
@@ -8979,7 +8979,7 @@
   <dimension ref="B1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="B1:K14"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
